--- a/450 DSA.xlsx
+++ b/450 DSA.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="468">
   <si>
     <t xml:space="preserve">Questions by Love Babbar:</t>
   </si>
@@ -73,22 +73,28 @@
     <t xml:space="preserve">Minimum no. of Jumps to reach end of an array</t>
   </si>
   <si>
+    <t xml:space="preserve">----------------------</t>
+  </si>
+  <si>
+    <t xml:space="preserve">find duplicate in an array of N+1 Integers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merge 2 sorted arrays without using Extra space.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-----------------</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kadane's Algo [V.V.V.V.V IMP]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merge Intervals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Next Permutation</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;-&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">find duplicate in an array of N+1 Integers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Merge 2 sorted arrays without using Extra space.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kadane's Algo [V.V.V.V.V IMP]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Merge Intervals</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Next Permutation</t>
   </si>
   <si>
     <t xml:space="preserve">Count Inversion</t>
@@ -1666,7 +1672,7 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
+      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1819,7 +1825,7 @@
         <v>18</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1830,7 +1836,7 @@
         <v>19</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1838,10 +1844,10 @@
         <v>5</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1849,10 +1855,10 @@
         <v>5</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1860,10 +1866,10 @@
         <v>5</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1871,10 +1877,10 @@
         <v>5</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1882,10 +1888,10 @@
         <v>5</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1893,10 +1899,10 @@
         <v>5</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1904,10 +1910,10 @@
         <v>5</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1915,10 +1921,10 @@
         <v>5</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1926,10 +1932,10 @@
         <v>5</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1937,10 +1943,10 @@
         <v>5</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1948,10 +1954,10 @@
         <v>5</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1959,10 +1965,10 @@
         <v>5</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1970,10 +1976,10 @@
         <v>5</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1981,10 +1987,10 @@
         <v>5</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1992,10 +1998,10 @@
         <v>5</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2003,10 +2009,10 @@
         <v>5</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2014,10 +2020,10 @@
         <v>5</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2025,10 +2031,10 @@
         <v>5</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2036,10 +2042,10 @@
         <v>5</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2047,10 +2053,10 @@
         <v>5</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2058,10 +2064,10 @@
         <v>5</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2069,10 +2075,10 @@
         <v>5</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2080,10 +2086,10 @@
         <v>5</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2091,133 +2097,133 @@
         <v>5</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="8"/>
       <c r="C42" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="6"/>
       <c r="B43" s="8"/>
       <c r="C43" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2227,475 +2233,475 @@
     </row>
     <row r="56" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2705,398 +2711,398 @@
     </row>
     <row r="101" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3105,398 +3111,398 @@
     </row>
     <row r="139" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="6" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="6" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="6" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="6" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="6" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="6" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="6" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="6" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="6" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="6" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="6" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="6" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="6" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="6" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="6" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="6" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="6" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="6" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="6" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="6" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="6" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B159" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="6" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B160" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="6" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="6" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="6" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B163" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="6" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B164" s="8" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="6" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B165" s="8" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="6" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B166" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="6" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B167" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="6" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B168" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="6" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B169" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="6" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B170" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="6" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B171" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="6" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B172" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="6" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B173" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="6" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B174" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3505,387 +3511,387 @@
     </row>
     <row r="177" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="6" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B177" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="6" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B178" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="6" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B179" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="6" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B180" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="6" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B181" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="6" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B182" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="6" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B183" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="6" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B184" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="6" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B185" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="6" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B186" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="6" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B187" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="6" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B188" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="6" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B189" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C189" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="6" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B190" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="6" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B191" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="6" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B192" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="6" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B193" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="6" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B194" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="6" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B195" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="6" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B196" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="6" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B197" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="6" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B198" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="6" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B199" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="6" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B200" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C200" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="6" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B201" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="6" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B202" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C202" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="6" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B203" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="6" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B204" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C204" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="6" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B205" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="6" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B206" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C206" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="6" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B207" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C207" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="6" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B208" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C208" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="6" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B209" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C209" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="6" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B210" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C210" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="6" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B211" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C211" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3900,244 +3906,244 @@
     </row>
     <row r="214" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="6" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B214" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C214" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="6" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B215" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C215" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="6" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B216" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C216" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="6" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B217" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C217" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="6" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B218" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C218" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="6" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B219" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C219" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="6" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B220" s="9" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C220" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="6" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B221" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C221" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="6" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B222" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C222" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="6" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B223" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C223" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="6" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B224" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C224" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="6" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B225" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C225" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="6" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B226" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C226" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="6" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B227" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C227" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="6" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B228" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C228" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="6" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B229" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C229" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="6" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B230" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C230" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="6" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B231" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C231" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="6" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B232" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C232" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="6" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B233" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C233" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="6" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B234" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C234" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="6" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B235" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C235" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4150,387 +4156,387 @@
     </row>
     <row r="238" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="6" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B238" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C238" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="6" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B239" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C239" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="6" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B240" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C240" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="6" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B241" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C241" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="6" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B242" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C242" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="6" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B243" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C243" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="6" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B244" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C244" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="6" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B245" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C245" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="6" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B246" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C246" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="6" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B247" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C247" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="6" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B248" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C248" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="6" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B249" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C249" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="6" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B250" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C250" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="6" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B251" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C251" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="6" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B252" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C252" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="6" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B253" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C253" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="6" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B254" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C254" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="6" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B255" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C255" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="6" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B256" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C256" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="6" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B257" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C257" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="6" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B258" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C258" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="6" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B259" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C259" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="6" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B260" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C260" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="6" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B261" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C261" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="6" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B262" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C262" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="6" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B263" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C263" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="6" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B264" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C264" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="6" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B265" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C265" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="6" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B266" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C266" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="6" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B267" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C267" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="6" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B268" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C268" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="6" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B269" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C269" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="6" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B270" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C270" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="6" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B271" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C271" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="6" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B272" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C272" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4543,211 +4549,211 @@
     </row>
     <row r="275" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="6" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B275" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C275" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="6" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B276" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C276" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="6" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B277" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C277" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="6" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B278" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C278" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="6" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B279" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C279" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="6" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B280" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C280" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="6" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B281" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C281" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="6" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B282" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C282" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="6" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B283" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C283" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="6" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B284" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C284" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="6" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B285" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C285" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="6" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B286" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C286" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="6" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B287" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C287" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="6" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B288" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C288" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="6" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B289" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C289" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="6" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B290" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C290" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="6" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B291" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C291" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="6" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B292" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C292" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="6" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B293" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C293" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4760,420 +4766,420 @@
     </row>
     <row r="296" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="6" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B296" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C296" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="6" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B297" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C297" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="6" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B298" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C298" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="6" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B299" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C299" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="6" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B300" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C300" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="6" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B301" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C301" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="6" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B302" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C302" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="6" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B303" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C303" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="6" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B304" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C304" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="6" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B305" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C305" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="6" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B306" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C306" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="6" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B307" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C307" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="6" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B308" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C308" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="6" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B309" s="9" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C309" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="6" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B310" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C310" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="6" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B311" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C311" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="6" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B312" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C312" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="6" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B313" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C313" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="6" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B314" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C314" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="6" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B315" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C315" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="6" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B316" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C316" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="6" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B317" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C317" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="6" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B318" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C318" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="6" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B319" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C319" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="6" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B320" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C320" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="6" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B321" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C321" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="6" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B322" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C322" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="6" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B323" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C323" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="6" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B324" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C324" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="6" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B325" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C325" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="6" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B326" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C326" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="6" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B327" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C327" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="6" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B328" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C328" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="6" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B329" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C329" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="6" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B330" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C330" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="6" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B331" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C331" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="6" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B332" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C332" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="6" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B333" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C333" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5186,200 +5192,200 @@
     </row>
     <row r="336" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="6" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B336" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C336" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="6" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B337" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C337" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="6" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B338" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C338" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="6" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B339" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C339" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="6" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B340" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C340" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="6" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B341" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C341" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="6" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B342" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C342" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="6" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B343" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C343" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="6" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B344" s="9" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C344" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="6" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B345" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C345" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="6" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B346" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C346" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="6" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B347" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C347" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="6" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B348" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C348" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="6" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B349" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C349" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="6" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B350" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C350" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="6" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B351" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C351" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="6" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B352" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C352" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="6" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B353" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C353" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5392,486 +5398,486 @@
     </row>
     <row r="356" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="6" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B356" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C356" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="6" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B357" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C357" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="6" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B358" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C358" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="6" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B359" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C359" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="6" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B360" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C360" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="6" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B361" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C361" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="6" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B362" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C362" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="6" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B363" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C363" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="6" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B364" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C364" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="6" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B365" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C365" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="6" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B366" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C366" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="6" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B367" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C367" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="6" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B368" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C368" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="6" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B369" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C369" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="6" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B370" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C370" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="6" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B371" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C371" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="6" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B372" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C372" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="6" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B373" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C373" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="6" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B374" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C374" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="6" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B375" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C375" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="6" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B376" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C376" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="6" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B377" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C377" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="6" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B378" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C378" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="6" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B379" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C379" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="6" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B380" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C380" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="6" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B381" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C381" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="6" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B382" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C382" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="6" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B383" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C383" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="6" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B384" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C384" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="6" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B385" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C385" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="6" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B386" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C386" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="6" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B387" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C387" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="6" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B388" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C388" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="6" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B389" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C389" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="390" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="6" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B390" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C390" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="6" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B391" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C391" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="392" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="6" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B392" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C392" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="393" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="6" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B393" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C393" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="394" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="6" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B394" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C394" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="395" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="6" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B395" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C395" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="396" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="6" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B396" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C396" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="397" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="6" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B397" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C397" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="398" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="6" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B398" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C398" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="399" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="6" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B399" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C399" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="400" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5884,68 +5890,68 @@
     </row>
     <row r="402" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="6" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B402" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C402" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="403" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="6" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B403" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C403" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="404" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="6" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B404" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C404" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="6" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B405" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C405" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="406" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="6" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B406" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C406" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="407" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="6" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B407" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C407" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5958,662 +5964,662 @@
     </row>
     <row r="410" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="6" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B410" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C410" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="411" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="6" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B411" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C411" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="412" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="6" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B412" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C412" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="413" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="6" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B413" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C413" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="414" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="6" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B414" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C414" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="415" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="6" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B415" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C415" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="416" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="6" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B416" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C416" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="417" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="6" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B417" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C417" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="418" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="6" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B418" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C418" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="419" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="6" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B419" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C419" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="420" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="6" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B420" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C420" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="421" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="6" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B421" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C421" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="422" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="6" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B422" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C422" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="423" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="6" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B423" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C423" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="424" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="6" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B424" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C424" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="425" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="6" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B425" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="C425" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="426" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="6" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B426" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C426" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="427" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="6" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B427" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="C427" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="6" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B428" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="C428" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="429" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="6" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B429" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="C429" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="430" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="6" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B430" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="C430" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="431" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="6" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B431" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C431" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="432" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="6" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B432" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C432" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="433" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="6" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B433" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="C433" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="434" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="6" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B434" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C434" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="435" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="6" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B435" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C435" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="436" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="6" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B436" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C436" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="437" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="6" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B437" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="C437" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="438" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="6" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B438" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C438" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="439" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="6" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B439" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C439" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="440" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="6" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B440" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="C440" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="441" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="6" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B441" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="C441" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="442" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="6" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B442" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C442" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="443" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="6" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B443" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C443" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="444" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="6" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B444" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C444" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="445" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="6" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B445" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="C445" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="446" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="6" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B446" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C446" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="447" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="6" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B447" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="C447" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="448" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="6" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B448" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="C448" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="449" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="6" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B449" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="C449" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="450" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="6" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B450" s="7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="C450" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="451" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="6" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B451" s="7" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C451" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="452" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="6" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B452" s="7" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="C452" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="453" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="6" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B453" s="7" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="C453" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="454" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="6" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B454" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="C454" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="455" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="6" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B455" s="7" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="C455" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="456" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="6" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B456" s="7" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C456" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="457" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="6" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B457" s="7" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="C457" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="458" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="6" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B458" s="7" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C458" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="459" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="6" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B459" s="7" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C459" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="460" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="6" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B460" s="7" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C460" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="461" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="6" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B461" s="7" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C461" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="462" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="6" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B462" s="7" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C462" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="463" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="6" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B463" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="C463" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="464" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="6" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B464" s="7" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="C464" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="465" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="6" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B465" s="7" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="C465" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="466" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="6" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B466" s="7" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="C466" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="467" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="6" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B467" s="7" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="C467" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="468" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="6" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B468" s="7" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="C468" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="469" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="6" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B469" s="7" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="C469" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="470" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6627,112 +6633,112 @@
     </row>
     <row r="472" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="6" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B472" s="7" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="C472" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="473" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="6" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B473" s="7" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="C473" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="474" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="6" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B474" s="7" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C474" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="475" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="6" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B475" s="7" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C475" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="476" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="6" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B476" s="7" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="C476" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="477" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="6" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B477" s="7" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="C477" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="478" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="6" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B478" s="7" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="C478" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="479" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="6" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B479" s="7" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C479" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="480" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="6" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B480" s="7" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C480" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="481" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="6" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B481" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="C481" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/450 DSA.xlsx
+++ b/450 DSA.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="469">
   <si>
     <t xml:space="preserve">Questions by Love Babbar:</t>
   </si>
@@ -94,12 +94,12 @@
     <t xml:space="preserve">Next Permutation</t>
   </si>
   <si>
+    <t xml:space="preserve">Count Inversion</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;-&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">Count Inversion</t>
-  </si>
-  <si>
     <t xml:space="preserve">Best time to buy and Sell stock</t>
   </si>
   <si>
@@ -170,6 +170,9 @@
   </si>
   <si>
     <t xml:space="preserve">Find median in a row wise sorted matrix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-------</t>
   </si>
   <si>
     <t xml:space="preserve">Find row with maximum no. of 1's</t>
@@ -1671,8 +1674,8 @@
   </sheetPr>
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C48" activeCellId="0" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1869,7 +1872,7 @@
         <v>23</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1877,10 +1880,10 @@
         <v>5</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1891,7 +1894,7 @@
         <v>26</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1902,7 +1905,7 @@
         <v>27</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1913,7 +1916,7 @@
         <v>28</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1924,7 +1927,7 @@
         <v>29</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1935,7 +1938,7 @@
         <v>30</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1946,7 +1949,7 @@
         <v>31</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1957,7 +1960,7 @@
         <v>32</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1968,7 +1971,7 @@
         <v>33</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1979,7 +1982,7 @@
         <v>34</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1990,7 +1993,7 @@
         <v>35</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2001,7 +2004,7 @@
         <v>36</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2012,7 +2015,7 @@
         <v>37</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2023,7 +2026,7 @@
         <v>38</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2034,7 +2037,7 @@
         <v>39</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2045,7 +2048,7 @@
         <v>40</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2056,7 +2059,7 @@
         <v>41</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2067,7 +2070,7 @@
         <v>42</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2078,7 +2081,7 @@
         <v>43</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2089,7 +2092,7 @@
         <v>44</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2100,20 +2103,20 @@
         <v>45</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="8"/>
       <c r="C42" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="6"/>
       <c r="B43" s="8"/>
       <c r="C43" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2124,10 +2127,10 @@
         <v>47</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="6" t="s">
         <v>46</v>
       </c>
@@ -2135,10 +2138,10 @@
         <v>48</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="6" t="s">
         <v>46</v>
       </c>
@@ -2146,7 +2149,7 @@
         <v>49</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2154,10 +2157,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2165,10 +2168,10 @@
         <v>46</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2176,10 +2179,10 @@
         <v>46</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2187,10 +2190,10 @@
         <v>46</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2198,10 +2201,10 @@
         <v>46</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2209,10 +2212,10 @@
         <v>46</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2220,10 +2223,10 @@
         <v>46</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2233,475 +2236,475 @@
     </row>
     <row r="56" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2711,398 +2714,398 @@
     </row>
     <row r="101" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3111,398 +3114,398 @@
     </row>
     <row r="139" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B159" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B160" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B163" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B164" s="8" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B165" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B166" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B167" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B168" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B169" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B170" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B171" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B172" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B173" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B174" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3511,387 +3514,387 @@
     </row>
     <row r="177" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B177" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B178" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B179" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B180" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B181" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B182" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B183" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B184" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B185" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B186" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B187" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B188" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B189" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C189" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B190" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B191" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B192" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B193" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B194" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B195" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B196" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B197" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B198" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B199" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B200" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C200" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B201" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B202" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C202" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B203" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B204" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C204" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B205" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B206" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C206" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B207" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C207" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B208" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C208" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B209" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C209" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B210" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C210" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B211" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C211" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3906,244 +3909,244 @@
     </row>
     <row r="214" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B214" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C214" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B215" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C215" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B216" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C216" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B217" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C217" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B218" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C218" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B219" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C219" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B220" s="9" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C220" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B221" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C221" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B222" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C222" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B223" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C223" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B224" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C224" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B225" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C225" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B226" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C226" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B227" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C227" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B228" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C228" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B229" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C229" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B230" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C230" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B231" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C231" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B232" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C232" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B233" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C233" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B234" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C234" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B235" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C235" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4156,387 +4159,387 @@
     </row>
     <row r="238" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="6" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B238" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C238" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="6" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B239" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C239" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="6" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B240" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C240" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="6" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B241" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C241" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="6" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B242" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C242" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="6" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B243" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C243" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="6" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B244" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C244" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="6" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B245" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C245" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="6" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B246" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C246" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="6" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B247" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C247" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="6" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B248" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C248" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="6" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B249" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C249" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="6" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B250" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C250" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="6" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B251" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C251" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="6" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B252" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C252" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="6" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B253" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C253" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="6" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B254" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C254" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="6" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B255" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C255" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="6" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B256" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C256" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="6" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B257" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C257" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="6" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B258" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C258" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="6" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B259" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C259" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="6" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B260" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C260" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="6" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B261" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C261" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="6" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B262" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C262" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="6" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B263" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C263" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="6" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B264" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C264" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="6" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B265" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C265" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="6" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B266" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C266" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="6" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B267" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C267" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="6" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B268" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C268" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="6" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B269" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C269" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="6" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B270" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C270" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="6" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B271" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C271" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="6" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B272" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C272" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4549,211 +4552,211 @@
     </row>
     <row r="275" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="6" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B275" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C275" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="6" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B276" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C276" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="6" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B277" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C277" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="6" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B278" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C278" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="6" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B279" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C279" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="6" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B280" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C280" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="6" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B281" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C281" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="6" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B282" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C282" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="6" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B283" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C283" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="6" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B284" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C284" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="6" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B285" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C285" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="6" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B286" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C286" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="6" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B287" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C287" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="6" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B288" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C288" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="6" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B289" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C289" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="6" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B290" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C290" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="6" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B291" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C291" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="6" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B292" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C292" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="6" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B293" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C293" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4766,420 +4769,420 @@
     </row>
     <row r="296" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B296" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C296" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B297" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C297" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B298" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C298" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B299" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C299" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B300" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C300" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B301" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C301" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B302" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C302" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B303" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C303" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B304" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C304" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B305" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C305" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B306" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C306" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B307" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C307" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B308" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C308" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B309" s="9" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C309" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B310" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C310" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B311" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C311" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B312" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C312" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B313" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C313" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B314" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C314" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B315" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C315" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B316" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C316" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B317" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C317" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B318" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C318" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B319" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C319" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B320" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C320" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B321" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C321" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B322" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C322" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B323" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C323" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B324" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C324" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B325" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C325" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B326" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C326" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B327" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C327" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B328" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C328" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B329" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C329" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B330" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C330" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B331" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C331" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B332" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C332" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B333" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C333" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5192,200 +5195,200 @@
     </row>
     <row r="336" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="6" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B336" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C336" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="6" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B337" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C337" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="6" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B338" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C338" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="6" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B339" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C339" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="6" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B340" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C340" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="6" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B341" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C341" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="6" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B342" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C342" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="6" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B343" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C343" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="6" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B344" s="9" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C344" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="6" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B345" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C345" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="6" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B346" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C346" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="6" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B347" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C347" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="6" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B348" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C348" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="6" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B349" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C349" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="6" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B350" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C350" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="6" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B351" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C351" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="6" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B352" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C352" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="6" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B353" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C353" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5398,486 +5401,486 @@
     </row>
     <row r="356" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="6" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B356" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C356" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="6" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B357" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C357" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="6" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B358" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C358" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="6" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B359" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C359" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="6" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B360" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C360" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="6" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B361" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C361" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="6" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B362" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C362" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="6" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B363" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C363" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="6" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B364" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C364" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="6" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B365" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C365" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="6" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B366" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C366" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="6" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B367" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C367" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="6" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B368" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C368" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="6" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B369" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C369" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="6" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B370" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C370" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="6" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B371" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C371" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="6" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B372" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C372" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="6" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B373" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C373" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="6" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B374" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C374" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="6" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B375" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C375" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="6" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B376" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C376" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="6" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B377" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C377" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="6" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B378" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C378" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="6" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B379" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C379" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="6" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B380" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C380" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="6" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B381" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C381" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="6" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B382" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C382" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="6" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B383" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C383" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="6" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B384" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C384" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="6" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B385" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C385" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="6" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B386" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C386" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="6" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B387" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C387" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="6" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B388" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C388" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="6" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B389" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C389" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="390" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="6" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B390" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C390" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="6" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B391" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C391" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="392" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="6" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B392" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C392" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="393" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="6" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B393" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C393" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="394" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="6" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B394" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C394" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="395" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="6" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B395" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C395" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="396" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="6" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B396" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C396" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="397" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="6" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B397" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C397" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="398" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="6" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B398" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C398" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="399" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="6" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B399" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C399" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="400" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5890,68 +5893,68 @@
     </row>
     <row r="402" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="6" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B402" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C402" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="403" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="6" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B403" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C403" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="404" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="6" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B404" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C404" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="6" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B405" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C405" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="406" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="6" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B406" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C406" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="407" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="6" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B407" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C407" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5964,662 +5967,662 @@
     </row>
     <row r="410" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B410" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C410" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="411" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B411" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C411" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="412" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B412" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C412" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="413" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B413" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C413" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="414" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B414" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C414" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="415" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B415" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C415" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="416" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B416" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C416" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="417" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B417" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C417" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="418" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B418" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C418" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="419" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B419" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C419" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="420" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B420" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C420" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="421" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B421" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C421" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="422" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B422" s="7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C422" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="423" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B423" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C423" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="424" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B424" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C424" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="425" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B425" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C425" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="426" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B426" s="7" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C426" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="427" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B427" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C427" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B428" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C428" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="429" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B429" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C429" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="430" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B430" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C430" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="431" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B431" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C431" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="432" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B432" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C432" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="433" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B433" s="7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C433" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="434" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B434" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C434" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="435" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B435" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C435" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="436" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B436" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C436" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="437" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B437" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C437" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="438" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B438" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C438" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="439" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B439" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C439" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="440" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B440" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C440" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="441" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B441" s="7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C441" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="442" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B442" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C442" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="443" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B443" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C443" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="444" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B444" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C444" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="445" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B445" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C445" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="446" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B446" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C446" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="447" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B447" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C447" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="448" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B448" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C448" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="449" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B449" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C449" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="450" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B450" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C450" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="451" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B451" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C451" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="452" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B452" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C452" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="453" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B453" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C453" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="454" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B454" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C454" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="455" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B455" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C455" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="456" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B456" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C456" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="457" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B457" s="7" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C457" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="458" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B458" s="7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C458" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="459" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B459" s="7" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C459" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="460" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B460" s="7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C460" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="461" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B461" s="7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C461" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="462" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B462" s="7" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C462" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="463" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B463" s="7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C463" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="464" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B464" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C464" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="465" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B465" s="7" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C465" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="466" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B466" s="7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C466" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="467" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B467" s="7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C467" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="468" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B468" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C468" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="469" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B469" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C469" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="470" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6633,112 +6636,112 @@
     </row>
     <row r="472" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="6" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B472" s="7" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C472" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="473" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="6" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B473" s="7" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C473" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="474" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="6" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B474" s="7" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C474" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="475" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="6" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B475" s="7" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C475" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="476" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="6" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B476" s="7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C476" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="477" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="6" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B477" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C477" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="478" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="6" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B478" s="7" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C478" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="479" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="6" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B479" s="7" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C479" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="480" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="6" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B480" s="7" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C480" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="481" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="6" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B481" s="7" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C481" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/450 DSA.xlsx
+++ b/450 DSA.xlsx
@@ -1675,7 +1675,7 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C48" activeCellId="0" sqref="C48"/>
+      <selection pane="topLeft" activeCell="C50" activeCellId="0" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2193,7 +2193,7 @@
         <v>54</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/450 DSA.xlsx
+++ b/450 DSA.xlsx
@@ -1674,8 +1674,8 @@
   </sheetPr>
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C50" activeCellId="0" sqref="C50"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B28" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C53" activeCellId="0" sqref="C53:E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2204,7 +2204,7 @@
         <v>55</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2215,7 +2215,7 @@
         <v>56</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2226,7 +2226,7 @@
         <v>57</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/450 DSA.xlsx
+++ b/450 DSA.xlsx
@@ -1,16 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3.DSA\DSA-Practice\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -22,13 +26,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="469">
   <si>
-    <t xml:space="preserve">Questions by Love Babbar:</t>
+    <t>Questions by Love Babbar:</t>
   </si>
   <si>
     <t xml:space="preserve">Youtube Channel: https://www.youtube.com/channel/UCQHLxxBFrbfdrk1jF0moTpw </t>
   </si>
   <si>
-    <t xml:space="preserve">Topic:</t>
+    <t>Topic:</t>
   </si>
   <si>
     <t xml:space="preserve">Problem: </t>
@@ -37,862 +41,862 @@
     <t xml:space="preserve">Done [yes or no] </t>
   </si>
   <si>
-    <t xml:space="preserve">Array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reverse the array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">done</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the maximum and minimum element in an array</t>
+    <t>Array</t>
+  </si>
+  <si>
+    <t>Reverse the array</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>Find the maximum and minimum element in an array</t>
   </si>
   <si>
     <t xml:space="preserve">Find the "Kth" max and min element of an array </t>
   </si>
   <si>
-    <t xml:space="preserve">Given an array which consists of only 0, 1 and 2. Sort the array without using any sorting algo</t>
+    <t>Given an array which consists of only 0, 1 and 2. Sort the array without using any sorting algo</t>
   </si>
   <si>
     <t xml:space="preserve">Move all the negative elements to one side of the array </t>
   </si>
   <si>
-    <t xml:space="preserve">Find the Union and Intersection of the two sorted arrays.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Write a program to cyclically rotate an array by one.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">find Largest sum contiguous Subarray [V. IMP]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimise the maximum difference between heights [V.IMP]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum no. of Jumps to reach end of an array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">----------------------</t>
-  </si>
-  <si>
-    <t xml:space="preserve">find duplicate in an array of N+1 Integers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Merge 2 sorted arrays without using Extra space.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-----------------</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kadane's Algo [V.V.V.V.V IMP]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Merge Intervals</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Next Permutation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count Inversion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;-&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Best time to buy and Sell stock</t>
-  </si>
-  <si>
-    <t xml:space="preserve">find all pairs on integer array whose sum is equal to given number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">find common elements In 3 sorted arrays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rearrange the array in alternating positive and negative items with O(1) extra space</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find if there is any subarray with sum equal to 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find factorial of a large number</t>
+    <t>Find the Union and Intersection of the two sorted arrays.</t>
+  </si>
+  <si>
+    <t>Write a program to cyclically rotate an array by one.</t>
+  </si>
+  <si>
+    <t>find Largest sum contiguous Subarray [V. IMP]</t>
+  </si>
+  <si>
+    <t>Minimise the maximum difference between heights [V.IMP]</t>
+  </si>
+  <si>
+    <t>Minimum no. of Jumps to reach end of an array</t>
+  </si>
+  <si>
+    <t>----------------------</t>
+  </si>
+  <si>
+    <t>find duplicate in an array of N+1 Integers</t>
+  </si>
+  <si>
+    <t>Merge 2 sorted arrays without using Extra space.</t>
+  </si>
+  <si>
+    <t>-----------------</t>
+  </si>
+  <si>
+    <t>Kadane's Algo [V.V.V.V.V IMP]</t>
+  </si>
+  <si>
+    <t>Merge Intervals</t>
+  </si>
+  <si>
+    <t>Next Permutation</t>
+  </si>
+  <si>
+    <t>Count Inversion</t>
+  </si>
+  <si>
+    <t>&lt;-&gt;</t>
+  </si>
+  <si>
+    <t>Best time to buy and Sell stock</t>
+  </si>
+  <si>
+    <t>find all pairs on integer array whose sum is equal to given number</t>
+  </si>
+  <si>
+    <t>find common elements In 3 sorted arrays</t>
+  </si>
+  <si>
+    <t>Rearrange the array in alternating positive and negative items with O(1) extra space</t>
+  </si>
+  <si>
+    <t>Find if there is any subarray with sum equal to 0</t>
+  </si>
+  <si>
+    <t>Find factorial of a large number</t>
   </si>
   <si>
     <t xml:space="preserve">find maximum product subarray </t>
   </si>
   <si>
-    <t xml:space="preserve">Find longest coinsecutive subsequence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given an array of size n and a number k, fin all elements that appear more than " n/k " times.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum profit by buying and selling a share atmost twice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find whether an array is a subset of another array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the triplet that sum to a given value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trapping Rain water problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chocolate Distribution problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Smallest Subarray with sum greater than a given value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Three way partitioning of an array around a given value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum swaps required bring elements less equal K together</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum no. of operations required to make an array palindrome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Median of 2 sorted arrays of equal size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Median of 2 sorted arrays of different size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matrix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spiral traversal on a Matrix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Search an element in a matriix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find median in a row wise sorted matrix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-------</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find row with maximum no. of 1's</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Print elements in sorted order using row-column wise sorted matrix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum size rectangle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find a specific pair in matrix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rotate matrix by 90 degrees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kth smallest element in a row-cpumn wise sorted matrix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Common elements in all rows of a given matrix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">String</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reverse a String</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check whether a String is Palindrome or not</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find Duplicate characters in a string</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Why strings are immutable in Java?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Write a Code to check whether one string is a rotation of another</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Write a Program to check whether a string is a valid shuffle of two strings or not</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count and Say problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Write a program to find the longest Palindrome in a string.[ Longest palindromic Substring]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find Longest Recurring Subsequence in String</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Print all Subsequences of a string.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Print all the permutations of the given string</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Split the Binary string into two substring with equal 0’s and 1’s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Word Wrap Problem [VERY IMP].</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EDIT Distance [Very Imp]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find next greater number with same set of digits. [Very Very IMP]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Balanced Parenthesis problem.[Imp]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Word break Problem[ Very Imp]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rabin Karp Algo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KMP Algo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Convert a Sentence into its equivalent mobile numeric keypad sequence.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum number of bracket reversals needed to make an expression balanced.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count All Palindromic Subsequence in a given String.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count of number of given string in 2D character array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Search a Word in a 2D Grid of characters.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Boyer Moore Algorithm for Pattern Searching.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Converting Roman Numerals to Decimal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Longest Common Prefix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of flips to make binary string alternate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the first repeated word in string.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum number of swaps for bracket balancing.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the longest common subsequence between two strings.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Program to generate all possible valid IP addresses from given  string.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Write a program tofind the smallest window that contains all characters of string itself.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rearrange characters in a string such that no two adjacent are same</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum characters to be added at front to make string palindrome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given a sequence of words, print all anagrams together</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the smallest window in a string containing all characters of another string</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recursively remove all adjacent duplicates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">String matching where one string contains wildcard characters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Function to find Number of customers who could not get a computer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transform One String to Another using Minimum Number of Given Operation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check if two given strings are isomorphic to each other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recursively print all sentences that can be formed from list of word lists</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Searching &amp; Sorting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find first and last positions of an element in a sorted array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find a Fixed Point (Value equal to index) in a given array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Search in a rotated sorted array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">square root of an integer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum and minimum of an array using minimum number of comparisons</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Optimum location of point to minimize total distance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the repeating and the missing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">find majority element</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Searching in an array where adjacent differ by at most k</t>
-  </si>
-  <si>
-    <t xml:space="preserve">find a pair with a given difference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">find four elements that sum to a given value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maximum sum such that no 2 elements are adjacent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count triplet with sum smaller than a given value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">merge 2 sorted arrays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">print all subarrays with 0 sum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Product array Puzzle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sort array according to count of set bits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">minimum no. of swaps required to sort the array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bishu and Soldiers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rasta and Kheshtak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kth smallest number again</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find pivot element in a sorted array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K-th Element of Two Sorted Arrays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aggressive cows</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Book Allocation Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EKOSPOJ:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Job Scheduling Algo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Missing Number in AP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Smallest number with atleastn trailing zeroes infactorial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Painters Partition Problem:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROTI-Prata SPOJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DoubleHelix SPOJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subset Sums</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Findthe inversion count</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement Merge-sort in-place</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partitioning and Sorting Arrays with Many Repeated Entries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LinkedList</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Write a Program to reverse the Linked List. (Both Iterative and recursive)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reverse a Linked List in group of Given Size. [Very Imp]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Write a program to Detect loop in a linked list.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Write a program to Delete loop in a linked list.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the starting point of the loop. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remove Duplicates in a sorted Linked List.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remove Duplicates in a Un-sorted Linked List.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Write a Program to Move the last element to Front in a Linked List.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Add “1” to a number represented as a Linked List.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Add two numbers represented by linked lists.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intersection of two Sorted Linked List.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intersection Point of two Linked Lists.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Merge Sort For Linked lists.[Very Important]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quicksort for Linked Lists.[Very Important]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the middle Element of a linked list.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check if a linked list is a circular linked list.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Split a Circular linked list into two halves.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Write a Program to check whether the Singly Linked list is a palindrome or not.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deletion from a Circular Linked List.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reverse a Doubly Linked list.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find pairs with a given sum in a DLL.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count triplets in a sorted DLL whose sum is equal to given value “X”.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sort a “k”sorted Doubly Linked list.[Very IMP]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rotate DoublyLinked list by N nodes.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rotate a Doubly Linked list in group of Given Size.[Very IMP]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Can we reverse a linked list in less than O(n) ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Why Quicksort is preferred for. Arrays and Merge Sort for LinkedLists ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flatten a Linked List</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sort a LL of 0's, 1's and 2's</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clone a linked list with next and random pointer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Merge K sorted Linked list</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Multiply 2 no. represented by LL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Delete nodes which have a greater value on right side</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Segregate even and odd nodes in a Linked List</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Program for n’th node from the end of a Linked List</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the first non-repeating character from a stream of characters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Binary Trees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">level order traversal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reverse Level Order traversal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Height of a tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diameter of a tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mirror of a tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inorder Traversal of a tree both using recursion and Iteration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Preorder Traversal of a tree both using recursion and Iteration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Postorder Traversal of a tree both using recursion and Iteration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Left View of a tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Right View of Tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Top View of a tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bottom View of a tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zig-Zag traversal of a binary tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check if a tree is balanced or not</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diagnol Traversal of a Binary tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Boundary traversal of a Binary tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Construct Binary Tree from String with Bracket Representation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Convert Binary tree into Doubly Linked List</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Convert Binary tree into Sum tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Construct Binary tree from Inorder and preorder traversal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find minimum swaps required to convert a Binary tree into BST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check if Binary tree is Sum tree or not</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check if all leaf nodes are at same level or not</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check if a Binary Tree contains duplicate subtrees of size 2 or more [ IMP ]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check if 2 trees are mirror or not</t>
+    <t>Find longest coinsecutive subsequence</t>
+  </si>
+  <si>
+    <t>Given an array of size n and a number k, fin all elements that appear more than " n/k " times.</t>
+  </si>
+  <si>
+    <t>Maximum profit by buying and selling a share atmost twice</t>
+  </si>
+  <si>
+    <t>Find whether an array is a subset of another array</t>
+  </si>
+  <si>
+    <t>Find the triplet that sum to a given value</t>
+  </si>
+  <si>
+    <t>Trapping Rain water problem</t>
+  </si>
+  <si>
+    <t>Chocolate Distribution problem</t>
+  </si>
+  <si>
+    <t>Smallest Subarray with sum greater than a given value</t>
+  </si>
+  <si>
+    <t>Three way partitioning of an array around a given value</t>
+  </si>
+  <si>
+    <t>Minimum swaps required bring elements less equal K together</t>
+  </si>
+  <si>
+    <t>Minimum no. of operations required to make an array palindrome</t>
+  </si>
+  <si>
+    <t>Median of 2 sorted arrays of equal size</t>
+  </si>
+  <si>
+    <t>Median of 2 sorted arrays of different size</t>
+  </si>
+  <si>
+    <t>Matrix</t>
+  </si>
+  <si>
+    <t>Spiral traversal on a Matrix</t>
+  </si>
+  <si>
+    <t>Search an element in a matriix</t>
+  </si>
+  <si>
+    <t>Find median in a row wise sorted matrix</t>
+  </si>
+  <si>
+    <t>-------</t>
+  </si>
+  <si>
+    <t>Find row with maximum no. of 1's</t>
+  </si>
+  <si>
+    <t>Print elements in sorted order using row-column wise sorted matrix</t>
+  </si>
+  <si>
+    <t>Maximum size rectangle</t>
+  </si>
+  <si>
+    <t>Find a specific pair in matrix</t>
+  </si>
+  <si>
+    <t>Rotate matrix by 90 degrees</t>
+  </si>
+  <si>
+    <t>Kth smallest element in a row-cpumn wise sorted matrix</t>
+  </si>
+  <si>
+    <t>Common elements in all rows of a given matrix</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>Reverse a String</t>
+  </si>
+  <si>
+    <t>Check whether a String is Palindrome or not</t>
+  </si>
+  <si>
+    <t>Find Duplicate characters in a string</t>
+  </si>
+  <si>
+    <t>Why strings are immutable in Java?</t>
+  </si>
+  <si>
+    <t>Write a Code to check whether one string is a rotation of another</t>
+  </si>
+  <si>
+    <t>Write a Program to check whether a string is a valid shuffle of two strings or not</t>
+  </si>
+  <si>
+    <t>Count and Say problem</t>
+  </si>
+  <si>
+    <t>Write a program to find the longest Palindrome in a string.[ Longest palindromic Substring]</t>
+  </si>
+  <si>
+    <t>Find Longest Recurring Subsequence in String</t>
+  </si>
+  <si>
+    <t>Print all Subsequences of a string.</t>
+  </si>
+  <si>
+    <t>Print all the permutations of the given string</t>
+  </si>
+  <si>
+    <t>Split the Binary string into two substring with equal 0’s and 1’s</t>
+  </si>
+  <si>
+    <t>Word Wrap Problem [VERY IMP].</t>
+  </si>
+  <si>
+    <t>EDIT Distance [Very Imp]</t>
+  </si>
+  <si>
+    <t>Find next greater number with same set of digits. [Very Very IMP]</t>
+  </si>
+  <si>
+    <t>Balanced Parenthesis problem.[Imp]</t>
+  </si>
+  <si>
+    <t>Word break Problem[ Very Imp]</t>
+  </si>
+  <si>
+    <t>Rabin Karp Algo</t>
+  </si>
+  <si>
+    <t>KMP Algo</t>
+  </si>
+  <si>
+    <t>Convert a Sentence into its equivalent mobile numeric keypad sequence.</t>
+  </si>
+  <si>
+    <t>Minimum number of bracket reversals needed to make an expression balanced.</t>
+  </si>
+  <si>
+    <t>Count All Palindromic Subsequence in a given String.</t>
+  </si>
+  <si>
+    <t>Count of number of given string in 2D character array</t>
+  </si>
+  <si>
+    <t>Search a Word in a 2D Grid of characters.</t>
+  </si>
+  <si>
+    <t>Boyer Moore Algorithm for Pattern Searching.</t>
+  </si>
+  <si>
+    <t>Converting Roman Numerals to Decimal</t>
+  </si>
+  <si>
+    <t>Longest Common Prefix</t>
+  </si>
+  <si>
+    <t>Number of flips to make binary string alternate</t>
+  </si>
+  <si>
+    <t>Find the first repeated word in string.</t>
+  </si>
+  <si>
+    <t>Minimum number of swaps for bracket balancing.</t>
+  </si>
+  <si>
+    <t>Find the longest common subsequence between two strings.</t>
+  </si>
+  <si>
+    <t>Program to generate all possible valid IP addresses from given  string.</t>
+  </si>
+  <si>
+    <t>Write a program tofind the smallest window that contains all characters of string itself.</t>
+  </si>
+  <si>
+    <t>Rearrange characters in a string such that no two adjacent are same</t>
+  </si>
+  <si>
+    <t>Minimum characters to be added at front to make string palindrome</t>
+  </si>
+  <si>
+    <t>Given a sequence of words, print all anagrams together</t>
+  </si>
+  <si>
+    <t>Find the smallest window in a string containing all characters of another string</t>
+  </si>
+  <si>
+    <t>Recursively remove all adjacent duplicates</t>
+  </si>
+  <si>
+    <t>String matching where one string contains wildcard characters</t>
+  </si>
+  <si>
+    <t>Function to find Number of customers who could not get a computer</t>
+  </si>
+  <si>
+    <t>Transform One String to Another using Minimum Number of Given Operation</t>
+  </si>
+  <si>
+    <t>Check if two given strings are isomorphic to each other</t>
+  </si>
+  <si>
+    <t>Recursively print all sentences that can be formed from list of word lists</t>
+  </si>
+  <si>
+    <t>Searching &amp; Sorting</t>
+  </si>
+  <si>
+    <t>Find first and last positions of an element in a sorted array</t>
+  </si>
+  <si>
+    <t>Find a Fixed Point (Value equal to index) in a given array</t>
+  </si>
+  <si>
+    <t>Search in a rotated sorted array</t>
+  </si>
+  <si>
+    <t>square root of an integer</t>
+  </si>
+  <si>
+    <t>Maximum and minimum of an array using minimum number of comparisons</t>
+  </si>
+  <si>
+    <t>Optimum location of point to minimize total distance</t>
+  </si>
+  <si>
+    <t>Find the repeating and the missing</t>
+  </si>
+  <si>
+    <t>find majority element</t>
+  </si>
+  <si>
+    <t>Searching in an array where adjacent differ by at most k</t>
+  </si>
+  <si>
+    <t>find a pair with a given difference</t>
+  </si>
+  <si>
+    <t>find four elements that sum to a given value</t>
+  </si>
+  <si>
+    <t>maximum sum such that no 2 elements are adjacent</t>
+  </si>
+  <si>
+    <t>Count triplet with sum smaller than a given value</t>
+  </si>
+  <si>
+    <t>merge 2 sorted arrays</t>
+  </si>
+  <si>
+    <t>print all subarrays with 0 sum</t>
+  </si>
+  <si>
+    <t>Product array Puzzle</t>
+  </si>
+  <si>
+    <t>Sort array according to count of set bits</t>
+  </si>
+  <si>
+    <t>minimum no. of swaps required to sort the array</t>
+  </si>
+  <si>
+    <t>Bishu and Soldiers</t>
+  </si>
+  <si>
+    <t>Rasta and Kheshtak</t>
+  </si>
+  <si>
+    <t>Kth smallest number again</t>
+  </si>
+  <si>
+    <t>Find pivot element in a sorted array</t>
+  </si>
+  <si>
+    <t>K-th Element of Two Sorted Arrays</t>
+  </si>
+  <si>
+    <t>Aggressive cows</t>
+  </si>
+  <si>
+    <t>Book Allocation Problem</t>
+  </si>
+  <si>
+    <t>EKOSPOJ:</t>
+  </si>
+  <si>
+    <t>Job Scheduling Algo</t>
+  </si>
+  <si>
+    <t>Missing Number in AP</t>
+  </si>
+  <si>
+    <t>Smallest number with atleastn trailing zeroes infactorial</t>
+  </si>
+  <si>
+    <t>Painters Partition Problem:</t>
+  </si>
+  <si>
+    <t>ROTI-Prata SPOJ</t>
+  </si>
+  <si>
+    <t>DoubleHelix SPOJ</t>
+  </si>
+  <si>
+    <t>Subset Sums</t>
+  </si>
+  <si>
+    <t>Findthe inversion count</t>
+  </si>
+  <si>
+    <t>Implement Merge-sort in-place</t>
+  </si>
+  <si>
+    <t>Partitioning and Sorting Arrays with Many Repeated Entries</t>
+  </si>
+  <si>
+    <t>LinkedList</t>
+  </si>
+  <si>
+    <t>Write a Program to reverse the Linked List. (Both Iterative and recursive)</t>
+  </si>
+  <si>
+    <t>Reverse a Linked List in group of Given Size. [Very Imp]</t>
+  </si>
+  <si>
+    <t>Write a program to Detect loop in a linked list.</t>
+  </si>
+  <si>
+    <t>Write a program to Delete loop in a linked list.</t>
+  </si>
+  <si>
+    <t>Find the starting point of the loop. </t>
+  </si>
+  <si>
+    <t>Remove Duplicates in a sorted Linked List.</t>
+  </si>
+  <si>
+    <t>Remove Duplicates in a Un-sorted Linked List.</t>
+  </si>
+  <si>
+    <t>Write a Program to Move the last element to Front in a Linked List.</t>
+  </si>
+  <si>
+    <t>Add “1” to a number represented as a Linked List.</t>
+  </si>
+  <si>
+    <t>Add two numbers represented by linked lists.</t>
+  </si>
+  <si>
+    <t>Intersection of two Sorted Linked List.</t>
+  </si>
+  <si>
+    <t>Intersection Point of two Linked Lists.</t>
+  </si>
+  <si>
+    <t>Merge Sort For Linked lists.[Very Important]</t>
+  </si>
+  <si>
+    <t>Quicksort for Linked Lists.[Very Important]</t>
+  </si>
+  <si>
+    <t>Find the middle Element of a linked list.</t>
+  </si>
+  <si>
+    <t>Check if a linked list is a circular linked list.</t>
+  </si>
+  <si>
+    <t>Split a Circular linked list into two halves.</t>
+  </si>
+  <si>
+    <t>Write a Program to check whether the Singly Linked list is a palindrome or not.</t>
+  </si>
+  <si>
+    <t>Deletion from a Circular Linked List.</t>
+  </si>
+  <si>
+    <t>Reverse a Doubly Linked list.</t>
+  </si>
+  <si>
+    <t>Find pairs with a given sum in a DLL.</t>
+  </si>
+  <si>
+    <t>Count triplets in a sorted DLL whose sum is equal to given value “X”.</t>
+  </si>
+  <si>
+    <t>Sort a “k”sorted Doubly Linked list.[Very IMP]</t>
+  </si>
+  <si>
+    <t>Rotate DoublyLinked list by N nodes.</t>
+  </si>
+  <si>
+    <t>Rotate a Doubly Linked list in group of Given Size.[Very IMP]</t>
+  </si>
+  <si>
+    <t>Can we reverse a linked list in less than O(n) ?</t>
+  </si>
+  <si>
+    <t>Why Quicksort is preferred for. Arrays and Merge Sort for LinkedLists ?</t>
+  </si>
+  <si>
+    <t>Flatten a Linked List</t>
+  </si>
+  <si>
+    <t>Sort a LL of 0's, 1's and 2's</t>
+  </si>
+  <si>
+    <t>Clone a linked list with next and random pointer</t>
+  </si>
+  <si>
+    <t>Merge K sorted Linked list</t>
+  </si>
+  <si>
+    <t>Multiply 2 no. represented by LL</t>
+  </si>
+  <si>
+    <t>Delete nodes which have a greater value on right side</t>
+  </si>
+  <si>
+    <t>Segregate even and odd nodes in a Linked List</t>
+  </si>
+  <si>
+    <t>Program for n’th node from the end of a Linked List</t>
+  </si>
+  <si>
+    <t>Find the first non-repeating character from a stream of characters</t>
+  </si>
+  <si>
+    <t>Binary Trees</t>
+  </si>
+  <si>
+    <t>level order traversal</t>
+  </si>
+  <si>
+    <t>Reverse Level Order traversal</t>
+  </si>
+  <si>
+    <t>Height of a tree</t>
+  </si>
+  <si>
+    <t>Diameter of a tree</t>
+  </si>
+  <si>
+    <t>Mirror of a tree</t>
+  </si>
+  <si>
+    <t>Inorder Traversal of a tree both using recursion and Iteration</t>
+  </si>
+  <si>
+    <t>Preorder Traversal of a tree both using recursion and Iteration</t>
+  </si>
+  <si>
+    <t>Postorder Traversal of a tree both using recursion and Iteration</t>
+  </si>
+  <si>
+    <t>Left View of a tree</t>
+  </si>
+  <si>
+    <t>Right View of Tree</t>
+  </si>
+  <si>
+    <t>Top View of a tree</t>
+  </si>
+  <si>
+    <t>Bottom View of a tree</t>
+  </si>
+  <si>
+    <t>Zig-Zag traversal of a binary tree</t>
+  </si>
+  <si>
+    <t>Check if a tree is balanced or not</t>
+  </si>
+  <si>
+    <t>Diagnol Traversal of a Binary tree</t>
+  </si>
+  <si>
+    <t>Boundary traversal of a Binary tree</t>
+  </si>
+  <si>
+    <t>Construct Binary Tree from String with Bracket Representation</t>
+  </si>
+  <si>
+    <t>Convert Binary tree into Doubly Linked List</t>
+  </si>
+  <si>
+    <t>Convert Binary tree into Sum tree</t>
+  </si>
+  <si>
+    <t>Construct Binary tree from Inorder and preorder traversal</t>
+  </si>
+  <si>
+    <t>Find minimum swaps required to convert a Binary tree into BST</t>
+  </si>
+  <si>
+    <t>Check if Binary tree is Sum tree or not</t>
+  </si>
+  <si>
+    <t>Check if all leaf nodes are at same level or not</t>
+  </si>
+  <si>
+    <t>Check if a Binary Tree contains duplicate subtrees of size 2 or more [ IMP ]</t>
+  </si>
+  <si>
+    <t>Check if 2 trees are mirror or not</t>
   </si>
   <si>
     <t xml:space="preserve">Sum of Nodes on the Longest path from root to leaf node </t>
   </si>
   <si>
-    <t xml:space="preserve">Check if given graph is tree or not.  [ IMP ]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find Largest subtree sum in a tree</t>
+    <t>Check if given graph is tree or not.  [ IMP ]</t>
+  </si>
+  <si>
+    <t>Find Largest subtree sum in a tree</t>
   </si>
   <si>
     <t xml:space="preserve">Maximum Sum of nodes in Binary tree such that no two are adjacent </t>
   </si>
   <si>
-    <t xml:space="preserve">Print all "K" Sum paths in a Binary tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find LCA in a Binary tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find distance between 2 nodes in a Binary tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kth Ancestor of node in a Binary tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find all Duplicate subtrees in a Binary tree [ IMP ]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tree Isomorphism Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Binary Search Trees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fina a value in a BST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deletion of a node in a BST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find min and max value in a BST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find inorder successor and inorder predecessor in a BST</t>
+    <t>Print all "K" Sum paths in a Binary tree</t>
+  </si>
+  <si>
+    <t>Find LCA in a Binary tree</t>
+  </si>
+  <si>
+    <t>Find distance between 2 nodes in a Binary tree</t>
+  </si>
+  <si>
+    <t>Kth Ancestor of node in a Binary tree</t>
+  </si>
+  <si>
+    <t>Find all Duplicate subtrees in a Binary tree [ IMP ]</t>
+  </si>
+  <si>
+    <t>Tree Isomorphism Problem</t>
+  </si>
+  <si>
+    <t>Binary Search Trees</t>
+  </si>
+  <si>
+    <t>Fina a value in a BST</t>
+  </si>
+  <si>
+    <t>Deletion of a node in a BST</t>
+  </si>
+  <si>
+    <t>Find min and max value in a BST</t>
+  </si>
+  <si>
+    <t>Find inorder successor and inorder predecessor in a BST</t>
   </si>
   <si>
     <t xml:space="preserve">Check if a tree is a BST or not </t>
   </si>
   <si>
-    <t xml:space="preserve">Populate Inorder successor of all nodes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find LCA  of 2 nodes in a BST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Construct BST from preorder traversal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Convert Binary tree into BST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Convert a normal BST into a Balanced BST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Merge two BST [ V.V.V&gt;IMP ]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find Kth largest element in a BST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find Kth smallest element in a BST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count pairs from 2 BST whose sum is equal to given value "X"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the median of BST in O(n) time and O(1) space</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count BST ndoes that lie in a given range</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Replace every element with the least greater element on its right</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given "n" appointments, find the conflicting appointments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check preorder is valid or not</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check whether BST contains Dead end</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Largest BST in a Binary Tree [ V.V.V.V.V IMP ]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flatten BST to sorted list</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Greedy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Activity Selection Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Job SequencingProblem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Huffman Coding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Water Connection Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fractional Knapsack Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Greedy Algorithm to find Minimum number of Coins</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum trains for which stoppage can be provided</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum Platforms Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buy Maximum Stocks if i stocks can be bought on i-th day</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the minimum and maximum amount to buy all N candies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimize Cash Flow among a given set of friends who have borrowed money from each other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum Cost to cut a board into squares</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check if it is possible to survive on Island</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find maximum meetings in one room</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum product subset of an array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximize array sum after K negations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximize the sum of arr[i]*i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum sum of absolute difference of an array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximize sum of consecutive differences in a circular array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum sum of absolute difference of pairs of two arrays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Program for Shortest Job First (or SJF) CPU Scheduling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Program for Least Recently Used (LRU) Page Replacement algorithm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Smallest subset with sum greater than all other elements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chocolate Distribution Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEFKIN -Defense of a Kingdom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIEHARD -DIE HARD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GERGOVIA -Wine trading in Gergovia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Picking Up Chicks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHOCOLA –Chocolate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARRANGE -Arranging Amplifiers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K Centers Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum Cost of ropes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find smallest number with given number of digits and sum of digits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find maximum sum possible equal sum of three stacks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BackTracking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rat in a maze Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Printing all solutions in N-Queen Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Word Break Problem using Backtracking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remove Invalid Parentheses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sudoku Solver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m Coloring Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Print all palindromic partitions of a string</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subset Sum Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Knight’s tour problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tug of War</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find shortest safe route in a path with landmines</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Combinational Sum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find Maximum number possible by doing at-most K swaps</t>
+    <t>Populate Inorder successor of all nodes</t>
+  </si>
+  <si>
+    <t>Find LCA  of 2 nodes in a BST</t>
+  </si>
+  <si>
+    <t>Construct BST from preorder traversal</t>
+  </si>
+  <si>
+    <t>Convert Binary tree into BST</t>
+  </si>
+  <si>
+    <t>Convert a normal BST into a Balanced BST</t>
+  </si>
+  <si>
+    <t>Merge two BST [ V.V.V&gt;IMP ]</t>
+  </si>
+  <si>
+    <t>Find Kth largest element in a BST</t>
+  </si>
+  <si>
+    <t>Find Kth smallest element in a BST</t>
+  </si>
+  <si>
+    <t>Count pairs from 2 BST whose sum is equal to given value "X"</t>
+  </si>
+  <si>
+    <t>Find the median of BST in O(n) time and O(1) space</t>
+  </si>
+  <si>
+    <t>Count BST ndoes that lie in a given range</t>
+  </si>
+  <si>
+    <t>Replace every element with the least greater element on its right</t>
+  </si>
+  <si>
+    <t>Given "n" appointments, find the conflicting appointments</t>
+  </si>
+  <si>
+    <t>Check preorder is valid or not</t>
+  </si>
+  <si>
+    <t>Check whether BST contains Dead end</t>
+  </si>
+  <si>
+    <t>Largest BST in a Binary Tree [ V.V.V.V.V IMP ]</t>
+  </si>
+  <si>
+    <t>Flatten BST to sorted list</t>
+  </si>
+  <si>
+    <t>Greedy</t>
+  </si>
+  <si>
+    <t>Activity Selection Problem</t>
+  </si>
+  <si>
+    <t>Job SequencingProblem</t>
+  </si>
+  <si>
+    <t>Huffman Coding</t>
+  </si>
+  <si>
+    <t>Water Connection Problem</t>
+  </si>
+  <si>
+    <t>Fractional Knapsack Problem</t>
+  </si>
+  <si>
+    <t>Greedy Algorithm to find Minimum number of Coins</t>
+  </si>
+  <si>
+    <t>Maximum trains for which stoppage can be provided</t>
+  </si>
+  <si>
+    <t>Minimum Platforms Problem</t>
+  </si>
+  <si>
+    <t>Buy Maximum Stocks if i stocks can be bought on i-th day</t>
+  </si>
+  <si>
+    <t>Find the minimum and maximum amount to buy all N candies</t>
+  </si>
+  <si>
+    <t>Minimize Cash Flow among a given set of friends who have borrowed money from each other</t>
+  </si>
+  <si>
+    <t>Minimum Cost to cut a board into squares</t>
+  </si>
+  <si>
+    <t>Check if it is possible to survive on Island</t>
+  </si>
+  <si>
+    <t>Find maximum meetings in one room</t>
+  </si>
+  <si>
+    <t>Maximum product subset of an array</t>
+  </si>
+  <si>
+    <t>Maximize array sum after K negations</t>
+  </si>
+  <si>
+    <t>Maximize the sum of arr[i]*i</t>
+  </si>
+  <si>
+    <t>Maximum sum of absolute difference of an array</t>
+  </si>
+  <si>
+    <t>Maximize sum of consecutive differences in a circular array</t>
+  </si>
+  <si>
+    <t>Minimum sum of absolute difference of pairs of two arrays</t>
+  </si>
+  <si>
+    <t>Program for Shortest Job First (or SJF) CPU Scheduling</t>
+  </si>
+  <si>
+    <t>Program for Least Recently Used (LRU) Page Replacement algorithm</t>
+  </si>
+  <si>
+    <t>Smallest subset with sum greater than all other elements</t>
+  </si>
+  <si>
+    <t>Chocolate Distribution Problem</t>
+  </si>
+  <si>
+    <t>DEFKIN -Defense of a Kingdom</t>
+  </si>
+  <si>
+    <t>DIEHARD -DIE HARD</t>
+  </si>
+  <si>
+    <t>GERGOVIA -Wine trading in Gergovia</t>
+  </si>
+  <si>
+    <t>Picking Up Chicks</t>
+  </si>
+  <si>
+    <t>CHOCOLA –Chocolate</t>
+  </si>
+  <si>
+    <t>ARRANGE -Arranging Amplifiers</t>
+  </si>
+  <si>
+    <t>K Centers Problem</t>
+  </si>
+  <si>
+    <t>Minimum Cost of ropes</t>
+  </si>
+  <si>
+    <t>Find smallest number with given number of digits and sum of digits</t>
+  </si>
+  <si>
+    <t>Find maximum sum possible equal sum of three stacks</t>
+  </si>
+  <si>
+    <t>BackTracking</t>
+  </si>
+  <si>
+    <t>Rat in a maze Problem</t>
+  </si>
+  <si>
+    <t>Printing all solutions in N-Queen Problem</t>
+  </si>
+  <si>
+    <t>Word Break Problem using Backtracking</t>
+  </si>
+  <si>
+    <t>Remove Invalid Parentheses</t>
+  </si>
+  <si>
+    <t>Sudoku Solver</t>
+  </si>
+  <si>
+    <t>m Coloring Problem</t>
+  </si>
+  <si>
+    <t>Print all palindromic partitions of a string</t>
+  </si>
+  <si>
+    <t>Subset Sum Problem</t>
+  </si>
+  <si>
+    <t>The Knight’s tour problem</t>
+  </si>
+  <si>
+    <t>Tug of War</t>
+  </si>
+  <si>
+    <t>Find shortest safe route in a path with landmines</t>
+  </si>
+  <si>
+    <t>Combinational Sum</t>
+  </si>
+  <si>
+    <t>Find Maximum number possible by doing at-most K swaps</t>
   </si>
   <si>
     <t xml:space="preserve">Print all permutations of a string </t>
   </si>
   <si>
-    <t xml:space="preserve">Find if there is a path of more than k length from a source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Longest Possible Route in a Matrix with Hurdles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Print all possible paths from top left to bottom right of a mXn matrix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partition of a set intoK subsets with equal sum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the K-th Permutation Sequence of first N natural numbers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stacks &amp; Queues</t>
+    <t>Find if there is a path of more than k length from a source</t>
+  </si>
+  <si>
+    <t>Longest Possible Route in a Matrix with Hurdles</t>
+  </si>
+  <si>
+    <t>Print all possible paths from top left to bottom right of a mXn matrix</t>
+  </si>
+  <si>
+    <t>Partition of a set intoK subsets with equal sum</t>
+  </si>
+  <si>
+    <t>Find the K-th Permutation Sequence of first N natural numbers</t>
+  </si>
+  <si>
+    <t>Stacks &amp; Queues</t>
   </si>
   <si>
     <t xml:space="preserve"> Implement Stack from Scratch</t>
@@ -901,175 +905,175 @@
     <t xml:space="preserve"> Implement Queue from Scratch</t>
   </si>
   <si>
-    <t xml:space="preserve">Implement 2 stack in an array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">find the middle element of a stack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement "N" stacks in an Array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check the expression has valid or Balanced parenthesis or not.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reverse a String using Stack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Design a Stack that supports getMin() in O(1) time and O(1) extra space.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the next Greater element</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The celebrity Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arithmetic Expression evaluation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evaluation of Postfix expression</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement a method to insert an element at its bottom without using any other data structure.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reverse a stack using recursion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sort a Stack using recursion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Merge Overlapping Intervals</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Largest rectangular Area in Histogram</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Length of the Longest Valid Substring</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expression contains redundant bracket or not</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement Stack using Queue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement Stack using Deque</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stack Permutations (Check if an array is stack permutation of other)</t>
+    <t>Implement 2 stack in an array</t>
+  </si>
+  <si>
+    <t>find the middle element of a stack</t>
+  </si>
+  <si>
+    <t>Implement "N" stacks in an Array</t>
+  </si>
+  <si>
+    <t>Check the expression has valid or Balanced parenthesis or not.</t>
+  </si>
+  <si>
+    <t>Reverse a String using Stack</t>
+  </si>
+  <si>
+    <t>Design a Stack that supports getMin() in O(1) time and O(1) extra space.</t>
+  </si>
+  <si>
+    <t>Find the next Greater element</t>
+  </si>
+  <si>
+    <t>The celebrity Problem</t>
+  </si>
+  <si>
+    <t>Arithmetic Expression evaluation</t>
+  </si>
+  <si>
+    <t>Evaluation of Postfix expression</t>
+  </si>
+  <si>
+    <t>Implement a method to insert an element at its bottom without using any other data structure.</t>
+  </si>
+  <si>
+    <t>Reverse a stack using recursion</t>
+  </si>
+  <si>
+    <t>Sort a Stack using recursion</t>
+  </si>
+  <si>
+    <t>Merge Overlapping Intervals</t>
+  </si>
+  <si>
+    <t>Largest rectangular Area in Histogram</t>
+  </si>
+  <si>
+    <t>Length of the Longest Valid Substring</t>
+  </si>
+  <si>
+    <t>Expression contains redundant bracket or not</t>
+  </si>
+  <si>
+    <t>Implement Stack using Queue</t>
+  </si>
+  <si>
+    <t>Implement Stack using Deque</t>
+  </si>
+  <si>
+    <t>Stack Permutations (Check if an array is stack permutation of other)</t>
   </si>
   <si>
     <t xml:space="preserve">Implement Queue using Stack  </t>
   </si>
   <si>
-    <t xml:space="preserve">Implement "n" queue in an array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement a Circular queue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LRU Cache Implementationa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reverse a Queue using recursion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reverse the first “K” elements of a queue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interleave the first half of the queue with second half</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the first circular tour that visits all Petrol Pumps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum time required to rot all oranges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Distance of nearest cell having 1 in a binary matrix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">First negative integer in every window of size “k”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check if all levels of two trees are anagrams or not.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sum of minimum and maximum elements of all subarrays of size “k”.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum sum of squares of character counts in a given string after removing “k” characters.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Queue based approach or first non-repeating character in a stream.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Next Smaller Element</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement a Maxheap/MinHeap using arrays and recursion.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sort an Array using heap. (HeapSort)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum of all subarrays of size k.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">“k” largest element in an array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kth smallest and largest element in an unsorted array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Merge “K” sorted arrays. [ IMP ]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Merge 2 Binary Max Heaps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kth largest sum continuous subarrays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leetcode- reorganize strings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Merge “K” Sorted Linked Lists [V.IMP]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Smallest range in “K” Lists</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Median in a stream of Integers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check if a Binary Tree is Heap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Connect “n” ropes with minimum cost</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Convert BST to Min Heap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Convert min heap to max heap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rearrange characters in a string such that no two adjacent are same.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum sum of two numbers formed from digits of an array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Graph</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create a Graph, print it</t>
+    <t>Implement "n" queue in an array</t>
+  </si>
+  <si>
+    <t>Implement a Circular queue</t>
+  </si>
+  <si>
+    <t>LRU Cache Implementationa</t>
+  </si>
+  <si>
+    <t>Reverse a Queue using recursion</t>
+  </si>
+  <si>
+    <t>Reverse the first “K” elements of a queue</t>
+  </si>
+  <si>
+    <t>Interleave the first half of the queue with second half</t>
+  </si>
+  <si>
+    <t>Find the first circular tour that visits all Petrol Pumps</t>
+  </si>
+  <si>
+    <t>Minimum time required to rot all oranges</t>
+  </si>
+  <si>
+    <t>Distance of nearest cell having 1 in a binary matrix</t>
+  </si>
+  <si>
+    <t>First negative integer in every window of size “k”</t>
+  </si>
+  <si>
+    <t>Check if all levels of two trees are anagrams or not.</t>
+  </si>
+  <si>
+    <t>Sum of minimum and maximum elements of all subarrays of size “k”.</t>
+  </si>
+  <si>
+    <t>Minimum sum of squares of character counts in a given string after removing “k” characters.</t>
+  </si>
+  <si>
+    <t>Queue based approach or first non-repeating character in a stream.</t>
+  </si>
+  <si>
+    <t>Next Smaller Element</t>
+  </si>
+  <si>
+    <t>Heap</t>
+  </si>
+  <si>
+    <t>Implement a Maxheap/MinHeap using arrays and recursion.</t>
+  </si>
+  <si>
+    <t>Sort an Array using heap. (HeapSort)</t>
+  </si>
+  <si>
+    <t>Maximum of all subarrays of size k.</t>
+  </si>
+  <si>
+    <t>“k” largest element in an array</t>
+  </si>
+  <si>
+    <t>Kth smallest and largest element in an unsorted array</t>
+  </si>
+  <si>
+    <t>Merge “K” sorted arrays. [ IMP ]</t>
+  </si>
+  <si>
+    <t>Merge 2 Binary Max Heaps</t>
+  </si>
+  <si>
+    <t>Kth largest sum continuous subarrays</t>
+  </si>
+  <si>
+    <t>Leetcode- reorganize strings</t>
+  </si>
+  <si>
+    <t>Merge “K” Sorted Linked Lists [V.IMP]</t>
+  </si>
+  <si>
+    <t>Smallest range in “K” Lists</t>
+  </si>
+  <si>
+    <t>Median in a stream of Integers</t>
+  </si>
+  <si>
+    <t>Check if a Binary Tree is Heap</t>
+  </si>
+  <si>
+    <t>Connect “n” ropes with minimum cost</t>
+  </si>
+  <si>
+    <t>Convert BST to Min Heap</t>
+  </si>
+  <si>
+    <t>Convert min heap to max heap</t>
+  </si>
+  <si>
+    <t>Rearrange characters in a string such that no two adjacent are same.</t>
+  </si>
+  <si>
+    <t>Minimum sum of two numbers formed from digits of an array</t>
+  </si>
+  <si>
+    <t>Graph</t>
+  </si>
+  <si>
+    <t>Create a Graph, print it</t>
   </si>
   <si>
     <t xml:space="preserve">Implement BFS algorithm </t>
@@ -1084,359 +1088,356 @@
     <t xml:space="preserve">Detect Cycle in UnDirected Graph using BFS/DFS Algo </t>
   </si>
   <si>
-    <t xml:space="preserve">Search in a Maze</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum Step by Knight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flood fill algo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clone a graph</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Making wired Connections</t>
+    <t>Search in a Maze</t>
+  </si>
+  <si>
+    <t>Minimum Step by Knight</t>
+  </si>
+  <si>
+    <t>flood fill algo</t>
+  </si>
+  <si>
+    <t>Clone a graph</t>
+  </si>
+  <si>
+    <t>Making wired Connections</t>
   </si>
   <si>
     <t xml:space="preserve">word Ladder </t>
   </si>
   <si>
-    <t xml:space="preserve">Dijkstra algo</t>
+    <t>Dijkstra algo</t>
   </si>
   <si>
     <t xml:space="preserve">Implement Topological Sort </t>
   </si>
   <si>
-    <t xml:space="preserve">Minimum time taken by each job to be completed given by a Directed Acyclic Graph</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find whether it is possible to finish all tasks or not from given dependencies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the no. of Isalnds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given a sorted Dictionary of an Alien Language, find order of characters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement Kruksal’sAlgorithm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement Prim’s Algorithm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total no. of Spanning tree in a graph</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement Bellman Ford Algorithm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement Floyd warshallAlgorithm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Travelling Salesman Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Graph ColouringProblem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snake and Ladders Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find bridge in a graph</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count Strongly connected Components(Kosaraju Algo)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check whether a graph is Bipartite or Not</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Detect Negative cycle in a graph</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Longest path in a Directed Acyclic Graph</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Journey to the Moon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cheapest Flights Within K Stops</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oliver and the Game</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Water Jug problem using BFS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find if there is a path of more thank length from a source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M-ColouringProblem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum edges to reverse o make path from source to destination</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paths to travel each nodes using each edge(Seven Bridges)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vertex Cover Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chinese Postman or Route Inspection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of Triangles in a Directed and Undirected Graph</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimise the cashflow among a given set of friends who have borrowed money from each other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Two Clique Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Construct a trie from scratch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find shortest unique prefix for every word in a given list</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Word Break Problem | (Trie solution)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement a Phone Directory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Print unique rows in a given boolean matrix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dynamic Programming</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coin ChangeProblem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Knapsack Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Binomial CoefficientProblem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Permutation CoefficientProblem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Program for nth Catalan Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matrix Chain Multiplication </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edit Distance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Friends Pairing Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gold Mine Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assembly Line SchedulingProblem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Painting the Fenceproblem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximize The Cut Segments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Longest Common Subsequence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Longest Repeated Subsequence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Longest Increasing Subsequence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Space Optimized Solution of LCS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LCS (Longest Common Subsequence) of three strings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum Sum Increasing Subsequence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count all subsequences having product less than K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Longest subsequence such that difference between adjacent is one</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum subsequence sum such that no three are consecutive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Egg Dropping Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum Length Chain of Pairs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum size square sub-matrix with all 1s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum sum of pairs with specific difference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Min Cost PathProblem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum difference of zeros and ones in binary string</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum number of jumps to reach end</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum cost to fill given weight in a bag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum removals from array to make max –min &lt;= K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Longest Common Substring</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count number of ways to reacha given score in a game</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count Balanced Binary Trees of Height h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LargestSum Contiguous Subarray [V&gt;V&gt;V&gt;V IMP ]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Smallest sum contiguous subarray</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unbounded Knapsack (Repetition of items allowed)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Word Break Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Largest Independent Set Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partition problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Longest Palindromic Subsequence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count All Palindromic Subsequence in a given String</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Longest Palindromic Substring</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Longest alternating subsequence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weighted Job Scheduling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coin game winner where every player has three choices</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count Derangements (Permutation such that no element appears in its original position) [ IMPORTANT ]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum profit by buying and selling a share at most twice [ IMP ]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Optimal Strategy for a Game</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Optimal Binary Search Tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Palindrome PartitioningProblem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Word Wrap Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mobile Numeric Keypad Problem [ IMP ]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Boolean Parenthesization Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Largest rectangular sub-matrix whose sum is 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Largest area rectangular sub-matrix with equal number of 1’s and 0’s [ IMP ]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum sum rectangle in a 2D matrix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum profit by buying and selling a share at most k times</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find if a string is interleaved of two other strings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum Length of Pair Chain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bit Manipulation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count set bits in an integer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the two non-repeating elements in an array of repeating elements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count number of bits to be flipped to convert A to B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count total set bits in all numbers from 1 to n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Program to find whether a no is power of two</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find position of the only set bit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Copy set bits in a range</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Divide two integers without using multiplication, division and mod operator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calculate square of a number without using *, / and pow()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Power Set</t>
+    <t>Minimum time taken by each job to be completed given by a Directed Acyclic Graph</t>
+  </si>
+  <si>
+    <t>Find whether it is possible to finish all tasks or not from given dependencies</t>
+  </si>
+  <si>
+    <t>Find the no. of Isalnds</t>
+  </si>
+  <si>
+    <t>Given a sorted Dictionary of an Alien Language, find order of characters</t>
+  </si>
+  <si>
+    <t>Implement Kruksal’sAlgorithm</t>
+  </si>
+  <si>
+    <t>Implement Prim’s Algorithm</t>
+  </si>
+  <si>
+    <t>Total no. of Spanning tree in a graph</t>
+  </si>
+  <si>
+    <t>Implement Bellman Ford Algorithm</t>
+  </si>
+  <si>
+    <t>Implement Floyd warshallAlgorithm</t>
+  </si>
+  <si>
+    <t>Travelling Salesman Problem</t>
+  </si>
+  <si>
+    <t>Graph ColouringProblem</t>
+  </si>
+  <si>
+    <t>Snake and Ladders Problem</t>
+  </si>
+  <si>
+    <t>Find bridge in a graph</t>
+  </si>
+  <si>
+    <t>Count Strongly connected Components(Kosaraju Algo)</t>
+  </si>
+  <si>
+    <t>Check whether a graph is Bipartite or Not</t>
+  </si>
+  <si>
+    <t>Detect Negative cycle in a graph</t>
+  </si>
+  <si>
+    <t>Longest path in a Directed Acyclic Graph</t>
+  </si>
+  <si>
+    <t>Journey to the Moon</t>
+  </si>
+  <si>
+    <t>Cheapest Flights Within K Stops</t>
+  </si>
+  <si>
+    <t>Oliver and the Game</t>
+  </si>
+  <si>
+    <t>Water Jug problem using BFS</t>
+  </si>
+  <si>
+    <t>Find if there is a path of more thank length from a source</t>
+  </si>
+  <si>
+    <t>M-ColouringProblem</t>
+  </si>
+  <si>
+    <t>Minimum edges to reverse o make path from source to destination</t>
+  </si>
+  <si>
+    <t>Paths to travel each nodes using each edge(Seven Bridges)</t>
+  </si>
+  <si>
+    <t>Vertex Cover Problem</t>
+  </si>
+  <si>
+    <t>Chinese Postman or Route Inspection</t>
+  </si>
+  <si>
+    <t>Number of Triangles in a Directed and Undirected Graph</t>
+  </si>
+  <si>
+    <t>Minimise the cashflow among a given set of friends who have borrowed money from each other</t>
+  </si>
+  <si>
+    <t>Two Clique Problem</t>
+  </si>
+  <si>
+    <t>Trie</t>
+  </si>
+  <si>
+    <t>Construct a trie from scratch</t>
+  </si>
+  <si>
+    <t>Find shortest unique prefix for every word in a given list</t>
+  </si>
+  <si>
+    <t>Word Break Problem | (Trie solution)</t>
+  </si>
+  <si>
+    <t>Implement a Phone Directory</t>
+  </si>
+  <si>
+    <t>Print unique rows in a given boolean matrix</t>
+  </si>
+  <si>
+    <t>Dynamic Programming</t>
+  </si>
+  <si>
+    <t>Coin ChangeProblem</t>
+  </si>
+  <si>
+    <t>Knapsack Problem</t>
+  </si>
+  <si>
+    <t>Binomial CoefficientProblem</t>
+  </si>
+  <si>
+    <t>Permutation CoefficientProblem</t>
+  </si>
+  <si>
+    <t>Program for nth Catalan Number</t>
+  </si>
+  <si>
+    <t>Matrix Chain Multiplication </t>
+  </si>
+  <si>
+    <t>Edit Distance</t>
+  </si>
+  <si>
+    <t>Friends Pairing Problem</t>
+  </si>
+  <si>
+    <t>Gold Mine Problem</t>
+  </si>
+  <si>
+    <t>Assembly Line SchedulingProblem</t>
+  </si>
+  <si>
+    <t>Painting the Fenceproblem</t>
+  </si>
+  <si>
+    <t>Maximize The Cut Segments</t>
+  </si>
+  <si>
+    <t>Longest Common Subsequence</t>
+  </si>
+  <si>
+    <t>Longest Repeated Subsequence</t>
+  </si>
+  <si>
+    <t>Longest Increasing Subsequence</t>
+  </si>
+  <si>
+    <t>Space Optimized Solution of LCS</t>
+  </si>
+  <si>
+    <t>LCS (Longest Common Subsequence) of three strings</t>
+  </si>
+  <si>
+    <t>Maximum Sum Increasing Subsequence</t>
+  </si>
+  <si>
+    <t>Count all subsequences having product less than K</t>
+  </si>
+  <si>
+    <t>Longest subsequence such that difference between adjacent is one</t>
+  </si>
+  <si>
+    <t>Maximum subsequence sum such that no three are consecutive</t>
+  </si>
+  <si>
+    <t>Egg Dropping Problem</t>
+  </si>
+  <si>
+    <t>Maximum Length Chain of Pairs</t>
+  </si>
+  <si>
+    <t>Maximum size square sub-matrix with all 1s</t>
+  </si>
+  <si>
+    <t>Maximum sum of pairs with specific difference</t>
+  </si>
+  <si>
+    <t>Min Cost PathProblem</t>
+  </si>
+  <si>
+    <t>Maximum difference of zeros and ones in binary string</t>
+  </si>
+  <si>
+    <t>Minimum number of jumps to reach end</t>
+  </si>
+  <si>
+    <t>Minimum cost to fill given weight in a bag</t>
+  </si>
+  <si>
+    <t>Minimum removals from array to make max –min &lt;= K</t>
+  </si>
+  <si>
+    <t>Longest Common Substring</t>
+  </si>
+  <si>
+    <t>Count number of ways to reacha given score in a game</t>
+  </si>
+  <si>
+    <t>Count Balanced Binary Trees of Height h</t>
+  </si>
+  <si>
+    <t>LargestSum Contiguous Subarray [V&gt;V&gt;V&gt;V IMP ]</t>
+  </si>
+  <si>
+    <t>Smallest sum contiguous subarray</t>
+  </si>
+  <si>
+    <t>Unbounded Knapsack (Repetition of items allowed)</t>
+  </si>
+  <si>
+    <t>Word Break Problem</t>
+  </si>
+  <si>
+    <t>Largest Independent Set Problem</t>
+  </si>
+  <si>
+    <t>Partition problem</t>
+  </si>
+  <si>
+    <t>Longest Palindromic Subsequence</t>
+  </si>
+  <si>
+    <t>Count All Palindromic Subsequence in a given String</t>
+  </si>
+  <si>
+    <t>Longest Palindromic Substring</t>
+  </si>
+  <si>
+    <t>Longest alternating subsequence</t>
+  </si>
+  <si>
+    <t>Weighted Job Scheduling</t>
+  </si>
+  <si>
+    <t>Coin game winner where every player has three choices</t>
+  </si>
+  <si>
+    <t>Count Derangements (Permutation such that no element appears in its original position) [ IMPORTANT ]</t>
+  </si>
+  <si>
+    <t>Maximum profit by buying and selling a share at most twice [ IMP ]</t>
+  </si>
+  <si>
+    <t>Optimal Strategy for a Game</t>
+  </si>
+  <si>
+    <t>Optimal Binary Search Tree</t>
+  </si>
+  <si>
+    <t>Palindrome PartitioningProblem</t>
+  </si>
+  <si>
+    <t>Word Wrap Problem</t>
+  </si>
+  <si>
+    <t>Mobile Numeric Keypad Problem [ IMP ]</t>
+  </si>
+  <si>
+    <t>Boolean Parenthesization Problem</t>
+  </si>
+  <si>
+    <t>Largest rectangular sub-matrix whose sum is 0</t>
+  </si>
+  <si>
+    <t>Largest area rectangular sub-matrix with equal number of 1’s and 0’s [ IMP ]</t>
+  </si>
+  <si>
+    <t>Maximum sum rectangle in a 2D matrix</t>
+  </si>
+  <si>
+    <t>Maximum profit by buying and selling a share at most k times</t>
+  </si>
+  <si>
+    <t>Find if a string is interleaved of two other strings</t>
+  </si>
+  <si>
+    <t>Maximum Length of Pair Chain</t>
+  </si>
+  <si>
+    <t>Bit Manipulation</t>
+  </si>
+  <si>
+    <t>Count set bits in an integer</t>
+  </si>
+  <si>
+    <t>Find the two non-repeating elements in an array of repeating elements</t>
+  </si>
+  <si>
+    <t>Count number of bits to be flipped to convert A to B</t>
+  </si>
+  <si>
+    <t>Count total set bits in all numbers from 1 to n</t>
+  </si>
+  <si>
+    <t>Program to find whether a no is power of two</t>
+  </si>
+  <si>
+    <t>Find position of the only set bit</t>
+  </si>
+  <si>
+    <t>Copy set bits in a range</t>
+  </si>
+  <si>
+    <t>Divide two integers without using multiplication, division and mod operator</t>
+  </si>
+  <si>
+    <t>Calculate square of a number without using *, / and pow()</t>
+  </si>
+  <si>
+    <t>Power Set</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -1445,30 +1446,14 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="20"/>
       <color rgb="FF000000"/>
       <name val="Calibri (Body)"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="12"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
@@ -1476,8 +1461,8 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <u val="single"/>
+      <b/>
+      <u/>
       <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1485,7 +1470,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="15"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1493,7 +1478,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="16"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
@@ -1517,7 +1502,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1525,85 +1510,38 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="*unknown*" xfId="20" builtinId="8" customBuiltin="false"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1662,41 +1600,315 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B28" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C53" activeCellId="0" sqref="C53:E53"/>
+    <sheetView tabSelected="1" topLeftCell="B16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="123"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="27.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="10.49"/>
+    <col min="1" max="1" width="28.5" customWidth="1"/>
+    <col min="2" max="2" width="123" customWidth="1"/>
+    <col min="3" max="3" width="27.5" customWidth="1"/>
+    <col min="4" max="1025" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:3" ht="24.6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:3">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:3" ht="21">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -1707,10 +1919,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:3">
       <c r="C5" s="5"/>
     </row>
-    <row r="6" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:3" ht="21">
       <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
@@ -1721,7 +1933,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:3" ht="21">
       <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
@@ -1732,7 +1944,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:3" ht="21">
       <c r="A8" s="6" t="s">
         <v>5</v>
       </c>
@@ -1743,7 +1955,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:3" ht="21">
       <c r="A9" s="6" t="s">
         <v>5</v>
       </c>
@@ -1754,7 +1966,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:3" ht="21">
       <c r="A10" s="6" t="s">
         <v>5</v>
       </c>
@@ -1765,7 +1977,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:3" ht="21">
       <c r="A11" s="6" t="s">
         <v>5</v>
       </c>
@@ -1776,7 +1988,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:3" ht="21">
       <c r="A12" s="6" t="s">
         <v>5</v>
       </c>
@@ -1787,7 +1999,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:3" ht="21">
       <c r="A13" s="6" t="s">
         <v>5</v>
       </c>
@@ -1798,7 +2010,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:3" ht="21">
       <c r="A14" s="6" t="s">
         <v>5</v>
       </c>
@@ -1809,7 +2021,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:3" ht="21">
       <c r="A15" s="6" t="s">
         <v>5</v>
       </c>
@@ -1820,7 +2032,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:3" ht="21">
       <c r="A16" s="6" t="s">
         <v>5</v>
       </c>
@@ -1831,7 +2043,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:3" ht="21">
       <c r="A17" s="6" t="s">
         <v>5</v>
       </c>
@@ -1842,7 +2054,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:3" ht="21">
       <c r="A18" s="6" t="s">
         <v>5</v>
       </c>
@@ -1853,7 +2065,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:3" ht="21">
       <c r="A19" s="6" t="s">
         <v>5</v>
       </c>
@@ -1864,7 +2076,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:3" ht="21">
       <c r="A20" s="6" t="s">
         <v>5</v>
       </c>
@@ -1875,7 +2087,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:3" ht="21">
       <c r="A21" s="6" t="s">
         <v>5</v>
       </c>
@@ -1883,10 +2095,10 @@
         <v>24</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="21">
       <c r="A22" s="6" t="s">
         <v>5</v>
       </c>
@@ -1894,10 +2106,10 @@
         <v>26</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="21">
       <c r="A23" s="6" t="s">
         <v>5</v>
       </c>
@@ -1905,10 +2117,10 @@
         <v>27</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="21">
       <c r="A24" s="6" t="s">
         <v>5</v>
       </c>
@@ -1919,7 +2131,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:3" ht="21">
       <c r="A25" s="6" t="s">
         <v>5</v>
       </c>
@@ -1930,7 +2142,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:3" ht="21">
       <c r="A26" s="6" t="s">
         <v>5</v>
       </c>
@@ -1941,7 +2153,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:3" ht="21">
       <c r="A27" s="6" t="s">
         <v>5</v>
       </c>
@@ -1952,7 +2164,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:3" ht="21">
       <c r="A28" s="6" t="s">
         <v>5</v>
       </c>
@@ -1963,7 +2175,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:3" ht="21">
       <c r="A29" s="6" t="s">
         <v>5</v>
       </c>
@@ -1974,7 +2186,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:3" ht="21">
       <c r="A30" s="6" t="s">
         <v>5</v>
       </c>
@@ -1985,7 +2197,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:3" ht="21">
       <c r="A31" s="6" t="s">
         <v>5</v>
       </c>
@@ -1996,7 +2208,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:3" ht="21">
       <c r="A32" s="6" t="s">
         <v>5</v>
       </c>
@@ -2007,7 +2219,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:3" ht="21">
       <c r="A33" s="6" t="s">
         <v>5</v>
       </c>
@@ -2018,7 +2230,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:3" ht="21">
       <c r="A34" s="6" t="s">
         <v>5</v>
       </c>
@@ -2029,7 +2241,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:3" ht="21">
       <c r="A35" s="6" t="s">
         <v>5</v>
       </c>
@@ -2040,7 +2252,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:3" ht="21">
       <c r="A36" s="6" t="s">
         <v>5</v>
       </c>
@@ -2051,7 +2263,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:3" ht="21">
       <c r="A37" s="6" t="s">
         <v>5</v>
       </c>
@@ -2062,7 +2274,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:3" ht="21">
       <c r="A38" s="6" t="s">
         <v>5</v>
       </c>
@@ -2073,7 +2285,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:3" ht="21">
       <c r="A39" s="6" t="s">
         <v>5</v>
       </c>
@@ -2084,7 +2296,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:3" ht="21">
       <c r="A40" s="6" t="s">
         <v>5</v>
       </c>
@@ -2095,7 +2307,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:3" ht="21">
       <c r="A41" s="6" t="s">
         <v>5</v>
       </c>
@@ -2106,20 +2318,20 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:3" ht="21">
       <c r="B42" s="8"/>
       <c r="C42" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:3" ht="21">
       <c r="A43" s="6"/>
       <c r="B43" s="8"/>
       <c r="C43" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:3" ht="21">
       <c r="A44" s="6" t="s">
         <v>46</v>
       </c>
@@ -2130,7 +2342,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:3" ht="21">
       <c r="A45" s="6" t="s">
         <v>46</v>
       </c>
@@ -2141,7 +2353,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:3" ht="21">
       <c r="A46" s="6" t="s">
         <v>46</v>
       </c>
@@ -2152,7 +2364,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:3" ht="21">
       <c r="A47" s="6" t="s">
         <v>46</v>
       </c>
@@ -2163,7 +2375,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:3" ht="21">
       <c r="A48" s="6" t="s">
         <v>46</v>
       </c>
@@ -2174,7 +2386,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:3" ht="21">
       <c r="A49" s="6" t="s">
         <v>46</v>
       </c>
@@ -2185,7 +2397,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:3" ht="21">
       <c r="A50" s="6" t="s">
         <v>46</v>
       </c>
@@ -2196,7 +2408,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:3" ht="21">
       <c r="A51" s="6" t="s">
         <v>46</v>
       </c>
@@ -2207,7 +2419,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:3" ht="21">
       <c r="A52" s="6" t="s">
         <v>46</v>
       </c>
@@ -2218,7 +2430,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:3" ht="21">
       <c r="A53" s="6" t="s">
         <v>46</v>
       </c>
@@ -2229,12 +2441,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:3" ht="21">
       <c r="A55" s="6"/>
       <c r="B55" s="8"/>
       <c r="C55" s="5"/>
     </row>
-    <row r="56" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:3" ht="21">
       <c r="A56" s="6" t="s">
         <v>58</v>
       </c>
@@ -2245,7 +2457,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:3" ht="21">
       <c r="A57" s="6" t="s">
         <v>58</v>
       </c>
@@ -2256,7 +2468,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:3" ht="21">
       <c r="A58" s="6" t="s">
         <v>58</v>
       </c>
@@ -2267,7 +2479,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:3" ht="21">
       <c r="A59" s="6" t="s">
         <v>58</v>
       </c>
@@ -2278,7 +2490,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:3" ht="21">
       <c r="A60" s="6" t="s">
         <v>58</v>
       </c>
@@ -2289,7 +2501,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" spans="1:3" ht="21">
       <c r="A61" s="6" t="s">
         <v>58</v>
       </c>
@@ -2300,7 +2512,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" spans="1:3" ht="21">
       <c r="A62" s="6" t="s">
         <v>58</v>
       </c>
@@ -2311,7 +2523,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" spans="1:3" ht="21">
       <c r="A63" s="6" t="s">
         <v>58</v>
       </c>
@@ -2322,7 +2534,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" spans="1:3" ht="21">
       <c r="A64" s="6" t="s">
         <v>58</v>
       </c>
@@ -2333,7 +2545,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" spans="1:3" ht="21">
       <c r="A65" s="6" t="s">
         <v>58</v>
       </c>
@@ -2344,7 +2556,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" spans="1:3" ht="21">
       <c r="A66" s="6" t="s">
         <v>58</v>
       </c>
@@ -2355,7 +2567,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" spans="1:3" ht="21">
       <c r="A67" s="6" t="s">
         <v>58</v>
       </c>
@@ -2366,7 +2578,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" spans="1:3" ht="21">
       <c r="A68" s="6" t="s">
         <v>58</v>
       </c>
@@ -2377,7 +2589,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" spans="1:3" ht="21">
       <c r="A69" s="6" t="s">
         <v>58</v>
       </c>
@@ -2388,7 +2600,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" spans="1:3" ht="21">
       <c r="A70" s="6" t="s">
         <v>58</v>
       </c>
@@ -2399,7 +2611,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" spans="1:3" ht="21">
       <c r="A71" s="6" t="s">
         <v>58</v>
       </c>
@@ -2410,7 +2622,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" spans="1:3" ht="21">
       <c r="A72" s="6" t="s">
         <v>58</v>
       </c>
@@ -2421,7 +2633,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" spans="1:3" ht="21">
       <c r="A73" s="6" t="s">
         <v>58</v>
       </c>
@@ -2432,7 +2644,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" spans="1:3" ht="21">
       <c r="A74" s="6" t="s">
         <v>58</v>
       </c>
@@ -2443,7 +2655,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" spans="1:3" ht="21">
       <c r="A75" s="6" t="s">
         <v>58</v>
       </c>
@@ -2454,7 +2666,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" spans="1:3" ht="21">
       <c r="A76" s="6" t="s">
         <v>58</v>
       </c>
@@ -2465,7 +2677,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" spans="1:3" ht="21">
       <c r="A77" s="6" t="s">
         <v>58</v>
       </c>
@@ -2476,7 +2688,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" spans="1:3" ht="21">
       <c r="A78" s="6" t="s">
         <v>58</v>
       </c>
@@ -2487,7 +2699,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" spans="1:3" ht="21">
       <c r="A79" s="6" t="s">
         <v>58</v>
       </c>
@@ -2498,7 +2710,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" spans="1:3" ht="21">
       <c r="A80" s="6" t="s">
         <v>58</v>
       </c>
@@ -2509,7 +2721,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" spans="1:3" ht="21">
       <c r="A81" s="6" t="s">
         <v>58</v>
       </c>
@@ -2520,7 +2732,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" spans="1:3" ht="21">
       <c r="A82" s="6" t="s">
         <v>58</v>
       </c>
@@ -2531,7 +2743,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" spans="1:3" ht="21">
       <c r="A83" s="6" t="s">
         <v>58</v>
       </c>
@@ -2542,7 +2754,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" spans="1:3" ht="21">
       <c r="A84" s="6" t="s">
         <v>58</v>
       </c>
@@ -2553,7 +2765,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" spans="1:3" ht="21">
       <c r="A85" s="6" t="s">
         <v>58</v>
       </c>
@@ -2564,7 +2776,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" spans="1:3" ht="21">
       <c r="A86" s="6" t="s">
         <v>58</v>
       </c>
@@ -2575,7 +2787,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" spans="1:3" ht="21">
       <c r="A87" s="6" t="s">
         <v>58</v>
       </c>
@@ -2586,7 +2798,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" spans="1:3" ht="21">
       <c r="A88" s="6" t="s">
         <v>58</v>
       </c>
@@ -2597,7 +2809,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" spans="1:3" ht="21">
       <c r="A89" s="6" t="s">
         <v>58</v>
       </c>
@@ -2608,7 +2820,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" spans="1:3" ht="21">
       <c r="A90" s="6" t="s">
         <v>58</v>
       </c>
@@ -2619,7 +2831,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" spans="1:3" ht="21">
       <c r="A91" s="6" t="s">
         <v>58</v>
       </c>
@@ -2630,7 +2842,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" spans="1:3" ht="21">
       <c r="A92" s="6" t="s">
         <v>58</v>
       </c>
@@ -2641,7 +2853,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" spans="1:3" ht="21">
       <c r="A93" s="6" t="s">
         <v>58</v>
       </c>
@@ -2652,7 +2864,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" spans="1:3" ht="21">
       <c r="A94" s="6" t="s">
         <v>58</v>
       </c>
@@ -2663,7 +2875,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" spans="1:3" ht="21">
       <c r="A95" s="6" t="s">
         <v>58</v>
       </c>
@@ -2674,7 +2886,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" spans="1:3" ht="21">
       <c r="A96" s="6" t="s">
         <v>58</v>
       </c>
@@ -2685,7 +2897,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" spans="1:3" ht="21">
       <c r="A97" s="6" t="s">
         <v>58</v>
       </c>
@@ -2696,7 +2908,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" spans="1:3" ht="21">
       <c r="A98" s="6" t="s">
         <v>58</v>
       </c>
@@ -2707,12 +2919,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" spans="1:3" ht="21">
       <c r="A100" s="6"/>
       <c r="B100" s="8"/>
       <c r="C100" s="5"/>
     </row>
-    <row r="101" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" spans="1:3" ht="21">
       <c r="A101" s="6" t="s">
         <v>102</v>
       </c>
@@ -2723,7 +2935,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" spans="1:3" ht="21">
       <c r="A102" s="6" t="s">
         <v>102</v>
       </c>
@@ -2734,7 +2946,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" spans="1:3" ht="21">
       <c r="A103" s="6" t="s">
         <v>102</v>
       </c>
@@ -2745,7 +2957,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" spans="1:3" ht="21">
       <c r="A104" s="6" t="s">
         <v>102</v>
       </c>
@@ -2756,7 +2968,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" spans="1:3" ht="21">
       <c r="A105" s="6" t="s">
         <v>102</v>
       </c>
@@ -2767,7 +2979,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" spans="1:3" ht="21">
       <c r="A106" s="6" t="s">
         <v>102</v>
       </c>
@@ -2778,7 +2990,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" spans="1:3" ht="21">
       <c r="A107" s="6" t="s">
         <v>102</v>
       </c>
@@ -2789,7 +3001,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" spans="1:3" ht="21">
       <c r="A108" s="6" t="s">
         <v>102</v>
       </c>
@@ -2800,7 +3012,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" spans="1:3" ht="21">
       <c r="A109" s="6" t="s">
         <v>102</v>
       </c>
@@ -2811,7 +3023,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" spans="1:3" ht="21">
       <c r="A110" s="6" t="s">
         <v>102</v>
       </c>
@@ -2822,7 +3034,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" spans="1:3" ht="21">
       <c r="A111" s="6" t="s">
         <v>102</v>
       </c>
@@ -2833,7 +3045,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" spans="1:3" ht="21">
       <c r="A112" s="6" t="s">
         <v>102</v>
       </c>
@@ -2844,7 +3056,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" spans="1:3" ht="21">
       <c r="A113" s="6" t="s">
         <v>102</v>
       </c>
@@ -2855,7 +3067,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" spans="1:3" ht="21">
       <c r="A114" s="6" t="s">
         <v>102</v>
       </c>
@@ -2866,7 +3078,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" spans="1:3" ht="21">
       <c r="A115" s="6" t="s">
         <v>102</v>
       </c>
@@ -2877,7 +3089,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" spans="1:3" ht="21">
       <c r="A116" s="6" t="s">
         <v>102</v>
       </c>
@@ -2888,7 +3100,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" spans="1:3" ht="21">
       <c r="A117" s="6" t="s">
         <v>102</v>
       </c>
@@ -2899,7 +3111,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" spans="1:3" ht="21">
       <c r="A118" s="6" t="s">
         <v>102</v>
       </c>
@@ -2910,7 +3122,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" spans="1:3" ht="21">
       <c r="A119" s="6" t="s">
         <v>102</v>
       </c>
@@ -2921,7 +3133,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" spans="1:3" ht="21">
       <c r="A120" s="6" t="s">
         <v>102</v>
       </c>
@@ -2932,7 +3144,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" spans="1:3" ht="21">
       <c r="A121" s="6" t="s">
         <v>102</v>
       </c>
@@ -2943,7 +3155,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" spans="1:3" ht="21">
       <c r="A122" s="6" t="s">
         <v>102</v>
       </c>
@@ -2954,7 +3166,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" spans="1:3" ht="21">
       <c r="A123" s="6" t="s">
         <v>102</v>
       </c>
@@ -2965,7 +3177,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" spans="1:3" ht="21">
       <c r="A124" s="6" t="s">
         <v>102</v>
       </c>
@@ -2976,7 +3188,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" spans="1:3" ht="21">
       <c r="A125" s="6" t="s">
         <v>102</v>
       </c>
@@ -2987,7 +3199,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" spans="1:3" ht="21">
       <c r="A126" s="6" t="s">
         <v>102</v>
       </c>
@@ -2998,7 +3210,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" spans="1:3" ht="21">
       <c r="A127" s="6" t="s">
         <v>102</v>
       </c>
@@ -3009,7 +3221,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" spans="1:3" ht="21">
       <c r="A128" s="6" t="s">
         <v>102</v>
       </c>
@@ -3020,7 +3232,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" spans="1:3" ht="21">
       <c r="A129" s="6" t="s">
         <v>102</v>
       </c>
@@ -3031,7 +3243,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" spans="1:3" ht="21">
       <c r="A130" s="6" t="s">
         <v>102</v>
       </c>
@@ -3042,7 +3254,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" spans="1:3" ht="21">
       <c r="A131" s="6" t="s">
         <v>102</v>
       </c>
@@ -3053,7 +3265,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" spans="1:3" ht="21">
       <c r="A132" s="6" t="s">
         <v>102</v>
       </c>
@@ -3064,7 +3276,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" spans="1:3" ht="21">
       <c r="A133" s="6" t="s">
         <v>102</v>
       </c>
@@ -3075,7 +3287,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" spans="1:3" ht="21">
       <c r="A134" s="6" t="s">
         <v>102</v>
       </c>
@@ -3086,7 +3298,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" spans="1:3" ht="21">
       <c r="A135" s="6" t="s">
         <v>102</v>
       </c>
@@ -3097,7 +3309,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" spans="1:3" ht="21">
       <c r="A136" s="6" t="s">
         <v>102</v>
       </c>
@@ -3108,11 +3320,11 @@
         <v>25</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" spans="1:3" ht="21">
       <c r="B138" s="8"/>
       <c r="C138" s="5"/>
     </row>
-    <row r="139" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" spans="1:3" ht="21">
       <c r="A139" s="6" t="s">
         <v>139</v>
       </c>
@@ -3123,7 +3335,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" spans="1:3" ht="21">
       <c r="A140" s="6" t="s">
         <v>139</v>
       </c>
@@ -3134,7 +3346,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" spans="1:3" ht="21">
       <c r="A141" s="6" t="s">
         <v>139</v>
       </c>
@@ -3145,7 +3357,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" spans="1:3" ht="21">
       <c r="A142" s="6" t="s">
         <v>139</v>
       </c>
@@ -3156,7 +3368,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" spans="1:3" ht="21">
       <c r="A143" s="6" t="s">
         <v>139</v>
       </c>
@@ -3167,7 +3379,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" spans="1:3" ht="21">
       <c r="A144" s="6" t="s">
         <v>139</v>
       </c>
@@ -3178,7 +3390,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" spans="1:3" ht="21">
       <c r="A145" s="6" t="s">
         <v>139</v>
       </c>
@@ -3189,7 +3401,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" spans="1:3" ht="21">
       <c r="A146" s="6" t="s">
         <v>139</v>
       </c>
@@ -3200,7 +3412,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" spans="1:3" ht="21">
       <c r="A147" s="6" t="s">
         <v>139</v>
       </c>
@@ -3211,7 +3423,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" spans="1:3" ht="21">
       <c r="A148" s="6" t="s">
         <v>139</v>
       </c>
@@ -3222,7 +3434,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" spans="1:3" ht="21">
       <c r="A149" s="6" t="s">
         <v>139</v>
       </c>
@@ -3233,7 +3445,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" spans="1:3" ht="21">
       <c r="A150" s="6" t="s">
         <v>139</v>
       </c>
@@ -3244,7 +3456,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" spans="1:3" ht="21">
       <c r="A151" s="6" t="s">
         <v>139</v>
       </c>
@@ -3255,7 +3467,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" spans="1:3" ht="21">
       <c r="A152" s="6" t="s">
         <v>139</v>
       </c>
@@ -3266,7 +3478,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" spans="1:3" ht="21">
       <c r="A153" s="6" t="s">
         <v>139</v>
       </c>
@@ -3277,7 +3489,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" spans="1:3" ht="21">
       <c r="A154" s="6" t="s">
         <v>139</v>
       </c>
@@ -3288,7 +3500,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" spans="1:3" ht="21">
       <c r="A155" s="6" t="s">
         <v>139</v>
       </c>
@@ -3299,7 +3511,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" spans="1:3" ht="21">
       <c r="A156" s="6" t="s">
         <v>139</v>
       </c>
@@ -3310,7 +3522,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" spans="1:3" ht="21">
       <c r="A157" s="6" t="s">
         <v>139</v>
       </c>
@@ -3321,7 +3533,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" spans="1:3" ht="21">
       <c r="A158" s="6" t="s">
         <v>139</v>
       </c>
@@ -3332,7 +3544,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" spans="1:3" ht="21">
       <c r="A159" s="6" t="s">
         <v>139</v>
       </c>
@@ -3343,7 +3555,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" spans="1:3" ht="21">
       <c r="A160" s="6" t="s">
         <v>139</v>
       </c>
@@ -3354,7 +3566,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" spans="1:3" ht="21">
       <c r="A161" s="6" t="s">
         <v>139</v>
       </c>
@@ -3365,7 +3577,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" spans="1:3" ht="21">
       <c r="A162" s="6" t="s">
         <v>139</v>
       </c>
@@ -3376,7 +3588,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" spans="1:3" ht="21">
       <c r="A163" s="6" t="s">
         <v>139</v>
       </c>
@@ -3387,7 +3599,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" spans="1:3" ht="21">
       <c r="A164" s="6" t="s">
         <v>139</v>
       </c>
@@ -3398,7 +3610,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" spans="1:3" ht="21">
       <c r="A165" s="6" t="s">
         <v>139</v>
       </c>
@@ -3409,7 +3621,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" spans="1:3" ht="21">
       <c r="A166" s="6" t="s">
         <v>139</v>
       </c>
@@ -3420,7 +3632,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" spans="1:3" ht="21">
       <c r="A167" s="6" t="s">
         <v>139</v>
       </c>
@@ -3431,7 +3643,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" spans="1:3" ht="21">
       <c r="A168" s="6" t="s">
         <v>139</v>
       </c>
@@ -3442,7 +3654,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" spans="1:3" ht="21">
       <c r="A169" s="6" t="s">
         <v>139</v>
       </c>
@@ -3453,7 +3665,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" spans="1:3" ht="21">
       <c r="A170" s="6" t="s">
         <v>139</v>
       </c>
@@ -3464,7 +3676,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" spans="1:3" ht="21">
       <c r="A171" s="6" t="s">
         <v>139</v>
       </c>
@@ -3475,7 +3687,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" spans="1:3" ht="21">
       <c r="A172" s="6" t="s">
         <v>139</v>
       </c>
@@ -3486,7 +3698,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" spans="1:3" ht="21">
       <c r="A173" s="6" t="s">
         <v>139</v>
       </c>
@@ -3497,7 +3709,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" spans="1:3" ht="21">
       <c r="A174" s="6" t="s">
         <v>139</v>
       </c>
@@ -3508,11 +3720,11 @@
         <v>25</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" spans="1:3" ht="21">
       <c r="B176" s="8"/>
       <c r="C176" s="5"/>
     </row>
-    <row r="177" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" spans="1:3" ht="21">
       <c r="A177" s="6" t="s">
         <v>176</v>
       </c>
@@ -3523,7 +3735,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" spans="1:3" ht="21">
       <c r="A178" s="6" t="s">
         <v>176</v>
       </c>
@@ -3534,7 +3746,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" spans="1:3" ht="21">
       <c r="A179" s="6" t="s">
         <v>176</v>
       </c>
@@ -3545,7 +3757,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" spans="1:3" ht="21">
       <c r="A180" s="6" t="s">
         <v>176</v>
       </c>
@@ -3556,7 +3768,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" spans="1:3" ht="21">
       <c r="A181" s="6" t="s">
         <v>176</v>
       </c>
@@ -3567,7 +3779,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" spans="1:3" ht="21">
       <c r="A182" s="6" t="s">
         <v>176</v>
       </c>
@@ -3578,7 +3790,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="183" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" spans="1:3" ht="21">
       <c r="A183" s="6" t="s">
         <v>176</v>
       </c>
@@ -3589,7 +3801,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" spans="1:3" ht="21">
       <c r="A184" s="6" t="s">
         <v>176</v>
       </c>
@@ -3600,7 +3812,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" spans="1:3" ht="21">
       <c r="A185" s="6" t="s">
         <v>176</v>
       </c>
@@ -3611,7 +3823,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" spans="1:3" ht="21">
       <c r="A186" s="6" t="s">
         <v>176</v>
       </c>
@@ -3622,7 +3834,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="187" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" spans="1:3" ht="21">
       <c r="A187" s="6" t="s">
         <v>176</v>
       </c>
@@ -3633,7 +3845,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="188" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" spans="1:3" ht="21">
       <c r="A188" s="6" t="s">
         <v>176</v>
       </c>
@@ -3644,7 +3856,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="189" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" spans="1:3" ht="21">
       <c r="A189" s="6" t="s">
         <v>176</v>
       </c>
@@ -3655,7 +3867,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="190" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" spans="1:3" ht="21">
       <c r="A190" s="6" t="s">
         <v>176</v>
       </c>
@@ -3666,7 +3878,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="191" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" spans="1:3" ht="21">
       <c r="A191" s="6" t="s">
         <v>176</v>
       </c>
@@ -3677,7 +3889,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" spans="1:3" ht="21">
       <c r="A192" s="6" t="s">
         <v>176</v>
       </c>
@@ -3688,7 +3900,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="193" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" spans="1:3" ht="21">
       <c r="A193" s="6" t="s">
         <v>176</v>
       </c>
@@ -3699,7 +3911,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="194" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="194" spans="1:3" ht="21">
       <c r="A194" s="6" t="s">
         <v>176</v>
       </c>
@@ -3710,7 +3922,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="195" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" spans="1:3" ht="21">
       <c r="A195" s="6" t="s">
         <v>176</v>
       </c>
@@ -3721,7 +3933,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" spans="1:3" ht="21">
       <c r="A196" s="6" t="s">
         <v>176</v>
       </c>
@@ -3732,7 +3944,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="197" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" spans="1:3" ht="21">
       <c r="A197" s="6" t="s">
         <v>176</v>
       </c>
@@ -3743,7 +3955,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="198" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" spans="1:3" ht="21">
       <c r="A198" s="6" t="s">
         <v>176</v>
       </c>
@@ -3754,7 +3966,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="199" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" spans="1:3" ht="21">
       <c r="A199" s="6" t="s">
         <v>176</v>
       </c>
@@ -3765,7 +3977,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="200" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="200" spans="1:3" ht="21">
       <c r="A200" s="6" t="s">
         <v>176</v>
       </c>
@@ -3776,7 +3988,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="201" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="201" spans="1:3" ht="21">
       <c r="A201" s="6" t="s">
         <v>176</v>
       </c>
@@ -3787,7 +3999,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="202" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="202" spans="1:3" ht="21">
       <c r="A202" s="6" t="s">
         <v>176</v>
       </c>
@@ -3798,7 +4010,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="203" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="203" spans="1:3" ht="21">
       <c r="A203" s="6" t="s">
         <v>176</v>
       </c>
@@ -3809,7 +4021,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="204" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="204" spans="1:3" ht="21">
       <c r="A204" s="6" t="s">
         <v>176</v>
       </c>
@@ -3820,7 +4032,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="205" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="205" spans="1:3" ht="21">
       <c r="A205" s="6" t="s">
         <v>176</v>
       </c>
@@ -3831,7 +4043,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="206" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="206" spans="1:3" ht="21">
       <c r="A206" s="6" t="s">
         <v>176</v>
       </c>
@@ -3842,7 +4054,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="207" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="207" spans="1:3" ht="21">
       <c r="A207" s="6" t="s">
         <v>176</v>
       </c>
@@ -3853,7 +4065,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="208" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="208" spans="1:3" ht="21">
       <c r="A208" s="6" t="s">
         <v>176</v>
       </c>
@@ -3864,7 +4076,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="209" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="209" spans="1:3" ht="21">
       <c r="A209" s="6" t="s">
         <v>176</v>
       </c>
@@ -3875,7 +4087,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="210" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="210" spans="1:3" ht="21">
       <c r="A210" s="6" t="s">
         <v>176</v>
       </c>
@@ -3886,7 +4098,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="211" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="211" spans="1:3" ht="21">
       <c r="A211" s="6" t="s">
         <v>176</v>
       </c>
@@ -3897,17 +4109,17 @@
         <v>25</v>
       </c>
     </row>
-    <row r="212" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="212" spans="1:3" ht="21">
       <c r="A212" s="6"/>
       <c r="B212" s="8"/>
       <c r="C212" s="5"/>
     </row>
-    <row r="213" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="213" spans="1:3" ht="21">
       <c r="A213" s="6"/>
       <c r="B213" s="8"/>
       <c r="C213" s="5"/>
     </row>
-    <row r="214" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="214" spans="1:3" ht="21">
       <c r="A214" s="6" t="s">
         <v>212</v>
       </c>
@@ -3918,7 +4130,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="215" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="215" spans="1:3" ht="21">
       <c r="A215" s="6" t="s">
         <v>212</v>
       </c>
@@ -3929,7 +4141,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="216" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="216" spans="1:3" ht="21">
       <c r="A216" s="6" t="s">
         <v>212</v>
       </c>
@@ -3940,7 +4152,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="217" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="217" spans="1:3" ht="21">
       <c r="A217" s="6" t="s">
         <v>212</v>
       </c>
@@ -3951,7 +4163,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="218" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="218" spans="1:3" ht="21">
       <c r="A218" s="6" t="s">
         <v>212</v>
       </c>
@@ -3962,7 +4174,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="219" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="219" spans="1:3" ht="21">
       <c r="A219" s="6" t="s">
         <v>212</v>
       </c>
@@ -3973,7 +4185,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="220" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="220" spans="1:3" ht="21">
       <c r="A220" s="6" t="s">
         <v>212</v>
       </c>
@@ -3984,7 +4196,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="221" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="221" spans="1:3" ht="21">
       <c r="A221" s="6" t="s">
         <v>212</v>
       </c>
@@ -3995,7 +4207,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="222" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="222" spans="1:3" ht="21">
       <c r="A222" s="6" t="s">
         <v>212</v>
       </c>
@@ -4006,7 +4218,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="223" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="223" spans="1:3" ht="21">
       <c r="A223" s="6" t="s">
         <v>212</v>
       </c>
@@ -4017,7 +4229,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="224" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="224" spans="1:3" ht="21">
       <c r="A224" s="6" t="s">
         <v>212</v>
       </c>
@@ -4028,7 +4240,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="225" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="225" spans="1:3" ht="21">
       <c r="A225" s="6" t="s">
         <v>212</v>
       </c>
@@ -4039,7 +4251,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="226" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="226" spans="1:3" ht="21">
       <c r="A226" s="6" t="s">
         <v>212</v>
       </c>
@@ -4050,7 +4262,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="227" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="227" spans="1:3" ht="21">
       <c r="A227" s="6" t="s">
         <v>212</v>
       </c>
@@ -4061,7 +4273,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="228" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="228" spans="1:3" ht="21">
       <c r="A228" s="6" t="s">
         <v>212</v>
       </c>
@@ -4072,7 +4284,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="229" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="229" spans="1:3" ht="21">
       <c r="A229" s="6" t="s">
         <v>212</v>
       </c>
@@ -4083,7 +4295,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="230" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="230" spans="1:3" ht="21">
       <c r="A230" s="6" t="s">
         <v>212</v>
       </c>
@@ -4094,7 +4306,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="231" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="231" spans="1:3" ht="21">
       <c r="A231" s="6" t="s">
         <v>212</v>
       </c>
@@ -4105,7 +4317,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="232" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="232" spans="1:3" ht="21">
       <c r="A232" s="6" t="s">
         <v>212</v>
       </c>
@@ -4116,7 +4328,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="233" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="233" spans="1:3" ht="21">
       <c r="A233" s="6" t="s">
         <v>212</v>
       </c>
@@ -4127,7 +4339,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="234" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="234" spans="1:3" ht="21">
       <c r="A234" s="6" t="s">
         <v>212</v>
       </c>
@@ -4138,7 +4350,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="235" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="235" spans="1:3" ht="21">
       <c r="A235" s="6" t="s">
         <v>212</v>
       </c>
@@ -4149,15 +4361,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="236" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="236" spans="1:3" ht="21">
       <c r="B236" s="8"/>
       <c r="C236" s="5"/>
     </row>
-    <row r="237" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="237" spans="1:3" ht="21">
       <c r="B237" s="8"/>
       <c r="C237" s="5"/>
     </row>
-    <row r="238" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="238" spans="1:3" ht="21">
       <c r="A238" s="6" t="s">
         <v>235</v>
       </c>
@@ -4168,7 +4380,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="239" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="239" spans="1:3" ht="21">
       <c r="A239" s="6" t="s">
         <v>235</v>
       </c>
@@ -4179,7 +4391,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="240" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="240" spans="1:3" ht="21">
       <c r="A240" s="6" t="s">
         <v>235</v>
       </c>
@@ -4190,7 +4402,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="241" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="241" spans="1:3" ht="21">
       <c r="A241" s="6" t="s">
         <v>235</v>
       </c>
@@ -4201,7 +4413,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="242" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="242" spans="1:3" ht="21">
       <c r="A242" s="6" t="s">
         <v>235</v>
       </c>
@@ -4212,7 +4424,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="243" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="243" spans="1:3" ht="21">
       <c r="A243" s="6" t="s">
         <v>235</v>
       </c>
@@ -4223,7 +4435,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="244" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="244" spans="1:3" ht="21">
       <c r="A244" s="6" t="s">
         <v>235</v>
       </c>
@@ -4234,7 +4446,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="245" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="245" spans="1:3" ht="21">
       <c r="A245" s="6" t="s">
         <v>235</v>
       </c>
@@ -4245,7 +4457,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="246" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="246" spans="1:3" ht="21">
       <c r="A246" s="6" t="s">
         <v>235</v>
       </c>
@@ -4256,7 +4468,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="247" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="247" spans="1:3" ht="21">
       <c r="A247" s="6" t="s">
         <v>235</v>
       </c>
@@ -4267,7 +4479,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="248" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="248" spans="1:3" ht="21">
       <c r="A248" s="6" t="s">
         <v>235</v>
       </c>
@@ -4278,7 +4490,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="249" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="249" spans="1:3" ht="21">
       <c r="A249" s="6" t="s">
         <v>235</v>
       </c>
@@ -4289,7 +4501,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="250" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="250" spans="1:3" ht="21">
       <c r="A250" s="6" t="s">
         <v>235</v>
       </c>
@@ -4300,7 +4512,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="251" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="251" spans="1:3" ht="21">
       <c r="A251" s="6" t="s">
         <v>235</v>
       </c>
@@ -4311,7 +4523,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="252" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="252" spans="1:3" ht="21">
       <c r="A252" s="6" t="s">
         <v>235</v>
       </c>
@@ -4322,7 +4534,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="253" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="253" spans="1:3" ht="21">
       <c r="A253" s="6" t="s">
         <v>235</v>
       </c>
@@ -4333,7 +4545,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="254" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="254" spans="1:3" ht="21">
       <c r="A254" s="6" t="s">
         <v>235</v>
       </c>
@@ -4344,7 +4556,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="255" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="255" spans="1:3" ht="21">
       <c r="A255" s="6" t="s">
         <v>235</v>
       </c>
@@ -4355,7 +4567,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="256" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="256" spans="1:3" ht="21">
       <c r="A256" s="6" t="s">
         <v>235</v>
       </c>
@@ -4366,7 +4578,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="257" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="257" spans="1:3" ht="21">
       <c r="A257" s="6" t="s">
         <v>235</v>
       </c>
@@ -4377,7 +4589,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="258" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="258" spans="1:3" ht="21">
       <c r="A258" s="6" t="s">
         <v>235</v>
       </c>
@@ -4388,7 +4600,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="259" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="259" spans="1:3" ht="21">
       <c r="A259" s="6" t="s">
         <v>235</v>
       </c>
@@ -4399,7 +4611,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="260" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="260" spans="1:3" ht="21">
       <c r="A260" s="6" t="s">
         <v>235</v>
       </c>
@@ -4410,7 +4622,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="261" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="261" spans="1:3" ht="21">
       <c r="A261" s="6" t="s">
         <v>235</v>
       </c>
@@ -4421,7 +4633,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="262" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="262" spans="1:3" ht="21">
       <c r="A262" s="6" t="s">
         <v>235</v>
       </c>
@@ -4432,7 +4644,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="263" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="263" spans="1:3" ht="21">
       <c r="A263" s="6" t="s">
         <v>235</v>
       </c>
@@ -4443,7 +4655,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="264" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="264" spans="1:3" ht="21">
       <c r="A264" s="6" t="s">
         <v>235</v>
       </c>
@@ -4454,7 +4666,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="265" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="265" spans="1:3" ht="21">
       <c r="A265" s="6" t="s">
         <v>235</v>
       </c>
@@ -4465,7 +4677,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="266" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="266" spans="1:3" ht="21">
       <c r="A266" s="6" t="s">
         <v>235</v>
       </c>
@@ -4476,7 +4688,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="267" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="267" spans="1:3" ht="21">
       <c r="A267" s="6" t="s">
         <v>235</v>
       </c>
@@ -4487,7 +4699,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="268" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="268" spans="1:3" ht="21">
       <c r="A268" s="6" t="s">
         <v>235</v>
       </c>
@@ -4498,7 +4710,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="269" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="269" spans="1:3" ht="21">
       <c r="A269" s="6" t="s">
         <v>235</v>
       </c>
@@ -4509,7 +4721,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="270" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="270" spans="1:3" ht="21">
       <c r="A270" s="6" t="s">
         <v>235</v>
       </c>
@@ -4520,7 +4732,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="271" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="271" spans="1:3" ht="21">
       <c r="A271" s="6" t="s">
         <v>235</v>
       </c>
@@ -4531,7 +4743,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="272" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="272" spans="1:3" ht="21">
       <c r="A272" s="6" t="s">
         <v>235</v>
       </c>
@@ -4542,15 +4754,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="273" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="273" spans="1:3" ht="21">
       <c r="B273" s="8"/>
       <c r="C273" s="5"/>
     </row>
-    <row r="274" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="274" spans="1:3" ht="21">
       <c r="B274" s="8"/>
       <c r="C274" s="5"/>
     </row>
-    <row r="275" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="275" spans="1:3" ht="21">
       <c r="A275" s="6" t="s">
         <v>270</v>
       </c>
@@ -4561,7 +4773,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="276" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="276" spans="1:3" ht="21">
       <c r="A276" s="6" t="s">
         <v>270</v>
       </c>
@@ -4572,7 +4784,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="277" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="277" spans="1:3" ht="21">
       <c r="A277" s="6" t="s">
         <v>270</v>
       </c>
@@ -4583,7 +4795,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="278" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="278" spans="1:3" ht="21">
       <c r="A278" s="6" t="s">
         <v>270</v>
       </c>
@@ -4594,7 +4806,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="279" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="279" spans="1:3" ht="21">
       <c r="A279" s="6" t="s">
         <v>270</v>
       </c>
@@ -4605,7 +4817,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="280" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="280" spans="1:3" ht="21">
       <c r="A280" s="6" t="s">
         <v>270</v>
       </c>
@@ -4616,7 +4828,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="281" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="281" spans="1:3" ht="21">
       <c r="A281" s="6" t="s">
         <v>270</v>
       </c>
@@ -4627,7 +4839,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="282" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="282" spans="1:3" ht="21">
       <c r="A282" s="6" t="s">
         <v>270</v>
       </c>
@@ -4638,7 +4850,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="283" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="283" spans="1:3" ht="21">
       <c r="A283" s="6" t="s">
         <v>270</v>
       </c>
@@ -4649,7 +4861,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="284" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="284" spans="1:3" ht="21">
       <c r="A284" s="6" t="s">
         <v>270</v>
       </c>
@@ -4660,7 +4872,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="285" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="285" spans="1:3" ht="21">
       <c r="A285" s="6" t="s">
         <v>270</v>
       </c>
@@ -4671,7 +4883,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="286" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="286" spans="1:3" ht="21">
       <c r="A286" s="6" t="s">
         <v>270</v>
       </c>
@@ -4682,7 +4894,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="287" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="287" spans="1:3" ht="21">
       <c r="A287" s="6" t="s">
         <v>270</v>
       </c>
@@ -4693,7 +4905,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="288" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="288" spans="1:3" ht="21">
       <c r="A288" s="6" t="s">
         <v>270</v>
       </c>
@@ -4704,7 +4916,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="289" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="289" spans="1:3" ht="21">
       <c r="A289" s="6" t="s">
         <v>270</v>
       </c>
@@ -4715,7 +4927,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="290" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="290" spans="1:3" ht="21">
       <c r="A290" s="6" t="s">
         <v>270</v>
       </c>
@@ -4726,7 +4938,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="291" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="291" spans="1:3" ht="21">
       <c r="A291" s="6" t="s">
         <v>270</v>
       </c>
@@ -4737,7 +4949,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="292" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="292" spans="1:3" ht="21">
       <c r="A292" s="6" t="s">
         <v>270</v>
       </c>
@@ -4748,7 +4960,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="293" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="293" spans="1:3" ht="21">
       <c r="A293" s="6" t="s">
         <v>270</v>
       </c>
@@ -4759,15 +4971,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="294" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="294" spans="1:3" ht="21">
       <c r="B294" s="8"/>
       <c r="C294" s="5"/>
     </row>
-    <row r="295" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="295" spans="1:3" ht="21">
       <c r="B295" s="8"/>
       <c r="C295" s="5"/>
     </row>
-    <row r="296" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="296" spans="1:3" ht="21">
       <c r="A296" s="6" t="s">
         <v>290</v>
       </c>
@@ -4778,7 +4990,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="297" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="297" spans="1:3" ht="21">
       <c r="A297" s="6" t="s">
         <v>290</v>
       </c>
@@ -4789,7 +5001,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="298" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="298" spans="1:3" ht="21">
       <c r="A298" s="6" t="s">
         <v>290</v>
       </c>
@@ -4800,7 +5012,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="299" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="299" spans="1:3" ht="21">
       <c r="A299" s="6" t="s">
         <v>290</v>
       </c>
@@ -4811,7 +5023,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="300" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="300" spans="1:3" ht="21">
       <c r="A300" s="6" t="s">
         <v>290</v>
       </c>
@@ -4822,7 +5034,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="301" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="301" spans="1:3" ht="21">
       <c r="A301" s="6" t="s">
         <v>290</v>
       </c>
@@ -4833,7 +5045,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="302" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="302" spans="1:3" ht="21">
       <c r="A302" s="6" t="s">
         <v>290</v>
       </c>
@@ -4844,7 +5056,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="303" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="303" spans="1:3" ht="21">
       <c r="A303" s="6" t="s">
         <v>290</v>
       </c>
@@ -4855,7 +5067,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="304" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="304" spans="1:3" ht="21">
       <c r="A304" s="6" t="s">
         <v>290</v>
       </c>
@@ -4866,7 +5078,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="305" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="305" spans="1:3" ht="21">
       <c r="A305" s="6" t="s">
         <v>290</v>
       </c>
@@ -4877,7 +5089,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="306" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="306" spans="1:3" ht="21">
       <c r="A306" s="6" t="s">
         <v>290</v>
       </c>
@@ -4888,7 +5100,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="307" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="307" spans="1:3" ht="21">
       <c r="A307" s="6" t="s">
         <v>290</v>
       </c>
@@ -4899,7 +5111,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="308" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="308" spans="1:3" ht="21">
       <c r="A308" s="6" t="s">
         <v>290</v>
       </c>
@@ -4910,7 +5122,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="309" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="309" spans="1:3" ht="21">
       <c r="A309" s="6" t="s">
         <v>290</v>
       </c>
@@ -4921,7 +5133,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="310" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="310" spans="1:3" ht="21">
       <c r="A310" s="6" t="s">
         <v>290</v>
       </c>
@@ -4932,7 +5144,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="311" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="311" spans="1:3" ht="21">
       <c r="A311" s="6" t="s">
         <v>290</v>
       </c>
@@ -4943,7 +5155,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="312" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="312" spans="1:3" ht="21">
       <c r="A312" s="6" t="s">
         <v>290</v>
       </c>
@@ -4954,7 +5166,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="313" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="313" spans="1:3" ht="21">
       <c r="A313" s="6" t="s">
         <v>290</v>
       </c>
@@ -4965,7 +5177,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="314" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="314" spans="1:3" ht="21">
       <c r="A314" s="6" t="s">
         <v>290</v>
       </c>
@@ -4976,7 +5188,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="315" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="315" spans="1:3" ht="21">
       <c r="A315" s="6" t="s">
         <v>290</v>
       </c>
@@ -4987,7 +5199,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="316" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="316" spans="1:3" ht="21">
       <c r="A316" s="6" t="s">
         <v>290</v>
       </c>
@@ -4998,7 +5210,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="317" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="317" spans="1:3" ht="21">
       <c r="A317" s="6" t="s">
         <v>290</v>
       </c>
@@ -5009,7 +5221,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="318" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="318" spans="1:3" ht="21">
       <c r="A318" s="6" t="s">
         <v>290</v>
       </c>
@@ -5020,7 +5232,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="319" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="319" spans="1:3" ht="21">
       <c r="A319" s="6" t="s">
         <v>290</v>
       </c>
@@ -5031,7 +5243,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="320" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="320" spans="1:3" ht="21">
       <c r="A320" s="6" t="s">
         <v>290</v>
       </c>
@@ -5042,7 +5254,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="321" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="321" spans="1:3" ht="21">
       <c r="A321" s="6" t="s">
         <v>290</v>
       </c>
@@ -5053,7 +5265,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="322" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="322" spans="1:3" ht="21">
       <c r="A322" s="6" t="s">
         <v>290</v>
       </c>
@@ -5064,7 +5276,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="323" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="323" spans="1:3" ht="21">
       <c r="A323" s="6" t="s">
         <v>290</v>
       </c>
@@ -5075,7 +5287,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="324" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="324" spans="1:3" ht="21">
       <c r="A324" s="6" t="s">
         <v>290</v>
       </c>
@@ -5086,7 +5298,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="325" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="325" spans="1:3" ht="21">
       <c r="A325" s="6" t="s">
         <v>290</v>
       </c>
@@ -5097,7 +5309,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="326" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="326" spans="1:3" ht="21">
       <c r="A326" s="6" t="s">
         <v>290</v>
       </c>
@@ -5108,7 +5320,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="327" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="327" spans="1:3" ht="21">
       <c r="A327" s="6" t="s">
         <v>290</v>
       </c>
@@ -5119,7 +5331,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="328" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="328" spans="1:3" ht="21">
       <c r="A328" s="6" t="s">
         <v>290</v>
       </c>
@@ -5130,7 +5342,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="329" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="329" spans="1:3" ht="21">
       <c r="A329" s="6" t="s">
         <v>290</v>
       </c>
@@ -5141,7 +5353,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="330" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="330" spans="1:3" ht="21">
       <c r="A330" s="6" t="s">
         <v>290</v>
       </c>
@@ -5152,7 +5364,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="331" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="331" spans="1:3" ht="21">
       <c r="A331" s="6" t="s">
         <v>290</v>
       </c>
@@ -5163,7 +5375,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="332" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="332" spans="1:3" ht="21">
       <c r="A332" s="6" t="s">
         <v>290</v>
       </c>
@@ -5174,7 +5386,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="333" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="333" spans="1:3" ht="21">
       <c r="A333" s="6" t="s">
         <v>290</v>
       </c>
@@ -5185,15 +5397,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="334" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="334" spans="1:3" ht="21">
       <c r="B334" s="8"/>
       <c r="C334" s="5"/>
     </row>
-    <row r="335" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="335" spans="1:3" ht="21">
       <c r="B335" s="8"/>
       <c r="C335" s="5"/>
     </row>
-    <row r="336" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="336" spans="1:3" ht="21">
       <c r="A336" s="6" t="s">
         <v>329</v>
       </c>
@@ -5204,7 +5416,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="337" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="337" spans="1:3" ht="21">
       <c r="A337" s="6" t="s">
         <v>329</v>
       </c>
@@ -5215,7 +5427,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="338" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="338" spans="1:3" ht="21">
       <c r="A338" s="6" t="s">
         <v>329</v>
       </c>
@@ -5226,7 +5438,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="339" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="339" spans="1:3" ht="21">
       <c r="A339" s="6" t="s">
         <v>329</v>
       </c>
@@ -5237,7 +5449,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="340" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="340" spans="1:3" ht="21">
       <c r="A340" s="6" t="s">
         <v>329</v>
       </c>
@@ -5248,7 +5460,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="341" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="341" spans="1:3" ht="21">
       <c r="A341" s="6" t="s">
         <v>329</v>
       </c>
@@ -5259,7 +5471,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="342" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="342" spans="1:3" ht="21">
       <c r="A342" s="6" t="s">
         <v>329</v>
       </c>
@@ -5270,7 +5482,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="343" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="343" spans="1:3" ht="21">
       <c r="A343" s="6" t="s">
         <v>329</v>
       </c>
@@ -5281,7 +5493,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="344" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="344" spans="1:3" ht="21">
       <c r="A344" s="6" t="s">
         <v>329</v>
       </c>
@@ -5292,7 +5504,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="345" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="345" spans="1:3" ht="21">
       <c r="A345" s="6" t="s">
         <v>329</v>
       </c>
@@ -5303,7 +5515,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="346" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="346" spans="1:3" ht="21">
       <c r="A346" s="6" t="s">
         <v>329</v>
       </c>
@@ -5314,7 +5526,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="347" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="347" spans="1:3" ht="21">
       <c r="A347" s="6" t="s">
         <v>329</v>
       </c>
@@ -5325,7 +5537,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="348" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="348" spans="1:3" ht="21">
       <c r="A348" s="6" t="s">
         <v>329</v>
       </c>
@@ -5336,7 +5548,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="349" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="349" spans="1:3" ht="21">
       <c r="A349" s="6" t="s">
         <v>329</v>
       </c>
@@ -5347,7 +5559,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="350" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="350" spans="1:3" ht="21">
       <c r="A350" s="6" t="s">
         <v>329</v>
       </c>
@@ -5358,7 +5570,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="351" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="351" spans="1:3" ht="21">
       <c r="A351" s="6" t="s">
         <v>329</v>
       </c>
@@ -5369,7 +5581,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="352" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="352" spans="1:3" ht="21">
       <c r="A352" s="6" t="s">
         <v>329</v>
       </c>
@@ -5380,7 +5592,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="353" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="353" spans="1:3" ht="21">
       <c r="A353" s="6" t="s">
         <v>329</v>
       </c>
@@ -5391,15 +5603,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="354" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="354" spans="1:3" ht="21">
       <c r="B354" s="8"/>
       <c r="C354" s="5"/>
     </row>
-    <row r="355" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="355" spans="1:3" ht="21">
       <c r="B355" s="8"/>
       <c r="C355" s="5"/>
     </row>
-    <row r="356" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="356" spans="1:3" ht="21">
       <c r="A356" s="6" t="s">
         <v>348</v>
       </c>
@@ -5410,7 +5622,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="357" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="357" spans="1:3" ht="21">
       <c r="A357" s="6" t="s">
         <v>348</v>
       </c>
@@ -5421,7 +5633,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="358" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="358" spans="1:3" ht="21">
       <c r="A358" s="6" t="s">
         <v>348</v>
       </c>
@@ -5432,7 +5644,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="359" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="359" spans="1:3" ht="21">
       <c r="A359" s="6" t="s">
         <v>348</v>
       </c>
@@ -5443,7 +5655,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="360" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="360" spans="1:3" ht="21">
       <c r="A360" s="6" t="s">
         <v>348</v>
       </c>
@@ -5454,7 +5666,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="361" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="361" spans="1:3" ht="21">
       <c r="A361" s="6" t="s">
         <v>348</v>
       </c>
@@ -5465,7 +5677,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="362" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="362" spans="1:3" ht="21">
       <c r="A362" s="6" t="s">
         <v>348</v>
       </c>
@@ -5476,7 +5688,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="363" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="363" spans="1:3" ht="21">
       <c r="A363" s="6" t="s">
         <v>348</v>
       </c>
@@ -5487,7 +5699,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="364" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="364" spans="1:3" ht="21">
       <c r="A364" s="6" t="s">
         <v>348</v>
       </c>
@@ -5498,7 +5710,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="365" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="365" spans="1:3" ht="21">
       <c r="A365" s="6" t="s">
         <v>348</v>
       </c>
@@ -5509,7 +5721,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="366" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="366" spans="1:3" ht="21">
       <c r="A366" s="6" t="s">
         <v>348</v>
       </c>
@@ -5520,7 +5732,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="367" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="367" spans="1:3" ht="21">
       <c r="A367" s="6" t="s">
         <v>348</v>
       </c>
@@ -5531,7 +5743,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="368" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="368" spans="1:3" ht="21">
       <c r="A368" s="6" t="s">
         <v>348</v>
       </c>
@@ -5542,7 +5754,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="369" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="369" spans="1:3" ht="21">
       <c r="A369" s="6" t="s">
         <v>348</v>
       </c>
@@ -5553,7 +5765,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="370" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="370" spans="1:3" ht="21">
       <c r="A370" s="6" t="s">
         <v>348</v>
       </c>
@@ -5564,7 +5776,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="371" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="371" spans="1:3" ht="21">
       <c r="A371" s="6" t="s">
         <v>348</v>
       </c>
@@ -5575,7 +5787,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="372" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="372" spans="1:3" ht="21">
       <c r="A372" s="6" t="s">
         <v>348</v>
       </c>
@@ -5586,7 +5798,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="373" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="373" spans="1:3" ht="21">
       <c r="A373" s="6" t="s">
         <v>348</v>
       </c>
@@ -5597,7 +5809,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="374" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="374" spans="1:3" ht="21">
       <c r="A374" s="6" t="s">
         <v>348</v>
       </c>
@@ -5608,7 +5820,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="375" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="375" spans="1:3" ht="21">
       <c r="A375" s="6" t="s">
         <v>348</v>
       </c>
@@ -5619,7 +5831,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="376" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="376" spans="1:3" ht="21">
       <c r="A376" s="6" t="s">
         <v>348</v>
       </c>
@@ -5630,7 +5842,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="377" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="377" spans="1:3" ht="21">
       <c r="A377" s="6" t="s">
         <v>348</v>
       </c>
@@ -5641,7 +5853,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="378" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="378" spans="1:3" ht="21">
       <c r="A378" s="6" t="s">
         <v>348</v>
       </c>
@@ -5652,7 +5864,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="379" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="379" spans="1:3" ht="21">
       <c r="A379" s="6" t="s">
         <v>348</v>
       </c>
@@ -5663,7 +5875,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="380" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="380" spans="1:3" ht="21">
       <c r="A380" s="6" t="s">
         <v>348</v>
       </c>
@@ -5674,7 +5886,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="381" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="381" spans="1:3" ht="21">
       <c r="A381" s="6" t="s">
         <v>348</v>
       </c>
@@ -5685,7 +5897,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="382" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="382" spans="1:3" ht="21">
       <c r="A382" s="6" t="s">
         <v>348</v>
       </c>
@@ -5696,7 +5908,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="383" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="383" spans="1:3" ht="21">
       <c r="A383" s="6" t="s">
         <v>348</v>
       </c>
@@ -5707,7 +5919,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="384" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="384" spans="1:3" ht="21">
       <c r="A384" s="6" t="s">
         <v>348</v>
       </c>
@@ -5718,7 +5930,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="385" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="385" spans="1:3" ht="21">
       <c r="A385" s="6" t="s">
         <v>348</v>
       </c>
@@ -5729,7 +5941,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="386" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="386" spans="1:3" ht="21">
       <c r="A386" s="6" t="s">
         <v>348</v>
       </c>
@@ -5740,7 +5952,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="387" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="387" spans="1:3" ht="21">
       <c r="A387" s="6" t="s">
         <v>348</v>
       </c>
@@ -5751,7 +5963,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="388" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="388" spans="1:3" ht="21">
       <c r="A388" s="6" t="s">
         <v>348</v>
       </c>
@@ -5762,7 +5974,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="389" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="389" spans="1:3" ht="21">
       <c r="A389" s="6" t="s">
         <v>348</v>
       </c>
@@ -5773,7 +5985,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="390" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="390" spans="1:3" ht="21">
       <c r="A390" s="6" t="s">
         <v>348</v>
       </c>
@@ -5784,7 +5996,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="391" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="391" spans="1:3" ht="21">
       <c r="A391" s="6" t="s">
         <v>348</v>
       </c>
@@ -5795,7 +6007,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="392" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="392" spans="1:3" ht="21">
       <c r="A392" s="6" t="s">
         <v>348</v>
       </c>
@@ -5806,7 +6018,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="393" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="393" spans="1:3" ht="21">
       <c r="A393" s="6" t="s">
         <v>348</v>
       </c>
@@ -5817,7 +6029,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="394" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="394" spans="1:3" ht="21">
       <c r="A394" s="6" t="s">
         <v>348</v>
       </c>
@@ -5828,7 +6040,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="395" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="395" spans="1:3" ht="21">
       <c r="A395" s="6" t="s">
         <v>348</v>
       </c>
@@ -5839,7 +6051,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="396" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="396" spans="1:3" ht="21">
       <c r="A396" s="6" t="s">
         <v>348</v>
       </c>
@@ -5850,7 +6062,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="397" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="397" spans="1:3" ht="21">
       <c r="A397" s="6" t="s">
         <v>348</v>
       </c>
@@ -5861,7 +6073,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="398" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="398" spans="1:3" ht="21">
       <c r="A398" s="6" t="s">
         <v>348</v>
       </c>
@@ -5872,7 +6084,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="399" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="399" spans="1:3" ht="21">
       <c r="A399" s="6" t="s">
         <v>348</v>
       </c>
@@ -5883,15 +6095,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="400" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="400" spans="1:3" ht="21">
       <c r="B400" s="8"/>
       <c r="C400" s="5"/>
     </row>
-    <row r="401" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="401" spans="1:3" ht="21">
       <c r="B401" s="8"/>
       <c r="C401" s="5"/>
     </row>
-    <row r="402" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="402" spans="1:3" ht="21">
       <c r="A402" s="6" t="s">
         <v>392</v>
       </c>
@@ -5902,7 +6114,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="403" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="403" spans="1:3" ht="21">
       <c r="A403" s="6" t="s">
         <v>392</v>
       </c>
@@ -5913,7 +6125,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="404" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="404" spans="1:3" ht="21">
       <c r="A404" s="6" t="s">
         <v>392</v>
       </c>
@@ -5924,7 +6136,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="405" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="405" spans="1:3" ht="21">
       <c r="A405" s="6" t="s">
         <v>392</v>
       </c>
@@ -5935,7 +6147,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="406" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="406" spans="1:3" ht="21">
       <c r="A406" s="6" t="s">
         <v>392</v>
       </c>
@@ -5946,7 +6158,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="407" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="407" spans="1:3" ht="21">
       <c r="A407" s="6" t="s">
         <v>392</v>
       </c>
@@ -5957,15 +6169,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="408" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="408" spans="1:3" ht="21">
       <c r="B408" s="8"/>
       <c r="C408" s="5"/>
     </row>
-    <row r="409" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="409" spans="1:3" ht="21">
       <c r="B409" s="8"/>
       <c r="C409" s="5"/>
     </row>
-    <row r="410" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="410" spans="1:3" ht="21">
       <c r="A410" s="6" t="s">
         <v>398</v>
       </c>
@@ -5976,7 +6188,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="411" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="411" spans="1:3" ht="21">
       <c r="A411" s="6" t="s">
         <v>398</v>
       </c>
@@ -5987,7 +6199,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="412" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="412" spans="1:3" ht="21">
       <c r="A412" s="6" t="s">
         <v>398</v>
       </c>
@@ -5998,7 +6210,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="413" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="413" spans="1:3" ht="21">
       <c r="A413" s="6" t="s">
         <v>398</v>
       </c>
@@ -6009,7 +6221,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="414" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="414" spans="1:3" ht="21">
       <c r="A414" s="6" t="s">
         <v>398</v>
       </c>
@@ -6020,7 +6232,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="415" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="415" spans="1:3" ht="21">
       <c r="A415" s="6" t="s">
         <v>398</v>
       </c>
@@ -6031,7 +6243,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="416" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="416" spans="1:3" ht="21">
       <c r="A416" s="6" t="s">
         <v>398</v>
       </c>
@@ -6042,7 +6254,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="417" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="417" spans="1:3" ht="21">
       <c r="A417" s="6" t="s">
         <v>398</v>
       </c>
@@ -6053,7 +6265,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="418" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="418" spans="1:3" ht="21">
       <c r="A418" s="6" t="s">
         <v>398</v>
       </c>
@@ -6064,7 +6276,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="419" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="419" spans="1:3" ht="21">
       <c r="A419" s="6" t="s">
         <v>398</v>
       </c>
@@ -6075,7 +6287,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="420" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="420" spans="1:3" ht="21">
       <c r="A420" s="6" t="s">
         <v>398</v>
       </c>
@@ -6086,7 +6298,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="421" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="421" spans="1:3" ht="21">
       <c r="A421" s="6" t="s">
         <v>398</v>
       </c>
@@ -6097,7 +6309,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="422" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="422" spans="1:3" ht="21">
       <c r="A422" s="6" t="s">
         <v>398</v>
       </c>
@@ -6108,7 +6320,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="423" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="423" spans="1:3" ht="21">
       <c r="A423" s="6" t="s">
         <v>398</v>
       </c>
@@ -6119,7 +6331,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="424" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="424" spans="1:3" ht="21">
       <c r="A424" s="6" t="s">
         <v>398</v>
       </c>
@@ -6130,7 +6342,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="425" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="425" spans="1:3" ht="21">
       <c r="A425" s="6" t="s">
         <v>398</v>
       </c>
@@ -6141,7 +6353,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="426" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="426" spans="1:3" ht="21">
       <c r="A426" s="6" t="s">
         <v>398</v>
       </c>
@@ -6152,7 +6364,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="427" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="427" spans="1:3" ht="21">
       <c r="A427" s="6" t="s">
         <v>398</v>
       </c>
@@ -6163,7 +6375,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="428" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="428" spans="1:3" ht="21">
       <c r="A428" s="6" t="s">
         <v>398</v>
       </c>
@@ -6174,7 +6386,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="429" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="429" spans="1:3" ht="21">
       <c r="A429" s="6" t="s">
         <v>398</v>
       </c>
@@ -6185,7 +6397,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="430" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="430" spans="1:3" ht="21">
       <c r="A430" s="6" t="s">
         <v>398</v>
       </c>
@@ -6196,7 +6408,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="431" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="431" spans="1:3" ht="21">
       <c r="A431" s="6" t="s">
         <v>398</v>
       </c>
@@ -6207,7 +6419,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="432" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="432" spans="1:3" ht="21">
       <c r="A432" s="6" t="s">
         <v>398</v>
       </c>
@@ -6218,7 +6430,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="433" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="433" spans="1:3" ht="21">
       <c r="A433" s="6" t="s">
         <v>398</v>
       </c>
@@ -6229,7 +6441,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="434" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="434" spans="1:3" ht="21">
       <c r="A434" s="6" t="s">
         <v>398</v>
       </c>
@@ -6240,7 +6452,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="435" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="435" spans="1:3" ht="21">
       <c r="A435" s="6" t="s">
         <v>398</v>
       </c>
@@ -6251,7 +6463,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="436" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="436" spans="1:3" ht="21">
       <c r="A436" s="6" t="s">
         <v>398</v>
       </c>
@@ -6262,7 +6474,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="437" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="437" spans="1:3" ht="21">
       <c r="A437" s="6" t="s">
         <v>398</v>
       </c>
@@ -6273,7 +6485,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="438" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="438" spans="1:3" ht="21">
       <c r="A438" s="6" t="s">
         <v>398</v>
       </c>
@@ -6284,7 +6496,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="439" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="439" spans="1:3" ht="21">
       <c r="A439" s="6" t="s">
         <v>398</v>
       </c>
@@ -6295,7 +6507,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="440" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="440" spans="1:3" ht="21">
       <c r="A440" s="6" t="s">
         <v>398</v>
       </c>
@@ -6306,7 +6518,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="441" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="441" spans="1:3" ht="21">
       <c r="A441" s="6" t="s">
         <v>398</v>
       </c>
@@ -6317,7 +6529,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="442" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="442" spans="1:3" ht="21">
       <c r="A442" s="6" t="s">
         <v>398</v>
       </c>
@@ -6328,7 +6540,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="443" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="443" spans="1:3" ht="21">
       <c r="A443" s="6" t="s">
         <v>398</v>
       </c>
@@ -6339,7 +6551,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="444" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="444" spans="1:3" ht="21">
       <c r="A444" s="6" t="s">
         <v>398</v>
       </c>
@@ -6350,7 +6562,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="445" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="445" spans="1:3" ht="21">
       <c r="A445" s="6" t="s">
         <v>398</v>
       </c>
@@ -6361,7 +6573,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="446" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="446" spans="1:3" ht="21">
       <c r="A446" s="6" t="s">
         <v>398</v>
       </c>
@@ -6372,7 +6584,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="447" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="447" spans="1:3" ht="21">
       <c r="A447" s="6" t="s">
         <v>398</v>
       </c>
@@ -6383,7 +6595,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="448" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="448" spans="1:3" ht="21">
       <c r="A448" s="6" t="s">
         <v>398</v>
       </c>
@@ -6394,7 +6606,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="449" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="449" spans="1:3" ht="21">
       <c r="A449" s="6" t="s">
         <v>398</v>
       </c>
@@ -6405,7 +6617,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="450" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="450" spans="1:3" ht="21">
       <c r="A450" s="6" t="s">
         <v>398</v>
       </c>
@@ -6416,7 +6628,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="451" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="451" spans="1:3" ht="21">
       <c r="A451" s="6" t="s">
         <v>398</v>
       </c>
@@ -6427,7 +6639,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="452" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="452" spans="1:3" ht="21">
       <c r="A452" s="6" t="s">
         <v>398</v>
       </c>
@@ -6438,7 +6650,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="453" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="453" spans="1:3" ht="21">
       <c r="A453" s="6" t="s">
         <v>398</v>
       </c>
@@ -6449,7 +6661,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="454" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="454" spans="1:3" ht="21">
       <c r="A454" s="6" t="s">
         <v>398</v>
       </c>
@@ -6460,7 +6672,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="455" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="455" spans="1:3" ht="21">
       <c r="A455" s="6" t="s">
         <v>398</v>
       </c>
@@ -6471,7 +6683,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="456" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="456" spans="1:3" ht="21">
       <c r="A456" s="6" t="s">
         <v>398</v>
       </c>
@@ -6482,7 +6694,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="457" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="457" spans="1:3" ht="21">
       <c r="A457" s="6" t="s">
         <v>398</v>
       </c>
@@ -6493,7 +6705,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="458" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="458" spans="1:3" ht="21">
       <c r="A458" s="6" t="s">
         <v>398</v>
       </c>
@@ -6504,7 +6716,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="459" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="459" spans="1:3" ht="21">
       <c r="A459" s="6" t="s">
         <v>398</v>
       </c>
@@ -6515,7 +6727,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="460" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="460" spans="1:3" ht="21">
       <c r="A460" s="6" t="s">
         <v>398</v>
       </c>
@@ -6526,7 +6738,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="461" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="461" spans="1:3" ht="21">
       <c r="A461" s="6" t="s">
         <v>398</v>
       </c>
@@ -6537,7 +6749,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="462" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="462" spans="1:3" ht="21">
       <c r="A462" s="6" t="s">
         <v>398</v>
       </c>
@@ -6548,7 +6760,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="463" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="463" spans="1:3" ht="21">
       <c r="A463" s="6" t="s">
         <v>398</v>
       </c>
@@ -6559,7 +6771,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="464" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="464" spans="1:3" ht="21">
       <c r="A464" s="6" t="s">
         <v>398</v>
       </c>
@@ -6570,7 +6782,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="465" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="465" spans="1:3" ht="21">
       <c r="A465" s="6" t="s">
         <v>398</v>
       </c>
@@ -6581,7 +6793,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="466" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="466" spans="1:3" ht="21">
       <c r="A466" s="6" t="s">
         <v>398</v>
       </c>
@@ -6592,7 +6804,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="467" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="467" spans="1:3" ht="21">
       <c r="A467" s="6" t="s">
         <v>398</v>
       </c>
@@ -6603,7 +6815,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="468" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="468" spans="1:3" ht="21">
       <c r="A468" s="6" t="s">
         <v>398</v>
       </c>
@@ -6614,7 +6826,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="469" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="469" spans="1:3" ht="21">
       <c r="A469" s="6" t="s">
         <v>398</v>
       </c>
@@ -6625,16 +6837,16 @@
         <v>25</v>
       </c>
     </row>
-    <row r="470" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="470" spans="1:3" ht="21">
       <c r="B470" s="8"/>
       <c r="C470" s="5"/>
     </row>
-    <row r="471" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="471" spans="1:3" ht="21">
       <c r="A471" s="6"/>
       <c r="B471" s="8"/>
       <c r="C471" s="5"/>
     </row>
-    <row r="472" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="472" spans="1:3" ht="21">
       <c r="A472" s="6" t="s">
         <v>458</v>
       </c>
@@ -6645,7 +6857,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="473" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="473" spans="1:3" ht="21">
       <c r="A473" s="6" t="s">
         <v>458</v>
       </c>
@@ -6656,7 +6868,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="474" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="474" spans="1:3" ht="21">
       <c r="A474" s="6" t="s">
         <v>458</v>
       </c>
@@ -6667,7 +6879,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="475" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="475" spans="1:3" ht="21">
       <c r="A475" s="6" t="s">
         <v>458</v>
       </c>
@@ -6678,7 +6890,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="476" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="476" spans="1:3" ht="21">
       <c r="A476" s="6" t="s">
         <v>458</v>
       </c>
@@ -6689,7 +6901,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="477" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="477" spans="1:3" ht="21">
       <c r="A477" s="6" t="s">
         <v>458</v>
       </c>
@@ -6700,7 +6912,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="478" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="478" spans="1:3" ht="21">
       <c r="A478" s="6" t="s">
         <v>458</v>
       </c>
@@ -6711,7 +6923,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="479" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="479" spans="1:3" ht="21">
       <c r="A479" s="6" t="s">
         <v>458</v>
       </c>
@@ -6722,7 +6934,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="480" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="480" spans="1:3" ht="21">
       <c r="A480" s="6" t="s">
         <v>458</v>
       </c>
@@ -6733,7 +6945,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="481" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="481" spans="1:3" ht="21">
       <c r="A481" s="6" t="s">
         <v>458</v>
       </c>
@@ -6746,459 +6958,454 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="Youtube Channel: https://www.youtube.com/channel/UCQHLxxBFrbfdrk1jF0moTpw "/>
-    <hyperlink ref="B6" r:id="rId2" display="Reverse the array"/>
-    <hyperlink ref="B7" r:id="rId3" display="Find the maximum and minimum element in an array"/>
-    <hyperlink ref="B8" r:id="rId4" display="Find the &quot;Kth&quot; max and min element of an array "/>
-    <hyperlink ref="B9" r:id="rId5" display="Given an array which consists of only 0, 1 and 2. Sort the array without using any sorting algo"/>
-    <hyperlink ref="B10" r:id="rId6" display="Move all the negative elements to one side of the array "/>
-    <hyperlink ref="B11" r:id="rId7" display="Find the Union and Intersection of the two sorted arrays."/>
-    <hyperlink ref="B12" r:id="rId8" display="Write a program to cyclically rotate an array by one."/>
-    <hyperlink ref="B13" r:id="rId9" display="find Largest sum contiguous Subarray [V. IMP]"/>
-    <hyperlink ref="B14" r:id="rId10" display="Minimise the maximum difference between heights [V.IMP]"/>
-    <hyperlink ref="B15" r:id="rId11" display="Minimum no. of Jumps to reach end of an array"/>
-    <hyperlink ref="B16" r:id="rId12" display="find duplicate in an array of N+1 Integers"/>
-    <hyperlink ref="B17" r:id="rId13" display="Merge 2 sorted arrays without using Extra space."/>
-    <hyperlink ref="B18" r:id="rId14" display="Kadane's Algo [V.V.V.V.V IMP]"/>
-    <hyperlink ref="B19" r:id="rId15" display="Merge Intervals"/>
-    <hyperlink ref="B20" r:id="rId16" display="Next Permutation"/>
-    <hyperlink ref="B21" r:id="rId17" display="Count Inversion"/>
-    <hyperlink ref="B22" r:id="rId18" display="Best time to buy and Sell stock"/>
-    <hyperlink ref="B23" r:id="rId19" display="find all pairs on integer array whose sum is equal to given number"/>
-    <hyperlink ref="B24" r:id="rId20" display="find common elements In 3 sorted arrays"/>
-    <hyperlink ref="B25" r:id="rId21" display="Rearrange the array in alternating positive and negative items with O(1) extra space"/>
-    <hyperlink ref="B26" r:id="rId22" display="Find if there is any subarray with sum equal to 0"/>
-    <hyperlink ref="B27" r:id="rId23" display="Find factorial of a large number"/>
-    <hyperlink ref="B28" r:id="rId24" display="find maximum product subarray "/>
-    <hyperlink ref="B29" r:id="rId25" display="Find longest coinsecutive subsequence"/>
-    <hyperlink ref="B30" r:id="rId26" display="Given an array of size n and a number k, fin all elements that appear more than &quot; n/k &quot; times."/>
-    <hyperlink ref="B31" r:id="rId27" display="Maximum profit by buying and selling a share atmost twice"/>
-    <hyperlink ref="B32" r:id="rId28" display="Find whether an array is a subset of another array"/>
-    <hyperlink ref="B33" r:id="rId29" display="Find the triplet that sum to a given value"/>
-    <hyperlink ref="B34" r:id="rId30" display="Trapping Rain water problem"/>
-    <hyperlink ref="B35" r:id="rId31" display="Chocolate Distribution problem"/>
-    <hyperlink ref="B36" r:id="rId32" display="Smallest Subarray with sum greater than a given value"/>
-    <hyperlink ref="B37" r:id="rId33" display="Three way partitioning of an array around a given value"/>
-    <hyperlink ref="B38" r:id="rId34" display="Minimum swaps required bring elements less equal K together"/>
-    <hyperlink ref="B39" r:id="rId35" display="Minimum no. of operations required to make an array palindrome"/>
-    <hyperlink ref="B40" r:id="rId36" display="Median of 2 sorted arrays of equal size"/>
-    <hyperlink ref="B41" r:id="rId37" display="Median of 2 sorted arrays of different size"/>
-    <hyperlink ref="B44" r:id="rId38" display="Spiral traversal on a Matrix"/>
-    <hyperlink ref="B45" r:id="rId39" display="Search an element in a matriix"/>
-    <hyperlink ref="B46" r:id="rId40" display="Find median in a row wise sorted matrix"/>
-    <hyperlink ref="B47" r:id="rId41" display="Find row with maximum no. of 1's"/>
-    <hyperlink ref="B48" r:id="rId42" display="Print elements in sorted order using row-column wise sorted matrix"/>
-    <hyperlink ref="B49" r:id="rId43" display="Maximum size rectangle"/>
-    <hyperlink ref="B50" r:id="rId44" display="Find a specific pair in matrix"/>
-    <hyperlink ref="B51" r:id="rId45" display="Rotate matrix by 90 degrees"/>
-    <hyperlink ref="B52" r:id="rId46" display="Kth smallest element in a row-cpumn wise sorted matrix"/>
-    <hyperlink ref="B53" r:id="rId47" display="Common elements in all rows of a given matrix"/>
-    <hyperlink ref="B56" r:id="rId48" display="Reverse a String"/>
-    <hyperlink ref="B57" r:id="rId49" display="Check whether a String is Palindrome or not"/>
-    <hyperlink ref="B58" r:id="rId50" display="Find Duplicate characters in a string"/>
-    <hyperlink ref="B60" r:id="rId51" display="Write a Code to check whether one string is a rotation of another"/>
-    <hyperlink ref="B61" r:id="rId52" display="Write a Program to check whether a string is a valid shuffle of two strings or not"/>
-    <hyperlink ref="B62" r:id="rId53" display="Count and Say problem"/>
-    <hyperlink ref="B63" r:id="rId54" display="Write a program to find the longest Palindrome in a string.[ Longest palindromic Substring]"/>
-    <hyperlink ref="B64" r:id="rId55" display="Find Longest Recurring Subsequence in String"/>
-    <hyperlink ref="B65" r:id="rId56" display="Print all Subsequences of a string."/>
-    <hyperlink ref="B66" r:id="rId57" display="Print all the permutations of the given string"/>
-    <hyperlink ref="B67" r:id="rId58" display="Split the Binary string into two substring with equal 0’s and 1’s"/>
-    <hyperlink ref="B68" r:id="rId59" display="Word Wrap Problem [VERY IMP]."/>
-    <hyperlink ref="B69" r:id="rId60" display="EDIT Distance [Very Imp]"/>
-    <hyperlink ref="B70" r:id="rId61" display="Find next greater number with same set of digits. [Very Very IMP]"/>
-    <hyperlink ref="B71" r:id="rId62" display="Balanced Parenthesis problem.[Imp]"/>
-    <hyperlink ref="B72" r:id="rId63" display="Word break Problem[ Very Imp]"/>
-    <hyperlink ref="B73" r:id="rId64" display="Rabin Karp Algo"/>
-    <hyperlink ref="B74" r:id="rId65" display="KMP Algo"/>
-    <hyperlink ref="B75" r:id="rId66" display="Convert a Sentence into its equivalent mobile numeric keypad sequence."/>
-    <hyperlink ref="B76" r:id="rId67" display="Minimum number of bracket reversals needed to make an expression balanced."/>
-    <hyperlink ref="B77" r:id="rId68" display="Count All Palindromic Subsequence in a given String."/>
-    <hyperlink ref="B78" r:id="rId69" display="Count of number of given string in 2D character array"/>
-    <hyperlink ref="B79" r:id="rId70" display="Search a Word in a 2D Grid of characters."/>
-    <hyperlink ref="B80" r:id="rId71" display="Boyer Moore Algorithm for Pattern Searching."/>
-    <hyperlink ref="B81" r:id="rId72" display="Converting Roman Numerals to Decimal"/>
-    <hyperlink ref="B82" r:id="rId73" display="Longest Common Prefix"/>
-    <hyperlink ref="B83" r:id="rId74" display="Number of flips to make binary string alternate"/>
-    <hyperlink ref="B84" r:id="rId75" display="Find the first repeated word in string."/>
-    <hyperlink ref="B85" r:id="rId76" display="Minimum number of swaps for bracket balancing."/>
-    <hyperlink ref="B86" r:id="rId77" display="Find the longest common subsequence between two strings."/>
-    <hyperlink ref="B87" r:id="rId78" display="Program to generate all possible valid IP addresses from given  string."/>
-    <hyperlink ref="B88" r:id="rId79" display="Write a program tofind the smallest window that contains all characters of string itself."/>
-    <hyperlink ref="B89" r:id="rId80" display="Rearrange characters in a string such that no two adjacent are same"/>
-    <hyperlink ref="B90" r:id="rId81" display="Minimum characters to be added at front to make string palindrome"/>
-    <hyperlink ref="B91" r:id="rId82" display="Given a sequence of words, print all anagrams together"/>
-    <hyperlink ref="B92" r:id="rId83" display="Find the smallest window in a string containing all characters of another string"/>
-    <hyperlink ref="B93" r:id="rId84" display="Recursively remove all adjacent duplicates"/>
-    <hyperlink ref="B94" r:id="rId85" display="String matching where one string contains wildcard characters"/>
-    <hyperlink ref="B95" r:id="rId86" display="Function to find Number of customers who could not get a computer"/>
-    <hyperlink ref="B96" r:id="rId87" display="Transform One String to Another using Minimum Number of Given Operation"/>
-    <hyperlink ref="B97" r:id="rId88" display="Check if two given strings are isomorphic to each other"/>
-    <hyperlink ref="B98" r:id="rId89" display="Recursively print all sentences that can be formed from list of word lists"/>
-    <hyperlink ref="B101" r:id="rId90" display="Find first and last positions of an element in a sorted array"/>
-    <hyperlink ref="B102" r:id="rId91" display="Find a Fixed Point (Value equal to index) in a given array"/>
-    <hyperlink ref="B103" r:id="rId92" display="Search in a rotated sorted array"/>
-    <hyperlink ref="B104" r:id="rId93" display="square root of an integer"/>
-    <hyperlink ref="B105" r:id="rId94" display="Maximum and minimum of an array using minimum number of comparisons"/>
-    <hyperlink ref="B106" r:id="rId95" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance." display="Optimum location of point to minimize total distance"/>
-    <hyperlink ref="B107" r:id="rId96" display="Find the repeating and the missing"/>
-    <hyperlink ref="B108" r:id="rId97" display="find majority element"/>
-    <hyperlink ref="B109" r:id="rId98" display="Searching in an array where adjacent differ by at most k"/>
-    <hyperlink ref="B110" r:id="rId99" display="find a pair with a given difference"/>
-    <hyperlink ref="B111" r:id="rId100" display="find four elements that sum to a given value"/>
-    <hyperlink ref="B112" r:id="rId101" display="maximum sum such that no 2 elements are adjacent"/>
-    <hyperlink ref="B113" r:id="rId102" display="Count triplet with sum smaller than a given value"/>
-    <hyperlink ref="B114" r:id="rId103" display="merge 2 sorted arrays"/>
-    <hyperlink ref="B115" r:id="rId104" display="print all subarrays with 0 sum"/>
-    <hyperlink ref="B116" r:id="rId105" display="Product array Puzzle"/>
-    <hyperlink ref="B117" r:id="rId106" display="Sort array according to count of set bits"/>
-    <hyperlink ref="B118" r:id="rId107" display="minimum no. of swaps required to sort the array"/>
-    <hyperlink ref="B119" r:id="rId108" display="Bishu and Soldiers"/>
-    <hyperlink ref="B120" r:id="rId109" display="Rasta and Kheshtak"/>
-    <hyperlink ref="B121" r:id="rId110" display="Kth smallest number again"/>
-    <hyperlink ref="B122" r:id="rId111" display="Find pivot element in a sorted array"/>
-    <hyperlink ref="B123" r:id="rId112" display="K-th Element of Two Sorted Arrays"/>
-    <hyperlink ref="B124" r:id="rId113" display="Aggressive cows"/>
-    <hyperlink ref="B125" r:id="rId114" display="Book Allocation Problem"/>
-    <hyperlink ref="B126" r:id="rId115" display="EKOSPOJ:"/>
-    <hyperlink ref="B127" r:id="rId116" display="Job Scheduling Algo"/>
-    <hyperlink ref="B128" r:id="rId117" display="Missing Number in AP"/>
-    <hyperlink ref="B129" r:id="rId118" display="Smallest number with atleastn trailing zeroes infactorial"/>
-    <hyperlink ref="B130" r:id="rId119" display="Painters Partition Problem:"/>
-    <hyperlink ref="B131" r:id="rId120" display="ROTI-Prata SPOJ"/>
-    <hyperlink ref="B132" r:id="rId121" display="DoubleHelix SPOJ"/>
-    <hyperlink ref="B133" r:id="rId122" display="Subset Sums"/>
-    <hyperlink ref="B134" r:id="rId123" display="Findthe inversion count"/>
-    <hyperlink ref="B135" r:id="rId124" display="Implement Merge-sort in-place"/>
-    <hyperlink ref="B136" r:id="rId125" display="Partitioning and Sorting Arrays with Many Repeated Entries"/>
-    <hyperlink ref="B139" r:id="rId126" display="Write a Program to reverse the Linked List. (Both Iterative and recursive)"/>
-    <hyperlink ref="B140" r:id="rId127" display="Reverse a Linked List in group of Given Size. [Very Imp]"/>
-    <hyperlink ref="B141" r:id="rId128" display="Write a program to Detect loop in a linked list."/>
-    <hyperlink ref="B142" r:id="rId129" display="Write a program to Delete loop in a linked list."/>
-    <hyperlink ref="B143" r:id="rId130" display="Find the starting point of the loop. "/>
-    <hyperlink ref="B144" r:id="rId131" display="Remove Duplicates in a sorted Linked List."/>
-    <hyperlink ref="B145" r:id="rId132" display="Remove Duplicates in a Un-sorted Linked List."/>
-    <hyperlink ref="B146" r:id="rId133" display="Write a Program to Move the last element to Front in a Linked List."/>
-    <hyperlink ref="B147" r:id="rId134" display="Add “1” to a number represented as a Linked List."/>
-    <hyperlink ref="B148" r:id="rId135" display="Add two numbers represented by linked lists."/>
-    <hyperlink ref="B149" r:id="rId136" display="Intersection of two Sorted Linked List."/>
-    <hyperlink ref="B150" r:id="rId137" display="Intersection Point of two Linked Lists."/>
-    <hyperlink ref="B151" r:id="rId138" display="Merge Sort For Linked lists.[Very Important]"/>
-    <hyperlink ref="B152" r:id="rId139" display="Quicksort for Linked Lists.[Very Important]"/>
-    <hyperlink ref="B153" r:id="rId140" display="Find the middle Element of a linked list."/>
-    <hyperlink ref="B154" r:id="rId141" display="Check if a linked list is a circular linked list."/>
-    <hyperlink ref="B155" r:id="rId142" display="Split a Circular linked list into two halves."/>
-    <hyperlink ref="B156" r:id="rId143" display="Write a Program to check whether the Singly Linked list is a palindrome or not."/>
-    <hyperlink ref="B157" r:id="rId144" display="Deletion from a Circular Linked List."/>
-    <hyperlink ref="B158" r:id="rId145" display="Reverse a Doubly Linked list."/>
-    <hyperlink ref="B159" r:id="rId146" display="Find pairs with a given sum in a DLL."/>
-    <hyperlink ref="B160" r:id="rId147" display="Count triplets in a sorted DLL whose sum is equal to given value “X”."/>
-    <hyperlink ref="B161" r:id="rId148" display="Sort a “k”sorted Doubly Linked list.[Very IMP]"/>
-    <hyperlink ref="B162" r:id="rId149" display="Rotate DoublyLinked list by N nodes."/>
-    <hyperlink ref="B163" r:id="rId150" display="Rotate a Doubly Linked list in group of Given Size.[Very IMP]"/>
-    <hyperlink ref="B166" r:id="rId151" display="Flatten a Linked List"/>
-    <hyperlink ref="B167" r:id="rId152" display="Sort a LL of 0's, 1's and 2's"/>
-    <hyperlink ref="B168" r:id="rId153" display="Clone a linked list with next and random pointer"/>
-    <hyperlink ref="B169" r:id="rId154" display="Merge K sorted Linked list"/>
-    <hyperlink ref="B170" r:id="rId155" display="Multiply 2 no. represented by LL"/>
-    <hyperlink ref="B171" r:id="rId156" display="Delete nodes which have a greater value on right side"/>
-    <hyperlink ref="B172" r:id="rId157" display="Segregate even and odd nodes in a Linked List"/>
-    <hyperlink ref="B173" r:id="rId158" display="Program for n’th node from the end of a Linked List"/>
-    <hyperlink ref="B174" r:id="rId159" display="Find the first non-repeating character from a stream of characters"/>
-    <hyperlink ref="B177" r:id="rId160" display="level order traversal"/>
-    <hyperlink ref="B178" r:id="rId161" display="Reverse Level Order traversal"/>
-    <hyperlink ref="B179" r:id="rId162" display="Height of a tree"/>
-    <hyperlink ref="B180" r:id="rId163" display="Diameter of a tree"/>
-    <hyperlink ref="B181" r:id="rId164" display="Mirror of a tree"/>
-    <hyperlink ref="B182" r:id="rId165" display="Inorder Traversal of a tree both using recursion and Iteration"/>
-    <hyperlink ref="B183" r:id="rId166" display="Preorder Traversal of a tree both using recursion and Iteration"/>
-    <hyperlink ref="B184" r:id="rId167" display="Postorder Traversal of a tree both using recursion and Iteration"/>
-    <hyperlink ref="B185" r:id="rId168" display="Left View of a tree"/>
-    <hyperlink ref="B186" r:id="rId169" display="Right View of Tree"/>
-    <hyperlink ref="B187" r:id="rId170" display="Top View of a tree"/>
-    <hyperlink ref="B188" r:id="rId171" display="Bottom View of a tree"/>
-    <hyperlink ref="B189" r:id="rId172" display="Zig-Zag traversal of a binary tree"/>
-    <hyperlink ref="B190" r:id="rId173" display="Check if a tree is balanced or not"/>
-    <hyperlink ref="B191" r:id="rId174" display="Diagnol Traversal of a Binary tree"/>
-    <hyperlink ref="B192" r:id="rId175" display="Boundary traversal of a Binary tree"/>
-    <hyperlink ref="B193" r:id="rId176" display="Construct Binary Tree from String with Bracket Representation"/>
-    <hyperlink ref="B194" r:id="rId177" display="Convert Binary tree into Doubly Linked List"/>
-    <hyperlink ref="B195" r:id="rId178" display="Convert Binary tree into Sum tree"/>
-    <hyperlink ref="B196" r:id="rId179" display="Construct Binary tree from Inorder and preorder traversal"/>
-    <hyperlink ref="B197" r:id="rId180" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." display="Find minimum swaps required to convert a Binary tree into BST"/>
-    <hyperlink ref="B198" r:id="rId181" display="Check if Binary tree is Sum tree or not"/>
-    <hyperlink ref="B199" r:id="rId182" display="Check if all leaf nodes are at same level or not"/>
-    <hyperlink ref="B200" r:id="rId183" display="Check if a Binary Tree contains duplicate subtrees of size 2 or more [ IMP ]"/>
-    <hyperlink ref="B201" r:id="rId184" display="Check if 2 trees are mirror or not"/>
-    <hyperlink ref="B202" r:id="rId185" display="Sum of Nodes on the Longest path from root to leaf node "/>
-    <hyperlink ref="B203" r:id="rId186" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." display="Check if given graph is tree or not.  [ IMP ]"/>
-    <hyperlink ref="B204" r:id="rId187" display="Find Largest subtree sum in a tree"/>
-    <hyperlink ref="B205" r:id="rId188" display="Maximum Sum of nodes in Binary tree such that no two are adjacent "/>
-    <hyperlink ref="B206" r:id="rId189" display="Print all &quot;K&quot; Sum paths in a Binary tree"/>
-    <hyperlink ref="B207" r:id="rId190" display="Find LCA in a Binary tree"/>
-    <hyperlink ref="B208" r:id="rId191" display="Find distance between 2 nodes in a Binary tree"/>
-    <hyperlink ref="B209" r:id="rId192" display="Kth Ancestor of node in a Binary tree"/>
-    <hyperlink ref="B210" r:id="rId193" display="Find all Duplicate subtrees in a Binary tree [ IMP ]"/>
-    <hyperlink ref="B211" r:id="rId194" display="Tree Isomorphism Problem"/>
-    <hyperlink ref="B214" r:id="rId195" display="Fina a value in a BST"/>
-    <hyperlink ref="B215" r:id="rId196" display="Deletion of a node in a BST"/>
-    <hyperlink ref="B216" r:id="rId197" display="Find min and max value in a BST"/>
-    <hyperlink ref="B217" r:id="rId198" display="Find inorder successor and inorder predecessor in a BST"/>
-    <hyperlink ref="B218" r:id="rId199" display="Check if a tree is a BST or not "/>
-    <hyperlink ref="B219" r:id="rId200" display="Populate Inorder successor of all nodes"/>
-    <hyperlink ref="B220" r:id="rId201" display="Find LCA  of 2 nodes in a BST"/>
-    <hyperlink ref="B221" r:id="rId202" display="Construct BST from preorder traversal"/>
-    <hyperlink ref="B222" r:id="rId203" display="Convert Binary tree into BST"/>
-    <hyperlink ref="B223" r:id="rId204" display="Convert a normal BST into a Balanced BST"/>
-    <hyperlink ref="B224" r:id="rId205" display="Merge two BST [ V.V.V&gt;IMP ]"/>
-    <hyperlink ref="B225" r:id="rId206" display="Find Kth largest element in a BST"/>
-    <hyperlink ref="B226" r:id="rId207" display="Find Kth smallest element in a BST"/>
-    <hyperlink ref="B227" r:id="rId208" display="Count pairs from 2 BST whose sum is equal to given value &quot;X&quot;"/>
-    <hyperlink ref="B228" r:id="rId209" display="Find the median of BST in O(n) time and O(1) space"/>
-    <hyperlink ref="B229" r:id="rId210" display="Count BST ndoes that lie in a given range"/>
-    <hyperlink ref="B230" r:id="rId211" display="Replace every element with the least greater element on its right"/>
-    <hyperlink ref="B231" r:id="rId212" display="Given &quot;n&quot; appointments, find the conflicting appointments"/>
-    <hyperlink ref="B232" r:id="rId213" display="Check preorder is valid or not"/>
-    <hyperlink ref="B233" r:id="rId214" display="Check whether BST contains Dead end"/>
-    <hyperlink ref="B234" r:id="rId215" display="Largest BST in a Binary Tree [ V.V.V.V.V IMP ]"/>
-    <hyperlink ref="B235" r:id="rId216" display="Flatten BST to sorted list"/>
-    <hyperlink ref="B238" r:id="rId217" display="Activity Selection Problem"/>
-    <hyperlink ref="B239" r:id="rId218" display="Job SequencingProblem"/>
-    <hyperlink ref="B240" r:id="rId219" display="Huffman Coding"/>
-    <hyperlink ref="B241" r:id="rId220" display="Water Connection Problem"/>
-    <hyperlink ref="B242" r:id="rId221" display="Fractional Knapsack Problem"/>
-    <hyperlink ref="B243" r:id="rId222" display="Greedy Algorithm to find Minimum number of Coins"/>
-    <hyperlink ref="B244" r:id="rId223" display="Maximum trains for which stoppage can be provided"/>
-    <hyperlink ref="B245" r:id="rId224" display="Minimum Platforms Problem"/>
-    <hyperlink ref="B246" r:id="rId225" display="Buy Maximum Stocks if i stocks can be bought on i-th day"/>
-    <hyperlink ref="B247" r:id="rId226" display="Find the minimum and maximum amount to buy all N candies"/>
-    <hyperlink ref="B248" r:id="rId227" display="Minimize Cash Flow among a given set of friends who have borrowed money from each other"/>
-    <hyperlink ref="B249" r:id="rId228" display="Minimum Cost to cut a board into squares"/>
-    <hyperlink ref="B250" r:id="rId229" display="Check if it is possible to survive on Island"/>
-    <hyperlink ref="B251" r:id="rId230" display="Find maximum meetings in one room"/>
-    <hyperlink ref="B252" r:id="rId231" display="Maximum product subset of an array"/>
-    <hyperlink ref="B253" r:id="rId232" display="Maximize array sum after K negations"/>
-    <hyperlink ref="B254" r:id="rId233" display="Maximize the sum of arr[i]*i"/>
-    <hyperlink ref="B255" r:id="rId234" display="Maximum sum of absolute difference of an array"/>
-    <hyperlink ref="B256" r:id="rId235" display="Maximize sum of consecutive differences in a circular array"/>
-    <hyperlink ref="B257" r:id="rId236" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." display="Minimum sum of absolute difference of pairs of two arrays"/>
-    <hyperlink ref="B258" r:id="rId237" display="Program for Shortest Job First (or SJF) CPU Scheduling"/>
-    <hyperlink ref="B259" r:id="rId238" display="Program for Least Recently Used (LRU) Page Replacement algorithm"/>
-    <hyperlink ref="B260" r:id="rId239" display="Smallest subset with sum greater than all other elements"/>
-    <hyperlink ref="B261" r:id="rId240" display="Chocolate Distribution Problem"/>
-    <hyperlink ref="B262" r:id="rId241" display="DEFKIN -Defense of a Kingdom"/>
-    <hyperlink ref="B263" r:id="rId242" display="DIEHARD -DIE HARD"/>
-    <hyperlink ref="B264" r:id="rId243" display="GERGOVIA -Wine trading in Gergovia"/>
-    <hyperlink ref="B265" r:id="rId244" display="Picking Up Chicks"/>
-    <hyperlink ref="B266" r:id="rId245" display="CHOCOLA –Chocolate"/>
-    <hyperlink ref="B267" r:id="rId246" display="ARRANGE -Arranging Amplifiers"/>
-    <hyperlink ref="B268" r:id="rId247" display="K Centers Problem"/>
-    <hyperlink ref="B269" r:id="rId248" display="Minimum Cost of ropes"/>
-    <hyperlink ref="B270" r:id="rId249" display="Find smallest number with given number of digits and sum of digits"/>
-    <hyperlink ref="B271" r:id="rId250" display="Rearrange characters in a string such that no two adjacent are same"/>
-    <hyperlink ref="B272" r:id="rId251" display="Find maximum sum possible equal sum of three stacks"/>
-    <hyperlink ref="B275" r:id="rId252" display="Rat in a maze Problem"/>
-    <hyperlink ref="B276" r:id="rId253" display="Printing all solutions in N-Queen Problem"/>
-    <hyperlink ref="B277" r:id="rId254" display="Word Break Problem using Backtracking"/>
-    <hyperlink ref="B278" r:id="rId255" display="Remove Invalid Parentheses"/>
-    <hyperlink ref="B279" r:id="rId256" display="Sudoku Solver"/>
-    <hyperlink ref="B280" r:id="rId257" display="m Coloring Problem"/>
-    <hyperlink ref="B281" r:id="rId258" display="Print all palindromic partitions of a string"/>
-    <hyperlink ref="B282" r:id="rId259" display="Subset Sum Problem"/>
-    <hyperlink ref="B283" r:id="rId260" display="The Knight’s tour problem"/>
-    <hyperlink ref="B284" r:id="rId261" display="Tug of War"/>
-    <hyperlink ref="B285" r:id="rId262" display="Find shortest safe route in a path with landmines"/>
-    <hyperlink ref="B286" r:id="rId263" display="Combinational Sum"/>
-    <hyperlink ref="B287" r:id="rId264" display="Find Maximum number possible by doing at-most K swaps"/>
-    <hyperlink ref="B288" r:id="rId265" display="Print all permutations of a string "/>
-    <hyperlink ref="B289" r:id="rId266" display="Find if there is a path of more than k length from a source"/>
-    <hyperlink ref="B290" r:id="rId267" display="Longest Possible Route in a Matrix with Hurdles"/>
-    <hyperlink ref="B291" r:id="rId268" display="Print all possible paths from top left to bottom right of a mXn matrix"/>
-    <hyperlink ref="B292" r:id="rId269" display="Partition of a set intoK subsets with equal sum"/>
-    <hyperlink ref="B293" r:id="rId270" display="Find the K-th Permutation Sequence of first N natural numbers"/>
-    <hyperlink ref="B296" r:id="rId271" display=" Implement Stack from Scratch"/>
-    <hyperlink ref="B297" r:id="rId272" display=" Implement Queue from Scratch"/>
-    <hyperlink ref="B298" r:id="rId273" display="Implement 2 stack in an array"/>
-    <hyperlink ref="B299" r:id="rId274" display="find the middle element of a stack"/>
-    <hyperlink ref="B300" r:id="rId275" display="Implement &quot;N&quot; stacks in an Array"/>
-    <hyperlink ref="B301" r:id="rId276" display="Check the expression has valid or Balanced parenthesis or not."/>
-    <hyperlink ref="B302" r:id="rId277" display="Reverse a String using Stack"/>
-    <hyperlink ref="B303" r:id="rId278" display="Design a Stack that supports getMin() in O(1) time and O(1) extra space."/>
-    <hyperlink ref="B304" r:id="rId279" display="Find the next Greater element"/>
-    <hyperlink ref="B305" r:id="rId280" display="The celebrity Problem"/>
-    <hyperlink ref="B306" r:id="rId281" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." display="Arithmetic Expression evaluation"/>
-    <hyperlink ref="B307" r:id="rId282" display="Evaluation of Postfix expression"/>
-    <hyperlink ref="B308" r:id="rId283" display="Implement a method to insert an element at its bottom without using any other data structure."/>
-    <hyperlink ref="B309" r:id="rId284" display="Reverse a stack using recursion"/>
-    <hyperlink ref="B310" r:id="rId285" display="Sort a Stack using recursion"/>
-    <hyperlink ref="B311" r:id="rId286" display="Merge Overlapping Intervals"/>
-    <hyperlink ref="B312" r:id="rId287" display="Largest rectangular Area in Histogram"/>
-    <hyperlink ref="B313" r:id="rId288" display="Length of the Longest Valid Substring"/>
-    <hyperlink ref="B314" r:id="rId289" display="Expression contains redundant bracket or not"/>
-    <hyperlink ref="B315" r:id="rId290" display="Implement Stack using Queue"/>
-    <hyperlink ref="B316" r:id="rId291" display="Implement Stack using Deque"/>
-    <hyperlink ref="B317" r:id="rId292" display="Stack Permutations (Check if an array is stack permutation of other)"/>
-    <hyperlink ref="B318" r:id="rId293" display="Implement Queue using Stack  "/>
-    <hyperlink ref="B319" r:id="rId294" display="Implement &quot;n&quot; queue in an array"/>
-    <hyperlink ref="B320" r:id="rId295" display="Implement a Circular queue"/>
-    <hyperlink ref="B321" r:id="rId296" display="LRU Cache Implementationa"/>
-    <hyperlink ref="B322" r:id="rId297" display="Reverse a Queue using recursion"/>
-    <hyperlink ref="B323" r:id="rId298" display="Reverse the first “K” elements of a queue"/>
-    <hyperlink ref="B324" r:id="rId299" display="Interleave the first half of the queue with second half"/>
-    <hyperlink ref="B325" r:id="rId300" display="Find the first circular tour that visits all Petrol Pumps"/>
-    <hyperlink ref="B326" r:id="rId301" display="Minimum time required to rot all oranges"/>
-    <hyperlink ref="B327" r:id="rId302" display="Distance of nearest cell having 1 in a binary matrix"/>
-    <hyperlink ref="B328" r:id="rId303" display="First negative integer in every window of size “k”"/>
-    <hyperlink ref="B329" r:id="rId304" display="Check if all levels of two trees are anagrams or not."/>
-    <hyperlink ref="B330" r:id="rId305" display="Sum of minimum and maximum elements of all subarrays of size “k”."/>
-    <hyperlink ref="B331" r:id="rId306" display="Minimum sum of squares of character counts in a given string after removing “k” characters."/>
-    <hyperlink ref="B332" r:id="rId307" display="Queue based approach or first non-repeating character in a stream."/>
-    <hyperlink ref="B333" r:id="rId308" display="Next Smaller Element"/>
-    <hyperlink ref="B336" r:id="rId309" display="Implement a Maxheap/MinHeap using arrays and recursion."/>
-    <hyperlink ref="B337" r:id="rId310" display="Sort an Array using heap. (HeapSort)"/>
-    <hyperlink ref="B338" r:id="rId311" display="Maximum of all subarrays of size k."/>
-    <hyperlink ref="B339" r:id="rId312" display="“k” largest element in an array"/>
-    <hyperlink ref="B340" r:id="rId313" display="Kth smallest and largest element in an unsorted array"/>
-    <hyperlink ref="B341" r:id="rId314" display="Merge “K” sorted arrays. [ IMP ]"/>
-    <hyperlink ref="B342" r:id="rId315" display="Merge 2 Binary Max Heaps"/>
-    <hyperlink ref="B343" r:id="rId316" display="Kth largest sum continuous subarrays"/>
-    <hyperlink ref="B344" r:id="rId317" display="Leetcode- reorganize strings"/>
-    <hyperlink ref="B345" r:id="rId318" display="Merge “K” Sorted Linked Lists [V.IMP]"/>
-    <hyperlink ref="B346" r:id="rId319" display="Smallest range in “K” Lists"/>
-    <hyperlink ref="B347" r:id="rId320" display="Median in a stream of Integers"/>
-    <hyperlink ref="B348" r:id="rId321" display="Check if a Binary Tree is Heap"/>
-    <hyperlink ref="B349" r:id="rId322" display="Connect “n” ropes with minimum cost"/>
-    <hyperlink ref="B350" r:id="rId323" display="Convert BST to Min Heap"/>
-    <hyperlink ref="B351" r:id="rId324" display="Convert min heap to max heap"/>
-    <hyperlink ref="B352" r:id="rId325" display="Rearrange characters in a string such that no two adjacent are same."/>
-    <hyperlink ref="B353" r:id="rId326" display="Minimum sum of two numbers formed from digits of an array"/>
-    <hyperlink ref="B356" r:id="rId327" display="Create a Graph, print it"/>
-    <hyperlink ref="B357" r:id="rId328" display="Implement BFS algorithm "/>
-    <hyperlink ref="B358" r:id="rId329" display="Implement DFS Algo "/>
-    <hyperlink ref="B359" r:id="rId330" display="Detect Cycle in Directed Graph using BFS/DFS Algo "/>
-    <hyperlink ref="B360" r:id="rId331" display="Detect Cycle in UnDirected Graph using BFS/DFS Algo "/>
-    <hyperlink ref="B361" r:id="rId332" display="Search in a Maze"/>
-    <hyperlink ref="B362" r:id="rId333" display="Minimum Step by Knight"/>
-    <hyperlink ref="B363" r:id="rId334" display="flood fill algo"/>
-    <hyperlink ref="B364" r:id="rId335" display="Clone a graph"/>
-    <hyperlink ref="B365" r:id="rId336" display="Making wired Connections"/>
-    <hyperlink ref="B366" r:id="rId337" display="word Ladder "/>
-    <hyperlink ref="B367" r:id="rId338" display="Dijkstra algo"/>
-    <hyperlink ref="B368" r:id="rId339" display="Implement Topological Sort "/>
-    <hyperlink ref="B369" r:id="rId340" display="Minimum time taken by each job to be completed given by a Directed Acyclic Graph"/>
-    <hyperlink ref="B370" r:id="rId341" display="Find whether it is possible to finish all tasks or not from given dependencies"/>
-    <hyperlink ref="B371" r:id="rId342" display="Find the no. of Isalnds"/>
-    <hyperlink ref="B372" r:id="rId343" display="Given a sorted Dictionary of an Alien Language, find order of characters"/>
-    <hyperlink ref="B373" r:id="rId344" display="Implement Kruksal’sAlgorithm"/>
-    <hyperlink ref="B374" r:id="rId345" display="Implement Prim’s Algorithm"/>
-    <hyperlink ref="B375" r:id="rId346" display="Total no. of Spanning tree in a graph"/>
-    <hyperlink ref="B376" r:id="rId347" display="Implement Bellman Ford Algorithm"/>
-    <hyperlink ref="B377" r:id="rId348" display="Implement Floyd warshallAlgorithm"/>
-    <hyperlink ref="B378" r:id="rId349" display="Travelling Salesman Problem"/>
-    <hyperlink ref="B379" r:id="rId350" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." display="Graph ColouringProblem"/>
-    <hyperlink ref="B380" r:id="rId351" display="Snake and Ladders Problem"/>
-    <hyperlink ref="B381" r:id="rId352" display="Find bridge in a graph"/>
-    <hyperlink ref="B382" r:id="rId353" display="Count Strongly connected Components(Kosaraju Algo)"/>
-    <hyperlink ref="B383" r:id="rId354" display="Check whether a graph is Bipartite or Not"/>
-    <hyperlink ref="B384" r:id="rId355" display="Detect Negative cycle in a graph"/>
-    <hyperlink ref="B385" r:id="rId356" display="Longest path in a Directed Acyclic Graph"/>
-    <hyperlink ref="B386" r:id="rId357" display="Journey to the Moon"/>
-    <hyperlink ref="B387" r:id="rId358" display="Cheapest Flights Within K Stops"/>
-    <hyperlink ref="B388" r:id="rId359" display="Oliver and the Game"/>
-    <hyperlink ref="B389" r:id="rId360" display="Water Jug problem using BFS"/>
-    <hyperlink ref="B390" r:id="rId361" display="Water Jug problem using BFS"/>
-    <hyperlink ref="B391" r:id="rId362" display="Find if there is a path of more thank length from a source"/>
-    <hyperlink ref="B392" r:id="rId363" display="M-ColouringProblem"/>
-    <hyperlink ref="B393" r:id="rId364" display="Minimum edges to reverse o make path from source to destination"/>
-    <hyperlink ref="B394" r:id="rId365" display="Paths to travel each nodes using each edge(Seven Bridges)"/>
-    <hyperlink ref="B395" r:id="rId366" display="Vertex Cover Problem"/>
-    <hyperlink ref="B396" r:id="rId367" display="Chinese Postman or Route Inspection"/>
-    <hyperlink ref="B397" r:id="rId368" display="Number of Triangles in a Directed and Undirected Graph"/>
-    <hyperlink ref="B398" r:id="rId369" display="Minimise the cashflow among a given set of friends who have borrowed money from each other"/>
-    <hyperlink ref="B399" r:id="rId370" display="Two Clique Problem"/>
-    <hyperlink ref="B402" r:id="rId371" display="Construct a trie from scratch"/>
-    <hyperlink ref="B403" r:id="rId372" display="Find shortest unique prefix for every word in a given list"/>
-    <hyperlink ref="B404" r:id="rId373" display="Word Break Problem | (Trie solution)"/>
-    <hyperlink ref="B405" r:id="rId374" display="Given a sequence of words, print all anagrams together"/>
-    <hyperlink ref="B406" r:id="rId375" display="Implement a Phone Directory"/>
-    <hyperlink ref="B407" r:id="rId376" display="Print unique rows in a given boolean matrix"/>
-    <hyperlink ref="B410" r:id="rId377" display="Coin ChangeProblem"/>
-    <hyperlink ref="B411" r:id="rId378" display="Knapsack Problem"/>
-    <hyperlink ref="B412" r:id="rId379" display="Binomial CoefficientProblem"/>
-    <hyperlink ref="B413" r:id="rId380" display="Permutation CoefficientProblem"/>
-    <hyperlink ref="B414" r:id="rId381" display="Program for nth Catalan Number"/>
-    <hyperlink ref="B415" r:id="rId382" display="Matrix Chain Multiplication "/>
-    <hyperlink ref="B416" r:id="rId383" display="Edit Distance"/>
-    <hyperlink ref="B417" r:id="rId384" display="Subset Sum Problem"/>
-    <hyperlink ref="B418" r:id="rId385" display="Friends Pairing Problem"/>
-    <hyperlink ref="B419" r:id="rId386" display="Gold Mine Problem"/>
-    <hyperlink ref="B420" r:id="rId387" display="Assembly Line SchedulingProblem"/>
-    <hyperlink ref="B421" r:id="rId388" display="Painting the Fenceproblem"/>
-    <hyperlink ref="B422" r:id="rId389" display="Maximize The Cut Segments"/>
-    <hyperlink ref="B423" r:id="rId390" display="Longest Common Subsequence"/>
-    <hyperlink ref="B424" r:id="rId391" display="Longest Repeated Subsequence"/>
-    <hyperlink ref="B425" r:id="rId392" display="Longest Increasing Subsequence"/>
-    <hyperlink ref="B426" r:id="rId393" display="Space Optimized Solution of LCS"/>
-    <hyperlink ref="B427" r:id="rId394" display="LCS (Longest Common Subsequence) of three strings"/>
-    <hyperlink ref="B428" r:id="rId395" display="Maximum Sum Increasing Subsequence"/>
-    <hyperlink ref="B429" r:id="rId396" display="Count all subsequences having product less than K"/>
-    <hyperlink ref="B430" r:id="rId397" display="Longest subsequence such that difference between adjacent is one"/>
-    <hyperlink ref="B431" r:id="rId398" display="Maximum subsequence sum such that no three are consecutive"/>
-    <hyperlink ref="B432" r:id="rId399" display="Egg Dropping Problem"/>
-    <hyperlink ref="B433" r:id="rId400" display="Maximum Length Chain of Pairs"/>
-    <hyperlink ref="B434" r:id="rId401" display="Maximum size square sub-matrix with all 1s"/>
-    <hyperlink ref="B435" r:id="rId402" display="Maximum sum of pairs with specific difference"/>
-    <hyperlink ref="B436" r:id="rId403" display="Min Cost PathProblem"/>
-    <hyperlink ref="B437" r:id="rId404" display="Maximum difference of zeros and ones in binary string"/>
-    <hyperlink ref="B438" r:id="rId405" display="Minimum number of jumps to reach end"/>
-    <hyperlink ref="B439" r:id="rId406" display="Minimum cost to fill given weight in a bag"/>
-    <hyperlink ref="B440" r:id="rId407" display="Minimum removals from array to make max –min &lt;= K"/>
-    <hyperlink ref="B441" r:id="rId408" display="Longest Common Substring"/>
-    <hyperlink ref="B442" r:id="rId409" display="Count number of ways to reacha given score in a game"/>
-    <hyperlink ref="B443" r:id="rId410" display="Count Balanced Binary Trees of Height h"/>
-    <hyperlink ref="B444" r:id="rId411" display="LargestSum Contiguous Subarray [V&gt;V&gt;V&gt;V IMP ]"/>
-    <hyperlink ref="B445" r:id="rId412" display="Smallest sum contiguous subarray"/>
-    <hyperlink ref="B446" r:id="rId413" display="Unbounded Knapsack (Repetition of items allowed)"/>
-    <hyperlink ref="B447" r:id="rId414" display="Word Break Problem"/>
-    <hyperlink ref="B448" r:id="rId415" display="Largest Independent Set Problem"/>
-    <hyperlink ref="B449" r:id="rId416" display="Partition problem"/>
-    <hyperlink ref="B450" r:id="rId417" display="Longest Palindromic Subsequence"/>
-    <hyperlink ref="B451" r:id="rId418" display="Count All Palindromic Subsequence in a given String"/>
-    <hyperlink ref="B452" r:id="rId419" display="Longest Palindromic Substring"/>
-    <hyperlink ref="B453" r:id="rId420" display="Longest alternating subsequence"/>
-    <hyperlink ref="B454" r:id="rId421" display="Weighted Job Scheduling"/>
-    <hyperlink ref="B455" r:id="rId422" display="Coin game winner where every player has three choices"/>
-    <hyperlink ref="B456" r:id="rId423" display="Count Derangements (Permutation such that no element appears in its original position) [ IMPORTANT ]"/>
-    <hyperlink ref="B457" r:id="rId424" display="Maximum profit by buying and selling a share at most twice [ IMP ]"/>
-    <hyperlink ref="B458" r:id="rId425" display="Optimal Strategy for a Game"/>
-    <hyperlink ref="B459" r:id="rId426" display="Optimal Binary Search Tree"/>
-    <hyperlink ref="B460" r:id="rId427" display="Palindrome PartitioningProblem"/>
-    <hyperlink ref="B461" r:id="rId428" display="Word Wrap Problem"/>
-    <hyperlink ref="B462" r:id="rId429" display="Mobile Numeric Keypad Problem [ IMP ]"/>
-    <hyperlink ref="B463" r:id="rId430" display="Boolean Parenthesization Problem"/>
-    <hyperlink ref="B464" r:id="rId431" display="Largest rectangular sub-matrix whose sum is 0"/>
-    <hyperlink ref="B465" r:id="rId432" display="Largest area rectangular sub-matrix with equal number of 1’s and 0’s [ IMP ]"/>
-    <hyperlink ref="B466" r:id="rId433" display="Maximum sum rectangle in a 2D matrix"/>
-    <hyperlink ref="B467" r:id="rId434" display="Maximum profit by buying and selling a share at most k times"/>
-    <hyperlink ref="B468" r:id="rId435" display="Find if a string is interleaved of two other strings"/>
-    <hyperlink ref="B469" r:id="rId436" display="Maximum Length of Pair Chain"/>
-    <hyperlink ref="B472" r:id="rId437" display="Count set bits in an integer"/>
-    <hyperlink ref="B473" r:id="rId438" display="Find the two non-repeating elements in an array of repeating elements"/>
-    <hyperlink ref="B474" r:id="rId439" display="Count number of bits to be flipped to convert A to B"/>
-    <hyperlink ref="B475" r:id="rId440" display="Count total set bits in all numbers from 1 to n"/>
-    <hyperlink ref="B476" r:id="rId441" display="Program to find whether a no is power of two"/>
-    <hyperlink ref="B477" r:id="rId442" display="Find position of the only set bit"/>
-    <hyperlink ref="B478" r:id="rId443" display="Copy set bits in a range"/>
-    <hyperlink ref="B479" r:id="rId444" display="Divide two integers without using multiplication, division and mod operator"/>
-    <hyperlink ref="B480" r:id="rId445" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." display="Calculate square of a number without using *, / and pow()"/>
-    <hyperlink ref="B481" r:id="rId446" display="Power Set"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B6" r:id="rId2"/>
+    <hyperlink ref="B7" r:id="rId3"/>
+    <hyperlink ref="B8" r:id="rId4"/>
+    <hyperlink ref="B9" r:id="rId5"/>
+    <hyperlink ref="B10" r:id="rId6"/>
+    <hyperlink ref="B11" r:id="rId7"/>
+    <hyperlink ref="B12" r:id="rId8"/>
+    <hyperlink ref="B13" r:id="rId9"/>
+    <hyperlink ref="B14" r:id="rId10"/>
+    <hyperlink ref="B15" r:id="rId11"/>
+    <hyperlink ref="B16" r:id="rId12"/>
+    <hyperlink ref="B17" r:id="rId13"/>
+    <hyperlink ref="B18" r:id="rId14"/>
+    <hyperlink ref="B19" r:id="rId15"/>
+    <hyperlink ref="B20" r:id="rId16"/>
+    <hyperlink ref="B21" r:id="rId17"/>
+    <hyperlink ref="B22" r:id="rId18"/>
+    <hyperlink ref="B23" r:id="rId19"/>
+    <hyperlink ref="B24" r:id="rId20"/>
+    <hyperlink ref="B25" r:id="rId21"/>
+    <hyperlink ref="B26" r:id="rId22"/>
+    <hyperlink ref="B27" r:id="rId23"/>
+    <hyperlink ref="B28" r:id="rId24"/>
+    <hyperlink ref="B29" r:id="rId25"/>
+    <hyperlink ref="B30" r:id="rId26"/>
+    <hyperlink ref="B31" r:id="rId27"/>
+    <hyperlink ref="B32" r:id="rId28"/>
+    <hyperlink ref="B33" r:id="rId29"/>
+    <hyperlink ref="B34" r:id="rId30"/>
+    <hyperlink ref="B35" r:id="rId31"/>
+    <hyperlink ref="B36" r:id="rId32"/>
+    <hyperlink ref="B37" r:id="rId33"/>
+    <hyperlink ref="B38" r:id="rId34"/>
+    <hyperlink ref="B39" r:id="rId35"/>
+    <hyperlink ref="B40" r:id="rId36"/>
+    <hyperlink ref="B41" r:id="rId37"/>
+    <hyperlink ref="B44" r:id="rId38"/>
+    <hyperlink ref="B45" r:id="rId39"/>
+    <hyperlink ref="B46" r:id="rId40"/>
+    <hyperlink ref="B47" r:id="rId41"/>
+    <hyperlink ref="B48" r:id="rId42"/>
+    <hyperlink ref="B49" r:id="rId43"/>
+    <hyperlink ref="B50" r:id="rId44"/>
+    <hyperlink ref="B51" r:id="rId45"/>
+    <hyperlink ref="B52" r:id="rId46"/>
+    <hyperlink ref="B53" r:id="rId47"/>
+    <hyperlink ref="B56" r:id="rId48"/>
+    <hyperlink ref="B57" r:id="rId49"/>
+    <hyperlink ref="B58" r:id="rId50"/>
+    <hyperlink ref="B60" r:id="rId51"/>
+    <hyperlink ref="B61" r:id="rId52"/>
+    <hyperlink ref="B62" r:id="rId53"/>
+    <hyperlink ref="B63" r:id="rId54"/>
+    <hyperlink ref="B64" r:id="rId55"/>
+    <hyperlink ref="B65" r:id="rId56"/>
+    <hyperlink ref="B66" r:id="rId57"/>
+    <hyperlink ref="B67" r:id="rId58"/>
+    <hyperlink ref="B68" r:id="rId59"/>
+    <hyperlink ref="B69" r:id="rId60"/>
+    <hyperlink ref="B70" r:id="rId61"/>
+    <hyperlink ref="B71" r:id="rId62"/>
+    <hyperlink ref="B72" r:id="rId63"/>
+    <hyperlink ref="B73" r:id="rId64"/>
+    <hyperlink ref="B74" r:id="rId65"/>
+    <hyperlink ref="B75" r:id="rId66"/>
+    <hyperlink ref="B76" r:id="rId67"/>
+    <hyperlink ref="B77" r:id="rId68"/>
+    <hyperlink ref="B78" r:id="rId69"/>
+    <hyperlink ref="B79" r:id="rId70"/>
+    <hyperlink ref="B80" r:id="rId71"/>
+    <hyperlink ref="B81" r:id="rId72"/>
+    <hyperlink ref="B82" r:id="rId73"/>
+    <hyperlink ref="B83" r:id="rId74"/>
+    <hyperlink ref="B84" r:id="rId75"/>
+    <hyperlink ref="B85" r:id="rId76"/>
+    <hyperlink ref="B86" r:id="rId77"/>
+    <hyperlink ref="B87" r:id="rId78"/>
+    <hyperlink ref="B88" r:id="rId79"/>
+    <hyperlink ref="B89" r:id="rId80"/>
+    <hyperlink ref="B90" r:id="rId81"/>
+    <hyperlink ref="B91" r:id="rId82"/>
+    <hyperlink ref="B92" r:id="rId83"/>
+    <hyperlink ref="B93" r:id="rId84"/>
+    <hyperlink ref="B94" r:id="rId85"/>
+    <hyperlink ref="B95" r:id="rId86"/>
+    <hyperlink ref="B96" r:id="rId87"/>
+    <hyperlink ref="B97" r:id="rId88"/>
+    <hyperlink ref="B98" r:id="rId89"/>
+    <hyperlink ref="B101" r:id="rId90"/>
+    <hyperlink ref="B102" r:id="rId91"/>
+    <hyperlink ref="B103" r:id="rId92"/>
+    <hyperlink ref="B104" r:id="rId93"/>
+    <hyperlink ref="B105" r:id="rId94"/>
+    <hyperlink ref="B106" r:id="rId95" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance."/>
+    <hyperlink ref="B107" r:id="rId96"/>
+    <hyperlink ref="B108" r:id="rId97"/>
+    <hyperlink ref="B109" r:id="rId98"/>
+    <hyperlink ref="B110" r:id="rId99"/>
+    <hyperlink ref="B111" r:id="rId100"/>
+    <hyperlink ref="B112" r:id="rId101"/>
+    <hyperlink ref="B113" r:id="rId102"/>
+    <hyperlink ref="B114" r:id="rId103"/>
+    <hyperlink ref="B115" r:id="rId104"/>
+    <hyperlink ref="B116" r:id="rId105"/>
+    <hyperlink ref="B117" r:id="rId106"/>
+    <hyperlink ref="B118" r:id="rId107"/>
+    <hyperlink ref="B119" r:id="rId108"/>
+    <hyperlink ref="B120" r:id="rId109"/>
+    <hyperlink ref="B121" r:id="rId110"/>
+    <hyperlink ref="B122" r:id="rId111"/>
+    <hyperlink ref="B123" r:id="rId112"/>
+    <hyperlink ref="B124" r:id="rId113"/>
+    <hyperlink ref="B125" r:id="rId114"/>
+    <hyperlink ref="B126" r:id="rId115"/>
+    <hyperlink ref="B127" r:id="rId116"/>
+    <hyperlink ref="B128" r:id="rId117"/>
+    <hyperlink ref="B129" r:id="rId118"/>
+    <hyperlink ref="B130" r:id="rId119"/>
+    <hyperlink ref="B131" r:id="rId120"/>
+    <hyperlink ref="B132" r:id="rId121"/>
+    <hyperlink ref="B133" r:id="rId122"/>
+    <hyperlink ref="B134" r:id="rId123"/>
+    <hyperlink ref="B135" r:id="rId124"/>
+    <hyperlink ref="B136" r:id="rId125"/>
+    <hyperlink ref="B139" r:id="rId126"/>
+    <hyperlink ref="B140" r:id="rId127"/>
+    <hyperlink ref="B141" r:id="rId128"/>
+    <hyperlink ref="B142" r:id="rId129"/>
+    <hyperlink ref="B143" r:id="rId130"/>
+    <hyperlink ref="B144" r:id="rId131"/>
+    <hyperlink ref="B145" r:id="rId132"/>
+    <hyperlink ref="B146" r:id="rId133"/>
+    <hyperlink ref="B147" r:id="rId134"/>
+    <hyperlink ref="B148" r:id="rId135"/>
+    <hyperlink ref="B149" r:id="rId136"/>
+    <hyperlink ref="B150" r:id="rId137"/>
+    <hyperlink ref="B151" r:id="rId138"/>
+    <hyperlink ref="B152" r:id="rId139"/>
+    <hyperlink ref="B153" r:id="rId140"/>
+    <hyperlink ref="B154" r:id="rId141"/>
+    <hyperlink ref="B155" r:id="rId142"/>
+    <hyperlink ref="B156" r:id="rId143"/>
+    <hyperlink ref="B157" r:id="rId144"/>
+    <hyperlink ref="B158" r:id="rId145"/>
+    <hyperlink ref="B159" r:id="rId146"/>
+    <hyperlink ref="B160" r:id="rId147"/>
+    <hyperlink ref="B161" r:id="rId148"/>
+    <hyperlink ref="B162" r:id="rId149"/>
+    <hyperlink ref="B163" r:id="rId150"/>
+    <hyperlink ref="B166" r:id="rId151"/>
+    <hyperlink ref="B167" r:id="rId152"/>
+    <hyperlink ref="B168" r:id="rId153"/>
+    <hyperlink ref="B169" r:id="rId154"/>
+    <hyperlink ref="B170" r:id="rId155"/>
+    <hyperlink ref="B171" r:id="rId156"/>
+    <hyperlink ref="B172" r:id="rId157"/>
+    <hyperlink ref="B173" r:id="rId158"/>
+    <hyperlink ref="B174" r:id="rId159"/>
+    <hyperlink ref="B177" r:id="rId160"/>
+    <hyperlink ref="B178" r:id="rId161"/>
+    <hyperlink ref="B179" r:id="rId162"/>
+    <hyperlink ref="B180" r:id="rId163"/>
+    <hyperlink ref="B181" r:id="rId164"/>
+    <hyperlink ref="B182" r:id="rId165"/>
+    <hyperlink ref="B183" r:id="rId166"/>
+    <hyperlink ref="B184" r:id="rId167"/>
+    <hyperlink ref="B185" r:id="rId168"/>
+    <hyperlink ref="B186" r:id="rId169"/>
+    <hyperlink ref="B187" r:id="rId170"/>
+    <hyperlink ref="B188" r:id="rId171"/>
+    <hyperlink ref="B189" r:id="rId172"/>
+    <hyperlink ref="B190" r:id="rId173"/>
+    <hyperlink ref="B191" r:id="rId174"/>
+    <hyperlink ref="B192" r:id="rId175"/>
+    <hyperlink ref="B193" r:id="rId176"/>
+    <hyperlink ref="B194" r:id="rId177"/>
+    <hyperlink ref="B195" r:id="rId178"/>
+    <hyperlink ref="B196" r:id="rId179"/>
+    <hyperlink ref="B197" r:id="rId180" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010."/>
+    <hyperlink ref="B198" r:id="rId181"/>
+    <hyperlink ref="B199" r:id="rId182"/>
+    <hyperlink ref="B200" r:id="rId183"/>
+    <hyperlink ref="B201" r:id="rId184"/>
+    <hyperlink ref="B202" r:id="rId185"/>
+    <hyperlink ref="B203" r:id="rId186" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not."/>
+    <hyperlink ref="B204" r:id="rId187"/>
+    <hyperlink ref="B205" r:id="rId188"/>
+    <hyperlink ref="B206" r:id="rId189"/>
+    <hyperlink ref="B207" r:id="rId190"/>
+    <hyperlink ref="B208" r:id="rId191"/>
+    <hyperlink ref="B209" r:id="rId192"/>
+    <hyperlink ref="B210" r:id="rId193"/>
+    <hyperlink ref="B211" r:id="rId194"/>
+    <hyperlink ref="B214" r:id="rId195"/>
+    <hyperlink ref="B215" r:id="rId196"/>
+    <hyperlink ref="B216" r:id="rId197"/>
+    <hyperlink ref="B217" r:id="rId198"/>
+    <hyperlink ref="B218" r:id="rId199"/>
+    <hyperlink ref="B219" r:id="rId200"/>
+    <hyperlink ref="B220" r:id="rId201"/>
+    <hyperlink ref="B221" r:id="rId202"/>
+    <hyperlink ref="B222" r:id="rId203"/>
+    <hyperlink ref="B223" r:id="rId204"/>
+    <hyperlink ref="B224" r:id="rId205"/>
+    <hyperlink ref="B225" r:id="rId206"/>
+    <hyperlink ref="B226" r:id="rId207"/>
+    <hyperlink ref="B227" r:id="rId208"/>
+    <hyperlink ref="B228" r:id="rId209"/>
+    <hyperlink ref="B229" r:id="rId210"/>
+    <hyperlink ref="B230" r:id="rId211"/>
+    <hyperlink ref="B231" r:id="rId212"/>
+    <hyperlink ref="B232" r:id="rId213"/>
+    <hyperlink ref="B233" r:id="rId214"/>
+    <hyperlink ref="B234" r:id="rId215"/>
+    <hyperlink ref="B235" r:id="rId216"/>
+    <hyperlink ref="B238" r:id="rId217"/>
+    <hyperlink ref="B239" r:id="rId218"/>
+    <hyperlink ref="B240" r:id="rId219"/>
+    <hyperlink ref="B241" r:id="rId220"/>
+    <hyperlink ref="B242" r:id="rId221"/>
+    <hyperlink ref="B243" r:id="rId222"/>
+    <hyperlink ref="B244" r:id="rId223"/>
+    <hyperlink ref="B245" r:id="rId224"/>
+    <hyperlink ref="B246" r:id="rId225"/>
+    <hyperlink ref="B247" r:id="rId226"/>
+    <hyperlink ref="B248" r:id="rId227"/>
+    <hyperlink ref="B249" r:id="rId228"/>
+    <hyperlink ref="B250" r:id="rId229"/>
+    <hyperlink ref="B251" r:id="rId230"/>
+    <hyperlink ref="B252" r:id="rId231"/>
+    <hyperlink ref="B253" r:id="rId232"/>
+    <hyperlink ref="B254" r:id="rId233"/>
+    <hyperlink ref="B255" r:id="rId234"/>
+    <hyperlink ref="B256" r:id="rId235"/>
+    <hyperlink ref="B257" r:id="rId236" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S."/>
+    <hyperlink ref="B258" r:id="rId237"/>
+    <hyperlink ref="B259" r:id="rId238"/>
+    <hyperlink ref="B260" r:id="rId239"/>
+    <hyperlink ref="B261" r:id="rId240"/>
+    <hyperlink ref="B262" r:id="rId241"/>
+    <hyperlink ref="B263" r:id="rId242"/>
+    <hyperlink ref="B264" r:id="rId243"/>
+    <hyperlink ref="B265" r:id="rId244"/>
+    <hyperlink ref="B266" r:id="rId245"/>
+    <hyperlink ref="B267" r:id="rId246"/>
+    <hyperlink ref="B268" r:id="rId247"/>
+    <hyperlink ref="B269" r:id="rId248"/>
+    <hyperlink ref="B270" r:id="rId249"/>
+    <hyperlink ref="B271" r:id="rId250"/>
+    <hyperlink ref="B272" r:id="rId251"/>
+    <hyperlink ref="B275" r:id="rId252"/>
+    <hyperlink ref="B276" r:id="rId253"/>
+    <hyperlink ref="B277" r:id="rId254"/>
+    <hyperlink ref="B278" r:id="rId255"/>
+    <hyperlink ref="B279" r:id="rId256"/>
+    <hyperlink ref="B280" r:id="rId257"/>
+    <hyperlink ref="B281" r:id="rId258"/>
+    <hyperlink ref="B282" r:id="rId259"/>
+    <hyperlink ref="B283" r:id="rId260"/>
+    <hyperlink ref="B284" r:id="rId261"/>
+    <hyperlink ref="B285" r:id="rId262"/>
+    <hyperlink ref="B286" r:id="rId263"/>
+    <hyperlink ref="B287" r:id="rId264"/>
+    <hyperlink ref="B288" r:id="rId265"/>
+    <hyperlink ref="B289" r:id="rId266"/>
+    <hyperlink ref="B290" r:id="rId267"/>
+    <hyperlink ref="B291" r:id="rId268"/>
+    <hyperlink ref="B292" r:id="rId269"/>
+    <hyperlink ref="B293" r:id="rId270"/>
+    <hyperlink ref="B296" r:id="rId271"/>
+    <hyperlink ref="B297" r:id="rId272"/>
+    <hyperlink ref="B298" r:id="rId273"/>
+    <hyperlink ref="B299" r:id="rId274"/>
+    <hyperlink ref="B300" r:id="rId275"/>
+    <hyperlink ref="B301" r:id="rId276"/>
+    <hyperlink ref="B302" r:id="rId277"/>
+    <hyperlink ref="B303" r:id="rId278"/>
+    <hyperlink ref="B304" r:id="rId279"/>
+    <hyperlink ref="B305" r:id="rId280"/>
+    <hyperlink ref="B306" r:id="rId281" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)."/>
+    <hyperlink ref="B307" r:id="rId282"/>
+    <hyperlink ref="B308" r:id="rId283"/>
+    <hyperlink ref="B309" r:id="rId284"/>
+    <hyperlink ref="B310" r:id="rId285"/>
+    <hyperlink ref="B311" r:id="rId286"/>
+    <hyperlink ref="B312" r:id="rId287"/>
+    <hyperlink ref="B313" r:id="rId288"/>
+    <hyperlink ref="B314" r:id="rId289"/>
+    <hyperlink ref="B315" r:id="rId290"/>
+    <hyperlink ref="B316" r:id="rId291"/>
+    <hyperlink ref="B317" r:id="rId292"/>
+    <hyperlink ref="B318" r:id="rId293"/>
+    <hyperlink ref="B319" r:id="rId294"/>
+    <hyperlink ref="B320" r:id="rId295"/>
+    <hyperlink ref="B321" r:id="rId296"/>
+    <hyperlink ref="B322" r:id="rId297"/>
+    <hyperlink ref="B323" r:id="rId298"/>
+    <hyperlink ref="B324" r:id="rId299"/>
+    <hyperlink ref="B325" r:id="rId300"/>
+    <hyperlink ref="B326" r:id="rId301"/>
+    <hyperlink ref="B327" r:id="rId302"/>
+    <hyperlink ref="B328" r:id="rId303"/>
+    <hyperlink ref="B329" r:id="rId304"/>
+    <hyperlink ref="B330" r:id="rId305"/>
+    <hyperlink ref="B331" r:id="rId306"/>
+    <hyperlink ref="B332" r:id="rId307"/>
+    <hyperlink ref="B333" r:id="rId308"/>
+    <hyperlink ref="B336" r:id="rId309"/>
+    <hyperlink ref="B337" r:id="rId310"/>
+    <hyperlink ref="B338" r:id="rId311"/>
+    <hyperlink ref="B339" r:id="rId312"/>
+    <hyperlink ref="B340" r:id="rId313"/>
+    <hyperlink ref="B341" r:id="rId314"/>
+    <hyperlink ref="B342" r:id="rId315"/>
+    <hyperlink ref="B343" r:id="rId316"/>
+    <hyperlink ref="B344" r:id="rId317"/>
+    <hyperlink ref="B345" r:id="rId318"/>
+    <hyperlink ref="B346" r:id="rId319"/>
+    <hyperlink ref="B347" r:id="rId320"/>
+    <hyperlink ref="B348" r:id="rId321"/>
+    <hyperlink ref="B349" r:id="rId322"/>
+    <hyperlink ref="B350" r:id="rId323"/>
+    <hyperlink ref="B351" r:id="rId324"/>
+    <hyperlink ref="B352" r:id="rId325"/>
+    <hyperlink ref="B353" r:id="rId326"/>
+    <hyperlink ref="B356" r:id="rId327"/>
+    <hyperlink ref="B357" r:id="rId328"/>
+    <hyperlink ref="B358" r:id="rId329"/>
+    <hyperlink ref="B359" r:id="rId330"/>
+    <hyperlink ref="B360" r:id="rId331"/>
+    <hyperlink ref="B361" r:id="rId332"/>
+    <hyperlink ref="B362" r:id="rId333"/>
+    <hyperlink ref="B363" r:id="rId334"/>
+    <hyperlink ref="B364" r:id="rId335"/>
+    <hyperlink ref="B365" r:id="rId336"/>
+    <hyperlink ref="B366" r:id="rId337"/>
+    <hyperlink ref="B367" r:id="rId338"/>
+    <hyperlink ref="B368" r:id="rId339"/>
+    <hyperlink ref="B369" r:id="rId340"/>
+    <hyperlink ref="B370" r:id="rId341"/>
+    <hyperlink ref="B371" r:id="rId342"/>
+    <hyperlink ref="B372" r:id="rId343"/>
+    <hyperlink ref="B373" r:id="rId344"/>
+    <hyperlink ref="B374" r:id="rId345"/>
+    <hyperlink ref="B375" r:id="rId346"/>
+    <hyperlink ref="B376" r:id="rId347"/>
+    <hyperlink ref="B377" r:id="rId348"/>
+    <hyperlink ref="B378" r:id="rId349"/>
+    <hyperlink ref="B379" r:id="rId350" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color."/>
+    <hyperlink ref="B380" r:id="rId351"/>
+    <hyperlink ref="B381" r:id="rId352"/>
+    <hyperlink ref="B382" r:id="rId353"/>
+    <hyperlink ref="B383" r:id="rId354"/>
+    <hyperlink ref="B384" r:id="rId355"/>
+    <hyperlink ref="B385" r:id="rId356"/>
+    <hyperlink ref="B386" r:id="rId357"/>
+    <hyperlink ref="B387" r:id="rId358"/>
+    <hyperlink ref="B388" r:id="rId359"/>
+    <hyperlink ref="B389" r:id="rId360"/>
+    <hyperlink ref="B390" r:id="rId361"/>
+    <hyperlink ref="B391" r:id="rId362"/>
+    <hyperlink ref="B392" r:id="rId363"/>
+    <hyperlink ref="B393" r:id="rId364"/>
+    <hyperlink ref="B394" r:id="rId365"/>
+    <hyperlink ref="B395" r:id="rId366"/>
+    <hyperlink ref="B396" r:id="rId367"/>
+    <hyperlink ref="B397" r:id="rId368"/>
+    <hyperlink ref="B398" r:id="rId369"/>
+    <hyperlink ref="B399" r:id="rId370"/>
+    <hyperlink ref="B402" r:id="rId371"/>
+    <hyperlink ref="B403" r:id="rId372"/>
+    <hyperlink ref="B404" r:id="rId373"/>
+    <hyperlink ref="B405" r:id="rId374"/>
+    <hyperlink ref="B406" r:id="rId375"/>
+    <hyperlink ref="B407" r:id="rId376"/>
+    <hyperlink ref="B410" r:id="rId377"/>
+    <hyperlink ref="B411" r:id="rId378"/>
+    <hyperlink ref="B412" r:id="rId379"/>
+    <hyperlink ref="B413" r:id="rId380"/>
+    <hyperlink ref="B414" r:id="rId381"/>
+    <hyperlink ref="B415" r:id="rId382"/>
+    <hyperlink ref="B416" r:id="rId383"/>
+    <hyperlink ref="B417" r:id="rId384"/>
+    <hyperlink ref="B418" r:id="rId385"/>
+    <hyperlink ref="B419" r:id="rId386"/>
+    <hyperlink ref="B420" r:id="rId387"/>
+    <hyperlink ref="B421" r:id="rId388"/>
+    <hyperlink ref="B422" r:id="rId389"/>
+    <hyperlink ref="B423" r:id="rId390"/>
+    <hyperlink ref="B424" r:id="rId391"/>
+    <hyperlink ref="B425" r:id="rId392"/>
+    <hyperlink ref="B426" r:id="rId393"/>
+    <hyperlink ref="B427" r:id="rId394"/>
+    <hyperlink ref="B428" r:id="rId395"/>
+    <hyperlink ref="B429" r:id="rId396"/>
+    <hyperlink ref="B430" r:id="rId397"/>
+    <hyperlink ref="B431" r:id="rId398"/>
+    <hyperlink ref="B432" r:id="rId399"/>
+    <hyperlink ref="B433" r:id="rId400"/>
+    <hyperlink ref="B434" r:id="rId401"/>
+    <hyperlink ref="B435" r:id="rId402"/>
+    <hyperlink ref="B436" r:id="rId403"/>
+    <hyperlink ref="B437" r:id="rId404"/>
+    <hyperlink ref="B438" r:id="rId405"/>
+    <hyperlink ref="B439" r:id="rId406"/>
+    <hyperlink ref="B440" r:id="rId407"/>
+    <hyperlink ref="B441" r:id="rId408"/>
+    <hyperlink ref="B442" r:id="rId409"/>
+    <hyperlink ref="B443" r:id="rId410"/>
+    <hyperlink ref="B444" r:id="rId411"/>
+    <hyperlink ref="B445" r:id="rId412"/>
+    <hyperlink ref="B446" r:id="rId413"/>
+    <hyperlink ref="B447" r:id="rId414"/>
+    <hyperlink ref="B448" r:id="rId415"/>
+    <hyperlink ref="B449" r:id="rId416"/>
+    <hyperlink ref="B450" r:id="rId417"/>
+    <hyperlink ref="B451" r:id="rId418"/>
+    <hyperlink ref="B452" r:id="rId419"/>
+    <hyperlink ref="B453" r:id="rId420"/>
+    <hyperlink ref="B454" r:id="rId421"/>
+    <hyperlink ref="B455" r:id="rId422"/>
+    <hyperlink ref="B456" r:id="rId423"/>
+    <hyperlink ref="B457" r:id="rId424"/>
+    <hyperlink ref="B458" r:id="rId425"/>
+    <hyperlink ref="B459" r:id="rId426"/>
+    <hyperlink ref="B460" r:id="rId427"/>
+    <hyperlink ref="B461" r:id="rId428"/>
+    <hyperlink ref="B462" r:id="rId429"/>
+    <hyperlink ref="B463" r:id="rId430"/>
+    <hyperlink ref="B464" r:id="rId431"/>
+    <hyperlink ref="B465" r:id="rId432"/>
+    <hyperlink ref="B466" r:id="rId433"/>
+    <hyperlink ref="B467" r:id="rId434"/>
+    <hyperlink ref="B468" r:id="rId435"/>
+    <hyperlink ref="B469" r:id="rId436"/>
+    <hyperlink ref="B472" r:id="rId437"/>
+    <hyperlink ref="B473" r:id="rId438"/>
+    <hyperlink ref="B474" r:id="rId439"/>
+    <hyperlink ref="B475" r:id="rId440"/>
+    <hyperlink ref="B476" r:id="rId441"/>
+    <hyperlink ref="B477" r:id="rId442"/>
+    <hyperlink ref="B478" r:id="rId443"/>
+    <hyperlink ref="B479" r:id="rId444"/>
+    <hyperlink ref="B480" r:id="rId445" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result."/>
+    <hyperlink ref="B481" r:id="rId446"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/450 DSA.xlsx
+++ b/450 DSA.xlsx
@@ -1886,8 +1886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -2128,7 +2128,7 @@
         <v>28</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="21">
@@ -2150,7 +2150,7 @@
         <v>30</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="21">
@@ -2172,7 +2172,7 @@
         <v>32</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="21">

--- a/450 DSA.xlsx
+++ b/450 DSA.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="470">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1431,6 +1431,9 @@
   </si>
   <si>
     <t>Power Set</t>
+  </si>
+  <si>
+    <t>Strings are objects (string object pool)</t>
   </si>
 </sst>
 </file>
@@ -1886,15 +1889,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="28.5" customWidth="1"/>
     <col min="2" max="2" width="123" customWidth="1"/>
-    <col min="3" max="3" width="27.5" customWidth="1"/>
+    <col min="3" max="3" width="35.59765625" customWidth="1"/>
     <col min="4" max="1025" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2454,7 +2457,7 @@
         <v>59</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="21">
@@ -2465,7 +2468,7 @@
         <v>60</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="21">
@@ -2476,7 +2479,7 @@
         <v>61</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="21">
@@ -2487,7 +2490,7 @@
         <v>62</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>25</v>
+        <v>469</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="21">
@@ -2498,7 +2501,7 @@
         <v>63</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="21">
@@ -7007,403 +7010,403 @@
     <hyperlink ref="B53" r:id="rId47"/>
     <hyperlink ref="B56" r:id="rId48"/>
     <hyperlink ref="B57" r:id="rId49"/>
-    <hyperlink ref="B58" r:id="rId50"/>
-    <hyperlink ref="B60" r:id="rId51"/>
-    <hyperlink ref="B61" r:id="rId52"/>
-    <hyperlink ref="B62" r:id="rId53"/>
-    <hyperlink ref="B63" r:id="rId54"/>
-    <hyperlink ref="B64" r:id="rId55"/>
-    <hyperlink ref="B65" r:id="rId56"/>
-    <hyperlink ref="B66" r:id="rId57"/>
-    <hyperlink ref="B67" r:id="rId58"/>
-    <hyperlink ref="B68" r:id="rId59"/>
-    <hyperlink ref="B69" r:id="rId60"/>
-    <hyperlink ref="B70" r:id="rId61"/>
-    <hyperlink ref="B71" r:id="rId62"/>
-    <hyperlink ref="B72" r:id="rId63"/>
-    <hyperlink ref="B73" r:id="rId64"/>
-    <hyperlink ref="B74" r:id="rId65"/>
-    <hyperlink ref="B75" r:id="rId66"/>
-    <hyperlink ref="B76" r:id="rId67"/>
-    <hyperlink ref="B77" r:id="rId68"/>
-    <hyperlink ref="B78" r:id="rId69"/>
-    <hyperlink ref="B79" r:id="rId70"/>
-    <hyperlink ref="B80" r:id="rId71"/>
-    <hyperlink ref="B81" r:id="rId72"/>
-    <hyperlink ref="B82" r:id="rId73"/>
-    <hyperlink ref="B83" r:id="rId74"/>
-    <hyperlink ref="B84" r:id="rId75"/>
-    <hyperlink ref="B85" r:id="rId76"/>
-    <hyperlink ref="B86" r:id="rId77"/>
-    <hyperlink ref="B87" r:id="rId78"/>
-    <hyperlink ref="B88" r:id="rId79"/>
-    <hyperlink ref="B89" r:id="rId80"/>
-    <hyperlink ref="B90" r:id="rId81"/>
-    <hyperlink ref="B91" r:id="rId82"/>
-    <hyperlink ref="B92" r:id="rId83"/>
-    <hyperlink ref="B93" r:id="rId84"/>
-    <hyperlink ref="B94" r:id="rId85"/>
-    <hyperlink ref="B95" r:id="rId86"/>
-    <hyperlink ref="B96" r:id="rId87"/>
-    <hyperlink ref="B97" r:id="rId88"/>
-    <hyperlink ref="B98" r:id="rId89"/>
-    <hyperlink ref="B101" r:id="rId90"/>
-    <hyperlink ref="B102" r:id="rId91"/>
-    <hyperlink ref="B103" r:id="rId92"/>
-    <hyperlink ref="B104" r:id="rId93"/>
-    <hyperlink ref="B105" r:id="rId94"/>
-    <hyperlink ref="B106" r:id="rId95" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance."/>
-    <hyperlink ref="B107" r:id="rId96"/>
-    <hyperlink ref="B108" r:id="rId97"/>
-    <hyperlink ref="B109" r:id="rId98"/>
-    <hyperlink ref="B110" r:id="rId99"/>
-    <hyperlink ref="B111" r:id="rId100"/>
-    <hyperlink ref="B112" r:id="rId101"/>
-    <hyperlink ref="B113" r:id="rId102"/>
-    <hyperlink ref="B114" r:id="rId103"/>
-    <hyperlink ref="B115" r:id="rId104"/>
-    <hyperlink ref="B116" r:id="rId105"/>
-    <hyperlink ref="B117" r:id="rId106"/>
-    <hyperlink ref="B118" r:id="rId107"/>
-    <hyperlink ref="B119" r:id="rId108"/>
-    <hyperlink ref="B120" r:id="rId109"/>
-    <hyperlink ref="B121" r:id="rId110"/>
-    <hyperlink ref="B122" r:id="rId111"/>
-    <hyperlink ref="B123" r:id="rId112"/>
-    <hyperlink ref="B124" r:id="rId113"/>
-    <hyperlink ref="B125" r:id="rId114"/>
-    <hyperlink ref="B126" r:id="rId115"/>
-    <hyperlink ref="B127" r:id="rId116"/>
-    <hyperlink ref="B128" r:id="rId117"/>
-    <hyperlink ref="B129" r:id="rId118"/>
-    <hyperlink ref="B130" r:id="rId119"/>
-    <hyperlink ref="B131" r:id="rId120"/>
-    <hyperlink ref="B132" r:id="rId121"/>
-    <hyperlink ref="B133" r:id="rId122"/>
-    <hyperlink ref="B134" r:id="rId123"/>
-    <hyperlink ref="B135" r:id="rId124"/>
-    <hyperlink ref="B136" r:id="rId125"/>
-    <hyperlink ref="B139" r:id="rId126"/>
-    <hyperlink ref="B140" r:id="rId127"/>
-    <hyperlink ref="B141" r:id="rId128"/>
-    <hyperlink ref="B142" r:id="rId129"/>
-    <hyperlink ref="B143" r:id="rId130"/>
-    <hyperlink ref="B144" r:id="rId131"/>
-    <hyperlink ref="B145" r:id="rId132"/>
-    <hyperlink ref="B146" r:id="rId133"/>
-    <hyperlink ref="B147" r:id="rId134"/>
-    <hyperlink ref="B148" r:id="rId135"/>
-    <hyperlink ref="B149" r:id="rId136"/>
-    <hyperlink ref="B150" r:id="rId137"/>
-    <hyperlink ref="B151" r:id="rId138"/>
-    <hyperlink ref="B152" r:id="rId139"/>
-    <hyperlink ref="B153" r:id="rId140"/>
-    <hyperlink ref="B154" r:id="rId141"/>
-    <hyperlink ref="B155" r:id="rId142"/>
-    <hyperlink ref="B156" r:id="rId143"/>
-    <hyperlink ref="B157" r:id="rId144"/>
-    <hyperlink ref="B158" r:id="rId145"/>
-    <hyperlink ref="B159" r:id="rId146"/>
-    <hyperlink ref="B160" r:id="rId147"/>
-    <hyperlink ref="B161" r:id="rId148"/>
-    <hyperlink ref="B162" r:id="rId149"/>
-    <hyperlink ref="B163" r:id="rId150"/>
-    <hyperlink ref="B166" r:id="rId151"/>
-    <hyperlink ref="B167" r:id="rId152"/>
-    <hyperlink ref="B168" r:id="rId153"/>
-    <hyperlink ref="B169" r:id="rId154"/>
-    <hyperlink ref="B170" r:id="rId155"/>
-    <hyperlink ref="B171" r:id="rId156"/>
-    <hyperlink ref="B172" r:id="rId157"/>
-    <hyperlink ref="B173" r:id="rId158"/>
-    <hyperlink ref="B174" r:id="rId159"/>
-    <hyperlink ref="B177" r:id="rId160"/>
-    <hyperlink ref="B178" r:id="rId161"/>
-    <hyperlink ref="B179" r:id="rId162"/>
-    <hyperlink ref="B180" r:id="rId163"/>
-    <hyperlink ref="B181" r:id="rId164"/>
-    <hyperlink ref="B182" r:id="rId165"/>
-    <hyperlink ref="B183" r:id="rId166"/>
-    <hyperlink ref="B184" r:id="rId167"/>
-    <hyperlink ref="B185" r:id="rId168"/>
-    <hyperlink ref="B186" r:id="rId169"/>
-    <hyperlink ref="B187" r:id="rId170"/>
-    <hyperlink ref="B188" r:id="rId171"/>
-    <hyperlink ref="B189" r:id="rId172"/>
-    <hyperlink ref="B190" r:id="rId173"/>
-    <hyperlink ref="B191" r:id="rId174"/>
-    <hyperlink ref="B192" r:id="rId175"/>
-    <hyperlink ref="B193" r:id="rId176"/>
-    <hyperlink ref="B194" r:id="rId177"/>
-    <hyperlink ref="B195" r:id="rId178"/>
-    <hyperlink ref="B196" r:id="rId179"/>
-    <hyperlink ref="B197" r:id="rId180" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010."/>
-    <hyperlink ref="B198" r:id="rId181"/>
-    <hyperlink ref="B199" r:id="rId182"/>
-    <hyperlink ref="B200" r:id="rId183"/>
-    <hyperlink ref="B201" r:id="rId184"/>
-    <hyperlink ref="B202" r:id="rId185"/>
-    <hyperlink ref="B203" r:id="rId186" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not."/>
-    <hyperlink ref="B204" r:id="rId187"/>
-    <hyperlink ref="B205" r:id="rId188"/>
-    <hyperlink ref="B206" r:id="rId189"/>
-    <hyperlink ref="B207" r:id="rId190"/>
-    <hyperlink ref="B208" r:id="rId191"/>
-    <hyperlink ref="B209" r:id="rId192"/>
-    <hyperlink ref="B210" r:id="rId193"/>
-    <hyperlink ref="B211" r:id="rId194"/>
-    <hyperlink ref="B214" r:id="rId195"/>
-    <hyperlink ref="B215" r:id="rId196"/>
-    <hyperlink ref="B216" r:id="rId197"/>
-    <hyperlink ref="B217" r:id="rId198"/>
-    <hyperlink ref="B218" r:id="rId199"/>
-    <hyperlink ref="B219" r:id="rId200"/>
-    <hyperlink ref="B220" r:id="rId201"/>
-    <hyperlink ref="B221" r:id="rId202"/>
-    <hyperlink ref="B222" r:id="rId203"/>
-    <hyperlink ref="B223" r:id="rId204"/>
-    <hyperlink ref="B224" r:id="rId205"/>
-    <hyperlink ref="B225" r:id="rId206"/>
-    <hyperlink ref="B226" r:id="rId207"/>
-    <hyperlink ref="B227" r:id="rId208"/>
-    <hyperlink ref="B228" r:id="rId209"/>
-    <hyperlink ref="B229" r:id="rId210"/>
-    <hyperlink ref="B230" r:id="rId211"/>
-    <hyperlink ref="B231" r:id="rId212"/>
-    <hyperlink ref="B232" r:id="rId213"/>
-    <hyperlink ref="B233" r:id="rId214"/>
-    <hyperlink ref="B234" r:id="rId215"/>
-    <hyperlink ref="B235" r:id="rId216"/>
-    <hyperlink ref="B238" r:id="rId217"/>
-    <hyperlink ref="B239" r:id="rId218"/>
-    <hyperlink ref="B240" r:id="rId219"/>
-    <hyperlink ref="B241" r:id="rId220"/>
-    <hyperlink ref="B242" r:id="rId221"/>
-    <hyperlink ref="B243" r:id="rId222"/>
-    <hyperlink ref="B244" r:id="rId223"/>
-    <hyperlink ref="B245" r:id="rId224"/>
-    <hyperlink ref="B246" r:id="rId225"/>
-    <hyperlink ref="B247" r:id="rId226"/>
-    <hyperlink ref="B248" r:id="rId227"/>
-    <hyperlink ref="B249" r:id="rId228"/>
-    <hyperlink ref="B250" r:id="rId229"/>
-    <hyperlink ref="B251" r:id="rId230"/>
-    <hyperlink ref="B252" r:id="rId231"/>
-    <hyperlink ref="B253" r:id="rId232"/>
-    <hyperlink ref="B254" r:id="rId233"/>
-    <hyperlink ref="B255" r:id="rId234"/>
-    <hyperlink ref="B256" r:id="rId235"/>
-    <hyperlink ref="B257" r:id="rId236" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S."/>
-    <hyperlink ref="B258" r:id="rId237"/>
-    <hyperlink ref="B259" r:id="rId238"/>
-    <hyperlink ref="B260" r:id="rId239"/>
-    <hyperlink ref="B261" r:id="rId240"/>
-    <hyperlink ref="B262" r:id="rId241"/>
-    <hyperlink ref="B263" r:id="rId242"/>
-    <hyperlink ref="B264" r:id="rId243"/>
-    <hyperlink ref="B265" r:id="rId244"/>
-    <hyperlink ref="B266" r:id="rId245"/>
-    <hyperlink ref="B267" r:id="rId246"/>
-    <hyperlink ref="B268" r:id="rId247"/>
-    <hyperlink ref="B269" r:id="rId248"/>
-    <hyperlink ref="B270" r:id="rId249"/>
-    <hyperlink ref="B271" r:id="rId250"/>
-    <hyperlink ref="B272" r:id="rId251"/>
-    <hyperlink ref="B275" r:id="rId252"/>
-    <hyperlink ref="B276" r:id="rId253"/>
-    <hyperlink ref="B277" r:id="rId254"/>
-    <hyperlink ref="B278" r:id="rId255"/>
-    <hyperlink ref="B279" r:id="rId256"/>
-    <hyperlink ref="B280" r:id="rId257"/>
-    <hyperlink ref="B281" r:id="rId258"/>
-    <hyperlink ref="B282" r:id="rId259"/>
-    <hyperlink ref="B283" r:id="rId260"/>
-    <hyperlink ref="B284" r:id="rId261"/>
-    <hyperlink ref="B285" r:id="rId262"/>
-    <hyperlink ref="B286" r:id="rId263"/>
-    <hyperlink ref="B287" r:id="rId264"/>
-    <hyperlink ref="B288" r:id="rId265"/>
-    <hyperlink ref="B289" r:id="rId266"/>
-    <hyperlink ref="B290" r:id="rId267"/>
-    <hyperlink ref="B291" r:id="rId268"/>
-    <hyperlink ref="B292" r:id="rId269"/>
-    <hyperlink ref="B293" r:id="rId270"/>
-    <hyperlink ref="B296" r:id="rId271"/>
-    <hyperlink ref="B297" r:id="rId272"/>
-    <hyperlink ref="B298" r:id="rId273"/>
-    <hyperlink ref="B299" r:id="rId274"/>
-    <hyperlink ref="B300" r:id="rId275"/>
-    <hyperlink ref="B301" r:id="rId276"/>
-    <hyperlink ref="B302" r:id="rId277"/>
-    <hyperlink ref="B303" r:id="rId278"/>
-    <hyperlink ref="B304" r:id="rId279"/>
-    <hyperlink ref="B305" r:id="rId280"/>
-    <hyperlink ref="B306" r:id="rId281" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)."/>
-    <hyperlink ref="B307" r:id="rId282"/>
-    <hyperlink ref="B308" r:id="rId283"/>
-    <hyperlink ref="B309" r:id="rId284"/>
-    <hyperlink ref="B310" r:id="rId285"/>
-    <hyperlink ref="B311" r:id="rId286"/>
-    <hyperlink ref="B312" r:id="rId287"/>
-    <hyperlink ref="B313" r:id="rId288"/>
-    <hyperlink ref="B314" r:id="rId289"/>
-    <hyperlink ref="B315" r:id="rId290"/>
-    <hyperlink ref="B316" r:id="rId291"/>
-    <hyperlink ref="B317" r:id="rId292"/>
-    <hyperlink ref="B318" r:id="rId293"/>
-    <hyperlink ref="B319" r:id="rId294"/>
-    <hyperlink ref="B320" r:id="rId295"/>
-    <hyperlink ref="B321" r:id="rId296"/>
-    <hyperlink ref="B322" r:id="rId297"/>
-    <hyperlink ref="B323" r:id="rId298"/>
-    <hyperlink ref="B324" r:id="rId299"/>
-    <hyperlink ref="B325" r:id="rId300"/>
-    <hyperlink ref="B326" r:id="rId301"/>
-    <hyperlink ref="B327" r:id="rId302"/>
-    <hyperlink ref="B328" r:id="rId303"/>
-    <hyperlink ref="B329" r:id="rId304"/>
-    <hyperlink ref="B330" r:id="rId305"/>
-    <hyperlink ref="B331" r:id="rId306"/>
-    <hyperlink ref="B332" r:id="rId307"/>
-    <hyperlink ref="B333" r:id="rId308"/>
-    <hyperlink ref="B336" r:id="rId309"/>
-    <hyperlink ref="B337" r:id="rId310"/>
-    <hyperlink ref="B338" r:id="rId311"/>
-    <hyperlink ref="B339" r:id="rId312"/>
-    <hyperlink ref="B340" r:id="rId313"/>
-    <hyperlink ref="B341" r:id="rId314"/>
-    <hyperlink ref="B342" r:id="rId315"/>
-    <hyperlink ref="B343" r:id="rId316"/>
-    <hyperlink ref="B344" r:id="rId317"/>
-    <hyperlink ref="B345" r:id="rId318"/>
-    <hyperlink ref="B346" r:id="rId319"/>
-    <hyperlink ref="B347" r:id="rId320"/>
-    <hyperlink ref="B348" r:id="rId321"/>
-    <hyperlink ref="B349" r:id="rId322"/>
-    <hyperlink ref="B350" r:id="rId323"/>
-    <hyperlink ref="B351" r:id="rId324"/>
-    <hyperlink ref="B352" r:id="rId325"/>
-    <hyperlink ref="B353" r:id="rId326"/>
-    <hyperlink ref="B356" r:id="rId327"/>
-    <hyperlink ref="B357" r:id="rId328"/>
-    <hyperlink ref="B358" r:id="rId329"/>
-    <hyperlink ref="B359" r:id="rId330"/>
-    <hyperlink ref="B360" r:id="rId331"/>
-    <hyperlink ref="B361" r:id="rId332"/>
-    <hyperlink ref="B362" r:id="rId333"/>
-    <hyperlink ref="B363" r:id="rId334"/>
-    <hyperlink ref="B364" r:id="rId335"/>
-    <hyperlink ref="B365" r:id="rId336"/>
-    <hyperlink ref="B366" r:id="rId337"/>
-    <hyperlink ref="B367" r:id="rId338"/>
-    <hyperlink ref="B368" r:id="rId339"/>
-    <hyperlink ref="B369" r:id="rId340"/>
-    <hyperlink ref="B370" r:id="rId341"/>
-    <hyperlink ref="B371" r:id="rId342"/>
-    <hyperlink ref="B372" r:id="rId343"/>
-    <hyperlink ref="B373" r:id="rId344"/>
-    <hyperlink ref="B374" r:id="rId345"/>
-    <hyperlink ref="B375" r:id="rId346"/>
-    <hyperlink ref="B376" r:id="rId347"/>
-    <hyperlink ref="B377" r:id="rId348"/>
-    <hyperlink ref="B378" r:id="rId349"/>
-    <hyperlink ref="B379" r:id="rId350" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color."/>
-    <hyperlink ref="B380" r:id="rId351"/>
-    <hyperlink ref="B381" r:id="rId352"/>
-    <hyperlink ref="B382" r:id="rId353"/>
-    <hyperlink ref="B383" r:id="rId354"/>
-    <hyperlink ref="B384" r:id="rId355"/>
-    <hyperlink ref="B385" r:id="rId356"/>
-    <hyperlink ref="B386" r:id="rId357"/>
-    <hyperlink ref="B387" r:id="rId358"/>
-    <hyperlink ref="B388" r:id="rId359"/>
-    <hyperlink ref="B389" r:id="rId360"/>
-    <hyperlink ref="B390" r:id="rId361"/>
-    <hyperlink ref="B391" r:id="rId362"/>
-    <hyperlink ref="B392" r:id="rId363"/>
-    <hyperlink ref="B393" r:id="rId364"/>
-    <hyperlink ref="B394" r:id="rId365"/>
-    <hyperlink ref="B395" r:id="rId366"/>
-    <hyperlink ref="B396" r:id="rId367"/>
-    <hyperlink ref="B397" r:id="rId368"/>
-    <hyperlink ref="B398" r:id="rId369"/>
-    <hyperlink ref="B399" r:id="rId370"/>
-    <hyperlink ref="B402" r:id="rId371"/>
-    <hyperlink ref="B403" r:id="rId372"/>
-    <hyperlink ref="B404" r:id="rId373"/>
-    <hyperlink ref="B405" r:id="rId374"/>
-    <hyperlink ref="B406" r:id="rId375"/>
-    <hyperlink ref="B407" r:id="rId376"/>
-    <hyperlink ref="B410" r:id="rId377"/>
-    <hyperlink ref="B411" r:id="rId378"/>
-    <hyperlink ref="B412" r:id="rId379"/>
-    <hyperlink ref="B413" r:id="rId380"/>
-    <hyperlink ref="B414" r:id="rId381"/>
-    <hyperlink ref="B415" r:id="rId382"/>
-    <hyperlink ref="B416" r:id="rId383"/>
-    <hyperlink ref="B417" r:id="rId384"/>
-    <hyperlink ref="B418" r:id="rId385"/>
-    <hyperlink ref="B419" r:id="rId386"/>
-    <hyperlink ref="B420" r:id="rId387"/>
-    <hyperlink ref="B421" r:id="rId388"/>
-    <hyperlink ref="B422" r:id="rId389"/>
-    <hyperlink ref="B423" r:id="rId390"/>
-    <hyperlink ref="B424" r:id="rId391"/>
-    <hyperlink ref="B425" r:id="rId392"/>
-    <hyperlink ref="B426" r:id="rId393"/>
-    <hyperlink ref="B427" r:id="rId394"/>
-    <hyperlink ref="B428" r:id="rId395"/>
-    <hyperlink ref="B429" r:id="rId396"/>
-    <hyperlink ref="B430" r:id="rId397"/>
-    <hyperlink ref="B431" r:id="rId398"/>
-    <hyperlink ref="B432" r:id="rId399"/>
-    <hyperlink ref="B433" r:id="rId400"/>
-    <hyperlink ref="B434" r:id="rId401"/>
-    <hyperlink ref="B435" r:id="rId402"/>
-    <hyperlink ref="B436" r:id="rId403"/>
-    <hyperlink ref="B437" r:id="rId404"/>
-    <hyperlink ref="B438" r:id="rId405"/>
-    <hyperlink ref="B439" r:id="rId406"/>
-    <hyperlink ref="B440" r:id="rId407"/>
-    <hyperlink ref="B441" r:id="rId408"/>
-    <hyperlink ref="B442" r:id="rId409"/>
-    <hyperlink ref="B443" r:id="rId410"/>
-    <hyperlink ref="B444" r:id="rId411"/>
-    <hyperlink ref="B445" r:id="rId412"/>
-    <hyperlink ref="B446" r:id="rId413"/>
-    <hyperlink ref="B447" r:id="rId414"/>
-    <hyperlink ref="B448" r:id="rId415"/>
-    <hyperlink ref="B449" r:id="rId416"/>
-    <hyperlink ref="B450" r:id="rId417"/>
-    <hyperlink ref="B451" r:id="rId418"/>
-    <hyperlink ref="B452" r:id="rId419"/>
-    <hyperlink ref="B453" r:id="rId420"/>
-    <hyperlink ref="B454" r:id="rId421"/>
-    <hyperlink ref="B455" r:id="rId422"/>
-    <hyperlink ref="B456" r:id="rId423"/>
-    <hyperlink ref="B457" r:id="rId424"/>
-    <hyperlink ref="B458" r:id="rId425"/>
-    <hyperlink ref="B459" r:id="rId426"/>
-    <hyperlink ref="B460" r:id="rId427"/>
-    <hyperlink ref="B461" r:id="rId428"/>
-    <hyperlink ref="B462" r:id="rId429"/>
-    <hyperlink ref="B463" r:id="rId430"/>
-    <hyperlink ref="B464" r:id="rId431"/>
-    <hyperlink ref="B465" r:id="rId432"/>
-    <hyperlink ref="B466" r:id="rId433"/>
-    <hyperlink ref="B467" r:id="rId434"/>
-    <hyperlink ref="B468" r:id="rId435"/>
-    <hyperlink ref="B469" r:id="rId436"/>
-    <hyperlink ref="B472" r:id="rId437"/>
-    <hyperlink ref="B473" r:id="rId438"/>
-    <hyperlink ref="B474" r:id="rId439"/>
-    <hyperlink ref="B475" r:id="rId440"/>
-    <hyperlink ref="B476" r:id="rId441"/>
-    <hyperlink ref="B477" r:id="rId442"/>
-    <hyperlink ref="B478" r:id="rId443"/>
-    <hyperlink ref="B479" r:id="rId444"/>
-    <hyperlink ref="B480" r:id="rId445" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result."/>
-    <hyperlink ref="B481" r:id="rId446"/>
+    <hyperlink ref="B60" r:id="rId50"/>
+    <hyperlink ref="B61" r:id="rId51"/>
+    <hyperlink ref="B62" r:id="rId52"/>
+    <hyperlink ref="B63" r:id="rId53"/>
+    <hyperlink ref="B64" r:id="rId54"/>
+    <hyperlink ref="B65" r:id="rId55"/>
+    <hyperlink ref="B66" r:id="rId56"/>
+    <hyperlink ref="B67" r:id="rId57"/>
+    <hyperlink ref="B68" r:id="rId58"/>
+    <hyperlink ref="B69" r:id="rId59"/>
+    <hyperlink ref="B70" r:id="rId60"/>
+    <hyperlink ref="B71" r:id="rId61"/>
+    <hyperlink ref="B72" r:id="rId62"/>
+    <hyperlink ref="B73" r:id="rId63"/>
+    <hyperlink ref="B74" r:id="rId64"/>
+    <hyperlink ref="B75" r:id="rId65"/>
+    <hyperlink ref="B76" r:id="rId66"/>
+    <hyperlink ref="B77" r:id="rId67"/>
+    <hyperlink ref="B78" r:id="rId68"/>
+    <hyperlink ref="B79" r:id="rId69"/>
+    <hyperlink ref="B80" r:id="rId70"/>
+    <hyperlink ref="B81" r:id="rId71"/>
+    <hyperlink ref="B82" r:id="rId72"/>
+    <hyperlink ref="B83" r:id="rId73"/>
+    <hyperlink ref="B84" r:id="rId74"/>
+    <hyperlink ref="B85" r:id="rId75"/>
+    <hyperlink ref="B86" r:id="rId76"/>
+    <hyperlink ref="B87" r:id="rId77"/>
+    <hyperlink ref="B88" r:id="rId78"/>
+    <hyperlink ref="B89" r:id="rId79"/>
+    <hyperlink ref="B90" r:id="rId80"/>
+    <hyperlink ref="B91" r:id="rId81"/>
+    <hyperlink ref="B92" r:id="rId82"/>
+    <hyperlink ref="B93" r:id="rId83"/>
+    <hyperlink ref="B94" r:id="rId84"/>
+    <hyperlink ref="B95" r:id="rId85"/>
+    <hyperlink ref="B96" r:id="rId86"/>
+    <hyperlink ref="B97" r:id="rId87"/>
+    <hyperlink ref="B98" r:id="rId88"/>
+    <hyperlink ref="B101" r:id="rId89"/>
+    <hyperlink ref="B102" r:id="rId90"/>
+    <hyperlink ref="B103" r:id="rId91"/>
+    <hyperlink ref="B104" r:id="rId92"/>
+    <hyperlink ref="B105" r:id="rId93"/>
+    <hyperlink ref="B106" r:id="rId94" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance."/>
+    <hyperlink ref="B107" r:id="rId95"/>
+    <hyperlink ref="B108" r:id="rId96"/>
+    <hyperlink ref="B109" r:id="rId97"/>
+    <hyperlink ref="B110" r:id="rId98"/>
+    <hyperlink ref="B111" r:id="rId99"/>
+    <hyperlink ref="B112" r:id="rId100"/>
+    <hyperlink ref="B113" r:id="rId101"/>
+    <hyperlink ref="B114" r:id="rId102"/>
+    <hyperlink ref="B115" r:id="rId103"/>
+    <hyperlink ref="B116" r:id="rId104"/>
+    <hyperlink ref="B117" r:id="rId105"/>
+    <hyperlink ref="B118" r:id="rId106"/>
+    <hyperlink ref="B119" r:id="rId107"/>
+    <hyperlink ref="B120" r:id="rId108"/>
+    <hyperlink ref="B121" r:id="rId109"/>
+    <hyperlink ref="B122" r:id="rId110"/>
+    <hyperlink ref="B123" r:id="rId111"/>
+    <hyperlink ref="B124" r:id="rId112"/>
+    <hyperlink ref="B125" r:id="rId113"/>
+    <hyperlink ref="B126" r:id="rId114"/>
+    <hyperlink ref="B127" r:id="rId115"/>
+    <hyperlink ref="B128" r:id="rId116"/>
+    <hyperlink ref="B129" r:id="rId117"/>
+    <hyperlink ref="B130" r:id="rId118"/>
+    <hyperlink ref="B131" r:id="rId119"/>
+    <hyperlink ref="B132" r:id="rId120"/>
+    <hyperlink ref="B133" r:id="rId121"/>
+    <hyperlink ref="B134" r:id="rId122"/>
+    <hyperlink ref="B135" r:id="rId123"/>
+    <hyperlink ref="B136" r:id="rId124"/>
+    <hyperlink ref="B139" r:id="rId125"/>
+    <hyperlink ref="B140" r:id="rId126"/>
+    <hyperlink ref="B141" r:id="rId127"/>
+    <hyperlink ref="B142" r:id="rId128"/>
+    <hyperlink ref="B143" r:id="rId129"/>
+    <hyperlink ref="B144" r:id="rId130"/>
+    <hyperlink ref="B145" r:id="rId131"/>
+    <hyperlink ref="B146" r:id="rId132"/>
+    <hyperlink ref="B147" r:id="rId133"/>
+    <hyperlink ref="B148" r:id="rId134"/>
+    <hyperlink ref="B149" r:id="rId135"/>
+    <hyperlink ref="B150" r:id="rId136"/>
+    <hyperlink ref="B151" r:id="rId137"/>
+    <hyperlink ref="B152" r:id="rId138"/>
+    <hyperlink ref="B153" r:id="rId139"/>
+    <hyperlink ref="B154" r:id="rId140"/>
+    <hyperlink ref="B155" r:id="rId141"/>
+    <hyperlink ref="B156" r:id="rId142"/>
+    <hyperlink ref="B157" r:id="rId143"/>
+    <hyperlink ref="B158" r:id="rId144"/>
+    <hyperlink ref="B159" r:id="rId145"/>
+    <hyperlink ref="B160" r:id="rId146"/>
+    <hyperlink ref="B161" r:id="rId147"/>
+    <hyperlink ref="B162" r:id="rId148"/>
+    <hyperlink ref="B163" r:id="rId149"/>
+    <hyperlink ref="B166" r:id="rId150"/>
+    <hyperlink ref="B167" r:id="rId151"/>
+    <hyperlink ref="B168" r:id="rId152"/>
+    <hyperlink ref="B169" r:id="rId153"/>
+    <hyperlink ref="B170" r:id="rId154"/>
+    <hyperlink ref="B171" r:id="rId155"/>
+    <hyperlink ref="B172" r:id="rId156"/>
+    <hyperlink ref="B173" r:id="rId157"/>
+    <hyperlink ref="B174" r:id="rId158"/>
+    <hyperlink ref="B177" r:id="rId159"/>
+    <hyperlink ref="B178" r:id="rId160"/>
+    <hyperlink ref="B179" r:id="rId161"/>
+    <hyperlink ref="B180" r:id="rId162"/>
+    <hyperlink ref="B181" r:id="rId163"/>
+    <hyperlink ref="B182" r:id="rId164"/>
+    <hyperlink ref="B183" r:id="rId165"/>
+    <hyperlink ref="B184" r:id="rId166"/>
+    <hyperlink ref="B185" r:id="rId167"/>
+    <hyperlink ref="B186" r:id="rId168"/>
+    <hyperlink ref="B187" r:id="rId169"/>
+    <hyperlink ref="B188" r:id="rId170"/>
+    <hyperlink ref="B189" r:id="rId171"/>
+    <hyperlink ref="B190" r:id="rId172"/>
+    <hyperlink ref="B191" r:id="rId173"/>
+    <hyperlink ref="B192" r:id="rId174"/>
+    <hyperlink ref="B193" r:id="rId175"/>
+    <hyperlink ref="B194" r:id="rId176"/>
+    <hyperlink ref="B195" r:id="rId177"/>
+    <hyperlink ref="B196" r:id="rId178"/>
+    <hyperlink ref="B197" r:id="rId179" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010."/>
+    <hyperlink ref="B198" r:id="rId180"/>
+    <hyperlink ref="B199" r:id="rId181"/>
+    <hyperlink ref="B200" r:id="rId182"/>
+    <hyperlink ref="B201" r:id="rId183"/>
+    <hyperlink ref="B202" r:id="rId184"/>
+    <hyperlink ref="B203" r:id="rId185" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not."/>
+    <hyperlink ref="B204" r:id="rId186"/>
+    <hyperlink ref="B205" r:id="rId187"/>
+    <hyperlink ref="B206" r:id="rId188"/>
+    <hyperlink ref="B207" r:id="rId189"/>
+    <hyperlink ref="B208" r:id="rId190"/>
+    <hyperlink ref="B209" r:id="rId191"/>
+    <hyperlink ref="B210" r:id="rId192"/>
+    <hyperlink ref="B211" r:id="rId193"/>
+    <hyperlink ref="B214" r:id="rId194"/>
+    <hyperlink ref="B215" r:id="rId195"/>
+    <hyperlink ref="B216" r:id="rId196"/>
+    <hyperlink ref="B217" r:id="rId197"/>
+    <hyperlink ref="B218" r:id="rId198"/>
+    <hyperlink ref="B219" r:id="rId199"/>
+    <hyperlink ref="B220" r:id="rId200"/>
+    <hyperlink ref="B221" r:id="rId201"/>
+    <hyperlink ref="B222" r:id="rId202"/>
+    <hyperlink ref="B223" r:id="rId203"/>
+    <hyperlink ref="B224" r:id="rId204"/>
+    <hyperlink ref="B225" r:id="rId205"/>
+    <hyperlink ref="B226" r:id="rId206"/>
+    <hyperlink ref="B227" r:id="rId207"/>
+    <hyperlink ref="B228" r:id="rId208"/>
+    <hyperlink ref="B229" r:id="rId209"/>
+    <hyperlink ref="B230" r:id="rId210"/>
+    <hyperlink ref="B231" r:id="rId211"/>
+    <hyperlink ref="B232" r:id="rId212"/>
+    <hyperlink ref="B233" r:id="rId213"/>
+    <hyperlink ref="B234" r:id="rId214"/>
+    <hyperlink ref="B235" r:id="rId215"/>
+    <hyperlink ref="B238" r:id="rId216"/>
+    <hyperlink ref="B239" r:id="rId217"/>
+    <hyperlink ref="B240" r:id="rId218"/>
+    <hyperlink ref="B241" r:id="rId219"/>
+    <hyperlink ref="B242" r:id="rId220"/>
+    <hyperlink ref="B243" r:id="rId221"/>
+    <hyperlink ref="B244" r:id="rId222"/>
+    <hyperlink ref="B245" r:id="rId223"/>
+    <hyperlink ref="B246" r:id="rId224"/>
+    <hyperlink ref="B247" r:id="rId225"/>
+    <hyperlink ref="B248" r:id="rId226"/>
+    <hyperlink ref="B249" r:id="rId227"/>
+    <hyperlink ref="B250" r:id="rId228"/>
+    <hyperlink ref="B251" r:id="rId229"/>
+    <hyperlink ref="B252" r:id="rId230"/>
+    <hyperlink ref="B253" r:id="rId231"/>
+    <hyperlink ref="B254" r:id="rId232"/>
+    <hyperlink ref="B255" r:id="rId233"/>
+    <hyperlink ref="B256" r:id="rId234"/>
+    <hyperlink ref="B257" r:id="rId235" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S."/>
+    <hyperlink ref="B258" r:id="rId236"/>
+    <hyperlink ref="B259" r:id="rId237"/>
+    <hyperlink ref="B260" r:id="rId238"/>
+    <hyperlink ref="B261" r:id="rId239"/>
+    <hyperlink ref="B262" r:id="rId240"/>
+    <hyperlink ref="B263" r:id="rId241"/>
+    <hyperlink ref="B264" r:id="rId242"/>
+    <hyperlink ref="B265" r:id="rId243"/>
+    <hyperlink ref="B266" r:id="rId244"/>
+    <hyperlink ref="B267" r:id="rId245"/>
+    <hyperlink ref="B268" r:id="rId246"/>
+    <hyperlink ref="B269" r:id="rId247"/>
+    <hyperlink ref="B270" r:id="rId248"/>
+    <hyperlink ref="B271" r:id="rId249"/>
+    <hyperlink ref="B272" r:id="rId250"/>
+    <hyperlink ref="B275" r:id="rId251"/>
+    <hyperlink ref="B276" r:id="rId252"/>
+    <hyperlink ref="B277" r:id="rId253"/>
+    <hyperlink ref="B278" r:id="rId254"/>
+    <hyperlink ref="B279" r:id="rId255"/>
+    <hyperlink ref="B280" r:id="rId256"/>
+    <hyperlink ref="B281" r:id="rId257"/>
+    <hyperlink ref="B282" r:id="rId258"/>
+    <hyperlink ref="B283" r:id="rId259"/>
+    <hyperlink ref="B284" r:id="rId260"/>
+    <hyperlink ref="B285" r:id="rId261"/>
+    <hyperlink ref="B286" r:id="rId262"/>
+    <hyperlink ref="B287" r:id="rId263"/>
+    <hyperlink ref="B288" r:id="rId264"/>
+    <hyperlink ref="B289" r:id="rId265"/>
+    <hyperlink ref="B290" r:id="rId266"/>
+    <hyperlink ref="B291" r:id="rId267"/>
+    <hyperlink ref="B292" r:id="rId268"/>
+    <hyperlink ref="B293" r:id="rId269"/>
+    <hyperlink ref="B296" r:id="rId270"/>
+    <hyperlink ref="B297" r:id="rId271"/>
+    <hyperlink ref="B298" r:id="rId272"/>
+    <hyperlink ref="B299" r:id="rId273"/>
+    <hyperlink ref="B300" r:id="rId274"/>
+    <hyperlink ref="B301" r:id="rId275"/>
+    <hyperlink ref="B302" r:id="rId276"/>
+    <hyperlink ref="B303" r:id="rId277"/>
+    <hyperlink ref="B304" r:id="rId278"/>
+    <hyperlink ref="B305" r:id="rId279"/>
+    <hyperlink ref="B306" r:id="rId280" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)."/>
+    <hyperlink ref="B307" r:id="rId281"/>
+    <hyperlink ref="B308" r:id="rId282"/>
+    <hyperlink ref="B309" r:id="rId283"/>
+    <hyperlink ref="B310" r:id="rId284"/>
+    <hyperlink ref="B311" r:id="rId285"/>
+    <hyperlink ref="B312" r:id="rId286"/>
+    <hyperlink ref="B313" r:id="rId287"/>
+    <hyperlink ref="B314" r:id="rId288"/>
+    <hyperlink ref="B315" r:id="rId289"/>
+    <hyperlink ref="B316" r:id="rId290"/>
+    <hyperlink ref="B317" r:id="rId291"/>
+    <hyperlink ref="B318" r:id="rId292"/>
+    <hyperlink ref="B319" r:id="rId293"/>
+    <hyperlink ref="B320" r:id="rId294"/>
+    <hyperlink ref="B321" r:id="rId295"/>
+    <hyperlink ref="B322" r:id="rId296"/>
+    <hyperlink ref="B323" r:id="rId297"/>
+    <hyperlink ref="B324" r:id="rId298"/>
+    <hyperlink ref="B325" r:id="rId299"/>
+    <hyperlink ref="B326" r:id="rId300"/>
+    <hyperlink ref="B327" r:id="rId301"/>
+    <hyperlink ref="B328" r:id="rId302"/>
+    <hyperlink ref="B329" r:id="rId303"/>
+    <hyperlink ref="B330" r:id="rId304"/>
+    <hyperlink ref="B331" r:id="rId305"/>
+    <hyperlink ref="B332" r:id="rId306"/>
+    <hyperlink ref="B333" r:id="rId307"/>
+    <hyperlink ref="B336" r:id="rId308"/>
+    <hyperlink ref="B337" r:id="rId309"/>
+    <hyperlink ref="B338" r:id="rId310"/>
+    <hyperlink ref="B339" r:id="rId311"/>
+    <hyperlink ref="B340" r:id="rId312"/>
+    <hyperlink ref="B341" r:id="rId313"/>
+    <hyperlink ref="B342" r:id="rId314"/>
+    <hyperlink ref="B343" r:id="rId315"/>
+    <hyperlink ref="B344" r:id="rId316"/>
+    <hyperlink ref="B345" r:id="rId317"/>
+    <hyperlink ref="B346" r:id="rId318"/>
+    <hyperlink ref="B347" r:id="rId319"/>
+    <hyperlink ref="B348" r:id="rId320"/>
+    <hyperlink ref="B349" r:id="rId321"/>
+    <hyperlink ref="B350" r:id="rId322"/>
+    <hyperlink ref="B351" r:id="rId323"/>
+    <hyperlink ref="B352" r:id="rId324"/>
+    <hyperlink ref="B353" r:id="rId325"/>
+    <hyperlink ref="B356" r:id="rId326"/>
+    <hyperlink ref="B357" r:id="rId327"/>
+    <hyperlink ref="B358" r:id="rId328"/>
+    <hyperlink ref="B359" r:id="rId329"/>
+    <hyperlink ref="B360" r:id="rId330"/>
+    <hyperlink ref="B361" r:id="rId331"/>
+    <hyperlink ref="B362" r:id="rId332"/>
+    <hyperlink ref="B363" r:id="rId333"/>
+    <hyperlink ref="B364" r:id="rId334"/>
+    <hyperlink ref="B365" r:id="rId335"/>
+    <hyperlink ref="B366" r:id="rId336"/>
+    <hyperlink ref="B367" r:id="rId337"/>
+    <hyperlink ref="B368" r:id="rId338"/>
+    <hyperlink ref="B369" r:id="rId339"/>
+    <hyperlink ref="B370" r:id="rId340"/>
+    <hyperlink ref="B371" r:id="rId341"/>
+    <hyperlink ref="B372" r:id="rId342"/>
+    <hyperlink ref="B373" r:id="rId343"/>
+    <hyperlink ref="B374" r:id="rId344"/>
+    <hyperlink ref="B375" r:id="rId345"/>
+    <hyperlink ref="B376" r:id="rId346"/>
+    <hyperlink ref="B377" r:id="rId347"/>
+    <hyperlink ref="B378" r:id="rId348"/>
+    <hyperlink ref="B379" r:id="rId349" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color."/>
+    <hyperlink ref="B380" r:id="rId350"/>
+    <hyperlink ref="B381" r:id="rId351"/>
+    <hyperlink ref="B382" r:id="rId352"/>
+    <hyperlink ref="B383" r:id="rId353"/>
+    <hyperlink ref="B384" r:id="rId354"/>
+    <hyperlink ref="B385" r:id="rId355"/>
+    <hyperlink ref="B386" r:id="rId356"/>
+    <hyperlink ref="B387" r:id="rId357"/>
+    <hyperlink ref="B388" r:id="rId358"/>
+    <hyperlink ref="B389" r:id="rId359"/>
+    <hyperlink ref="B390" r:id="rId360"/>
+    <hyperlink ref="B391" r:id="rId361"/>
+    <hyperlink ref="B392" r:id="rId362"/>
+    <hyperlink ref="B393" r:id="rId363"/>
+    <hyperlink ref="B394" r:id="rId364"/>
+    <hyperlink ref="B395" r:id="rId365"/>
+    <hyperlink ref="B396" r:id="rId366"/>
+    <hyperlink ref="B397" r:id="rId367"/>
+    <hyperlink ref="B398" r:id="rId368"/>
+    <hyperlink ref="B399" r:id="rId369"/>
+    <hyperlink ref="B402" r:id="rId370"/>
+    <hyperlink ref="B403" r:id="rId371"/>
+    <hyperlink ref="B404" r:id="rId372"/>
+    <hyperlink ref="B405" r:id="rId373"/>
+    <hyperlink ref="B406" r:id="rId374"/>
+    <hyperlink ref="B407" r:id="rId375"/>
+    <hyperlink ref="B410" r:id="rId376"/>
+    <hyperlink ref="B411" r:id="rId377"/>
+    <hyperlink ref="B412" r:id="rId378"/>
+    <hyperlink ref="B413" r:id="rId379"/>
+    <hyperlink ref="B414" r:id="rId380"/>
+    <hyperlink ref="B415" r:id="rId381"/>
+    <hyperlink ref="B416" r:id="rId382"/>
+    <hyperlink ref="B417" r:id="rId383"/>
+    <hyperlink ref="B418" r:id="rId384"/>
+    <hyperlink ref="B419" r:id="rId385"/>
+    <hyperlink ref="B420" r:id="rId386"/>
+    <hyperlink ref="B421" r:id="rId387"/>
+    <hyperlink ref="B422" r:id="rId388"/>
+    <hyperlink ref="B423" r:id="rId389"/>
+    <hyperlink ref="B424" r:id="rId390"/>
+    <hyperlink ref="B425" r:id="rId391"/>
+    <hyperlink ref="B426" r:id="rId392"/>
+    <hyperlink ref="B427" r:id="rId393"/>
+    <hyperlink ref="B428" r:id="rId394"/>
+    <hyperlink ref="B429" r:id="rId395"/>
+    <hyperlink ref="B430" r:id="rId396"/>
+    <hyperlink ref="B431" r:id="rId397"/>
+    <hyperlink ref="B432" r:id="rId398"/>
+    <hyperlink ref="B433" r:id="rId399"/>
+    <hyperlink ref="B434" r:id="rId400"/>
+    <hyperlink ref="B435" r:id="rId401"/>
+    <hyperlink ref="B436" r:id="rId402"/>
+    <hyperlink ref="B437" r:id="rId403"/>
+    <hyperlink ref="B438" r:id="rId404"/>
+    <hyperlink ref="B439" r:id="rId405"/>
+    <hyperlink ref="B440" r:id="rId406"/>
+    <hyperlink ref="B441" r:id="rId407"/>
+    <hyperlink ref="B442" r:id="rId408"/>
+    <hyperlink ref="B443" r:id="rId409"/>
+    <hyperlink ref="B444" r:id="rId410"/>
+    <hyperlink ref="B445" r:id="rId411"/>
+    <hyperlink ref="B446" r:id="rId412"/>
+    <hyperlink ref="B447" r:id="rId413"/>
+    <hyperlink ref="B448" r:id="rId414"/>
+    <hyperlink ref="B449" r:id="rId415"/>
+    <hyperlink ref="B450" r:id="rId416"/>
+    <hyperlink ref="B451" r:id="rId417"/>
+    <hyperlink ref="B452" r:id="rId418"/>
+    <hyperlink ref="B453" r:id="rId419"/>
+    <hyperlink ref="B454" r:id="rId420"/>
+    <hyperlink ref="B455" r:id="rId421"/>
+    <hyperlink ref="B456" r:id="rId422"/>
+    <hyperlink ref="B457" r:id="rId423"/>
+    <hyperlink ref="B458" r:id="rId424"/>
+    <hyperlink ref="B459" r:id="rId425"/>
+    <hyperlink ref="B460" r:id="rId426"/>
+    <hyperlink ref="B461" r:id="rId427"/>
+    <hyperlink ref="B462" r:id="rId428"/>
+    <hyperlink ref="B463" r:id="rId429"/>
+    <hyperlink ref="B464" r:id="rId430"/>
+    <hyperlink ref="B465" r:id="rId431"/>
+    <hyperlink ref="B466" r:id="rId432"/>
+    <hyperlink ref="B467" r:id="rId433"/>
+    <hyperlink ref="B468" r:id="rId434"/>
+    <hyperlink ref="B469" r:id="rId435"/>
+    <hyperlink ref="B472" r:id="rId436"/>
+    <hyperlink ref="B473" r:id="rId437"/>
+    <hyperlink ref="B474" r:id="rId438"/>
+    <hyperlink ref="B475" r:id="rId439"/>
+    <hyperlink ref="B476" r:id="rId440"/>
+    <hyperlink ref="B477" r:id="rId441"/>
+    <hyperlink ref="B478" r:id="rId442"/>
+    <hyperlink ref="B479" r:id="rId443"/>
+    <hyperlink ref="B480" r:id="rId444" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result."/>
+    <hyperlink ref="B481" r:id="rId445"/>
+    <hyperlink ref="B58" r:id="rId446"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/450 DSA.xlsx
+++ b/450 DSA.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="471">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -77,9 +77,6 @@
     <t>Minimum no. of Jumps to reach end of an array</t>
   </si>
   <si>
-    <t>----------------------</t>
-  </si>
-  <si>
     <t>find duplicate in an array of N+1 Integers</t>
   </si>
   <si>
@@ -1434,6 +1431,12 @@
   </si>
   <si>
     <t>Strings are objects (string object pool)</t>
+  </si>
+  <si>
+    <t>true or false</t>
+  </si>
+  <si>
+    <t>diff (understood)</t>
   </si>
 </sst>
 </file>
@@ -1889,8 +1892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
+    <sheetView tabSelected="1" topLeftCell="A292" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C300" sqref="C300"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -2032,7 +2035,7 @@
         <v>16</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>17</v>
+        <v>469</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="21">
@@ -2040,7 +2043,7 @@
         <v>5</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>7</v>
@@ -2051,10 +2054,10 @@
         <v>5</v>
       </c>
       <c r="B17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="21">
@@ -2062,7 +2065,7 @@
         <v>5</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>7</v>
@@ -2073,7 +2076,7 @@
         <v>5</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>7</v>
@@ -2084,7 +2087,7 @@
         <v>5</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>7</v>
@@ -2095,7 +2098,7 @@
         <v>5</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>7</v>
@@ -2106,7 +2109,7 @@
         <v>5</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>7</v>
@@ -2117,7 +2120,7 @@
         <v>5</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>7</v>
@@ -2128,7 +2131,7 @@
         <v>5</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>7</v>
@@ -2139,10 +2142,10 @@
         <v>5</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="21">
@@ -2150,7 +2153,7 @@
         <v>5</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>7</v>
@@ -2161,10 +2164,10 @@
         <v>5</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="21">
@@ -2172,7 +2175,7 @@
         <v>5</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>7</v>
@@ -2183,10 +2186,10 @@
         <v>5</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="21">
@@ -2194,10 +2197,10 @@
         <v>5</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="21">
@@ -2205,10 +2208,10 @@
         <v>5</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="21">
@@ -2216,10 +2219,10 @@
         <v>5</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="21">
@@ -2227,10 +2230,10 @@
         <v>5</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="21">
@@ -2238,10 +2241,10 @@
         <v>5</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="21">
@@ -2249,10 +2252,10 @@
         <v>5</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="21">
@@ -2260,10 +2263,10 @@
         <v>5</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="21">
@@ -2271,10 +2274,10 @@
         <v>5</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="21">
@@ -2282,10 +2285,10 @@
         <v>5</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="21">
@@ -2293,10 +2296,10 @@
         <v>5</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="21">
@@ -2304,10 +2307,10 @@
         <v>5</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="21">
@@ -2315,31 +2318,31 @@
         <v>5</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="21">
       <c r="B42" s="8"/>
       <c r="C42" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="21">
       <c r="A43" s="6"/>
       <c r="B43" s="8"/>
       <c r="C43" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="21">
       <c r="A44" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>7</v>
@@ -2347,10 +2350,10 @@
     </row>
     <row r="45" spans="1:3" ht="21">
       <c r="A45" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>7</v>
@@ -2358,21 +2361,21 @@
     </row>
     <row r="46" spans="1:3" ht="21">
       <c r="A46" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B46" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C46" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="21">
       <c r="A47" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>7</v>
@@ -2380,10 +2383,10 @@
     </row>
     <row r="48" spans="1:3" ht="21">
       <c r="A48" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>7</v>
@@ -2391,43 +2394,43 @@
     </row>
     <row r="49" spans="1:3" ht="21">
       <c r="A49" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="21">
       <c r="A50" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="21">
       <c r="A51" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="21">
       <c r="A52" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>7</v>
@@ -2435,10 +2438,10 @@
     </row>
     <row r="53" spans="1:3" ht="21">
       <c r="A53" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>7</v>
@@ -2451,10 +2454,10 @@
     </row>
     <row r="56" spans="1:3" ht="21">
       <c r="A56" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>7</v>
@@ -2462,10 +2465,10 @@
     </row>
     <row r="57" spans="1:3" ht="21">
       <c r="A57" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>7</v>
@@ -2473,10 +2476,10 @@
     </row>
     <row r="58" spans="1:3" ht="21">
       <c r="A58" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C58" s="5" t="s">
         <v>7</v>
@@ -2484,21 +2487,21 @@
     </row>
     <row r="59" spans="1:3" ht="21">
       <c r="A59" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="21">
       <c r="A60" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>7</v>
@@ -2506,420 +2509,420 @@
     </row>
     <row r="61" spans="1:3" ht="21">
       <c r="A61" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="21">
       <c r="A62" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="21">
       <c r="A63" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="21">
       <c r="A64" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="21">
       <c r="A65" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="21">
       <c r="A66" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="21">
       <c r="A67" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="21">
       <c r="A68" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="21">
       <c r="A69" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="21">
       <c r="A70" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="21">
       <c r="A71" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="21">
       <c r="A72" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="21">
       <c r="A73" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="21">
       <c r="A74" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="21">
       <c r="A75" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="21">
       <c r="A76" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="21">
       <c r="A77" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="21">
       <c r="A78" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="21">
       <c r="A79" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="21">
       <c r="A80" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="21">
       <c r="A81" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="21">
       <c r="A82" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="21">
       <c r="A83" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="21">
       <c r="A84" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="21">
       <c r="A85" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="21">
       <c r="A86" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="21">
       <c r="A87" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="21">
       <c r="A88" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="21">
       <c r="A89" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="21">
       <c r="A90" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="21">
       <c r="A91" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="21">
       <c r="A92" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="21">
       <c r="A93" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="21">
       <c r="A94" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="21">
       <c r="A95" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="21">
       <c r="A96" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="21">
       <c r="A97" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="21">
       <c r="A98" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="21">
@@ -2929,398 +2932,398 @@
     </row>
     <row r="101" spans="1:3" ht="21">
       <c r="A101" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B101" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="B101" s="7" t="s">
-        <v>103</v>
-      </c>
       <c r="C101" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="21">
       <c r="A102" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="21">
       <c r="A103" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="21">
       <c r="A104" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="21">
       <c r="A105" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="21">
       <c r="A106" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="21">
       <c r="A107" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="21">
       <c r="A108" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="21">
       <c r="A109" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="21">
       <c r="A110" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="21">
       <c r="A111" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="21">
       <c r="A112" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="21">
       <c r="A113" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="21">
       <c r="A114" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="21">
       <c r="A115" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="21">
       <c r="A116" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="21">
       <c r="A117" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="21">
       <c r="A118" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="21">
       <c r="A119" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="21">
       <c r="A120" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="21">
       <c r="A121" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="21">
       <c r="A122" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="21">
       <c r="A123" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="21">
       <c r="A124" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="21">
       <c r="A125" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="21">
       <c r="A126" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="21">
       <c r="A127" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="21">
       <c r="A128" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="21">
       <c r="A129" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="21">
       <c r="A130" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="21">
       <c r="A131" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="21">
       <c r="A132" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="21">
       <c r="A133" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="21">
       <c r="A134" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="21">
       <c r="A135" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="21">
       <c r="A136" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="21">
@@ -3329,398 +3332,398 @@
     </row>
     <row r="139" spans="1:3" ht="21">
       <c r="A139" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B139" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="B139" s="7" t="s">
-        <v>140</v>
-      </c>
       <c r="C139" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="21">
       <c r="A140" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="21">
       <c r="A141" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="21">
       <c r="A142" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="21">
       <c r="A143" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="21">
       <c r="A144" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="21">
       <c r="A145" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="21">
       <c r="A146" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="21">
       <c r="A147" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="21">
       <c r="A148" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="21">
       <c r="A149" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="21">
       <c r="A150" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="21">
       <c r="A151" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="21">
       <c r="A152" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="21">
       <c r="A153" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="21">
       <c r="A154" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="21">
       <c r="A155" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="21">
       <c r="A156" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="21">
       <c r="A157" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="21">
       <c r="A158" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="21">
       <c r="A159" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B159" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="21">
       <c r="A160" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B160" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="21">
       <c r="A161" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="21">
       <c r="A162" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="21">
       <c r="A163" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B163" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="21">
       <c r="A164" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B164" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="21">
       <c r="A165" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B165" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="21">
       <c r="A166" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B166" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="21">
       <c r="A167" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B167" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="21">
       <c r="A168" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B168" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="21">
       <c r="A169" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B169" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="21">
       <c r="A170" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B170" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="21">
       <c r="A171" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B171" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="21">
       <c r="A172" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B172" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="21">
       <c r="A173" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B173" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="21">
       <c r="A174" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B174" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="21">
@@ -3729,387 +3732,387 @@
     </row>
     <row r="177" spans="1:3" ht="21">
       <c r="A177" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="B177" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="B177" s="7" t="s">
-        <v>177</v>
-      </c>
       <c r="C177" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="21">
       <c r="A178" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B178" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="21">
       <c r="A179" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B179" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="21">
       <c r="A180" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B180" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="21">
       <c r="A181" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B181" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="21">
       <c r="A182" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B182" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="21">
       <c r="A183" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B183" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="21">
       <c r="A184" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B184" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="21">
       <c r="A185" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B185" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="21">
       <c r="A186" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B186" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="21">
       <c r="A187" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B187" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="21">
       <c r="A188" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B188" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="21">
       <c r="A189" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B189" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C189" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="21">
       <c r="A190" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B190" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="21">
       <c r="A191" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B191" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="21">
       <c r="A192" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B192" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="21">
       <c r="A193" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B193" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="21">
       <c r="A194" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B194" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="195" spans="1:3" ht="21">
       <c r="A195" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B195" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="21">
       <c r="A196" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B196" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="21">
       <c r="A197" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B197" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="21">
       <c r="A198" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B198" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="21">
       <c r="A199" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B199" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="21">
       <c r="A200" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B200" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C200" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="21">
       <c r="A201" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B201" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="21">
       <c r="A202" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B202" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C202" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="203" spans="1:3" ht="21">
       <c r="A203" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B203" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="21">
       <c r="A204" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B204" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C204" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="205" spans="1:3" ht="21">
       <c r="A205" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B205" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="21">
       <c r="A206" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B206" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C206" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="207" spans="1:3" ht="21">
       <c r="A207" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B207" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C207" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="21">
       <c r="A208" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B208" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C208" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="209" spans="1:3" ht="21">
       <c r="A209" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B209" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C209" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="210" spans="1:3" ht="21">
       <c r="A210" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B210" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C210" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="211" spans="1:3" ht="21">
       <c r="A211" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B211" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C211" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="21">
@@ -4124,244 +4127,244 @@
     </row>
     <row r="214" spans="1:3" ht="21">
       <c r="A214" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="B214" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="B214" s="7" t="s">
-        <v>213</v>
-      </c>
       <c r="C214" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="215" spans="1:3" ht="21">
       <c r="A215" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B215" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C215" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="216" spans="1:3" ht="21">
       <c r="A216" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B216" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C216" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="217" spans="1:3" ht="21">
       <c r="A217" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B217" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C217" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="218" spans="1:3" ht="21">
       <c r="A218" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B218" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C218" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="219" spans="1:3" ht="21">
       <c r="A219" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B219" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C219" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="220" spans="1:3" ht="21">
       <c r="A220" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B220" s="9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C220" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="221" spans="1:3" ht="21">
       <c r="A221" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B221" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C221" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="222" spans="1:3" ht="21">
       <c r="A222" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B222" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C222" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="21">
       <c r="A223" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B223" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C223" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="21">
       <c r="A224" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B224" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C224" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="225" spans="1:3" ht="21">
       <c r="A225" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B225" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C225" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="226" spans="1:3" ht="21">
       <c r="A226" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B226" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C226" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="227" spans="1:3" ht="21">
       <c r="A227" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B227" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C227" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="228" spans="1:3" ht="21">
       <c r="A228" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B228" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C228" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="229" spans="1:3" ht="21">
       <c r="A229" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B229" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C229" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="230" spans="1:3" ht="21">
       <c r="A230" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B230" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C230" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="231" spans="1:3" ht="21">
       <c r="A231" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B231" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C231" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="232" spans="1:3" ht="21">
       <c r="A232" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B232" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C232" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="233" spans="1:3" ht="21">
       <c r="A233" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B233" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C233" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="234" spans="1:3" ht="21">
       <c r="A234" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B234" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C234" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="235" spans="1:3" ht="21">
       <c r="A235" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B235" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C235" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="236" spans="1:3" ht="21">
@@ -4374,387 +4377,387 @@
     </row>
     <row r="238" spans="1:3" ht="21">
       <c r="A238" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="B238" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="B238" s="7" t="s">
-        <v>236</v>
-      </c>
       <c r="C238" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="239" spans="1:3" ht="21">
       <c r="A239" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B239" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C239" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="240" spans="1:3" ht="21">
       <c r="A240" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B240" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C240" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="241" spans="1:3" ht="21">
       <c r="A241" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B241" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C241" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="242" spans="1:3" ht="21">
       <c r="A242" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B242" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C242" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="243" spans="1:3" ht="21">
       <c r="A243" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B243" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C243" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="244" spans="1:3" ht="21">
       <c r="A244" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B244" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C244" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="245" spans="1:3" ht="21">
       <c r="A245" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B245" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C245" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="246" spans="1:3" ht="21">
       <c r="A246" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B246" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C246" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="247" spans="1:3" ht="21">
       <c r="A247" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B247" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C247" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="248" spans="1:3" ht="21">
       <c r="A248" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B248" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C248" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="249" spans="1:3" ht="21">
       <c r="A249" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B249" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C249" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="250" spans="1:3" ht="21">
       <c r="A250" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B250" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C250" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="251" spans="1:3" ht="21">
       <c r="A251" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B251" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C251" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="252" spans="1:3" ht="21">
       <c r="A252" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B252" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C252" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="253" spans="1:3" ht="21">
       <c r="A253" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B253" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C253" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="254" spans="1:3" ht="21">
       <c r="A254" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B254" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C254" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="255" spans="1:3" ht="21">
       <c r="A255" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B255" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C255" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="256" spans="1:3" ht="21">
       <c r="A256" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B256" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C256" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="257" spans="1:3" ht="21">
       <c r="A257" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B257" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C257" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="258" spans="1:3" ht="21">
       <c r="A258" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B258" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C258" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="259" spans="1:3" ht="21">
       <c r="A259" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B259" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C259" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="260" spans="1:3" ht="21">
       <c r="A260" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B260" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C260" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="261" spans="1:3" ht="21">
       <c r="A261" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B261" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C261" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="262" spans="1:3" ht="21">
       <c r="A262" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B262" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C262" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="263" spans="1:3" ht="21">
       <c r="A263" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B263" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C263" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="264" spans="1:3" ht="21">
       <c r="A264" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B264" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C264" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="265" spans="1:3" ht="21">
       <c r="A265" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B265" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C265" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="266" spans="1:3" ht="21">
       <c r="A266" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B266" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C266" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="267" spans="1:3" ht="21">
       <c r="A267" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B267" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C267" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="268" spans="1:3" ht="21">
       <c r="A268" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B268" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C268" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="269" spans="1:3" ht="21">
       <c r="A269" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B269" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C269" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="270" spans="1:3" ht="21">
       <c r="A270" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B270" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C270" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="271" spans="1:3" ht="21">
       <c r="A271" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B271" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C271" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="272" spans="1:3" ht="21">
       <c r="A272" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B272" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C272" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="273" spans="1:3" ht="21">
@@ -4767,211 +4770,211 @@
     </row>
     <row r="275" spans="1:3" ht="21">
       <c r="A275" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="B275" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="B275" s="7" t="s">
-        <v>271</v>
-      </c>
       <c r="C275" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="276" spans="1:3" ht="21">
       <c r="A276" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B276" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C276" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="277" spans="1:3" ht="21">
       <c r="A277" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B277" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C277" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="278" spans="1:3" ht="21">
       <c r="A278" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B278" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C278" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="279" spans="1:3" ht="21">
       <c r="A279" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B279" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C279" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="280" spans="1:3" ht="21">
       <c r="A280" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B280" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C280" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="281" spans="1:3" ht="21">
       <c r="A281" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B281" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C281" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="282" spans="1:3" ht="21">
       <c r="A282" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B282" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C282" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="283" spans="1:3" ht="21">
       <c r="A283" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B283" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C283" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="284" spans="1:3" ht="21">
       <c r="A284" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B284" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C284" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="285" spans="1:3" ht="21">
       <c r="A285" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B285" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C285" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="286" spans="1:3" ht="21">
       <c r="A286" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B286" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C286" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="287" spans="1:3" ht="21">
       <c r="A287" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B287" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C287" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="288" spans="1:3" ht="21">
       <c r="A288" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B288" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C288" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="289" spans="1:3" ht="21">
       <c r="A289" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B289" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C289" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="290" spans="1:3" ht="21">
       <c r="A290" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B290" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C290" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="291" spans="1:3" ht="21">
       <c r="A291" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B291" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C291" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="292" spans="1:3" ht="21">
       <c r="A292" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B292" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C292" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="293" spans="1:3" ht="21">
       <c r="A293" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B293" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C293" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="294" spans="1:3" ht="21">
@@ -4984,420 +4987,420 @@
     </row>
     <row r="296" spans="1:3" ht="21">
       <c r="A296" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="B296" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="B296" s="7" t="s">
-        <v>291</v>
-      </c>
       <c r="C296" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="297" spans="1:3" ht="21">
       <c r="A297" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B297" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C297" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="298" spans="1:3" ht="21">
       <c r="A298" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B298" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C298" s="5" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="299" spans="1:3" ht="21">
       <c r="A299" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B299" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C299" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="300" spans="1:3" ht="21">
       <c r="A300" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B300" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C300" s="5" t="s">
-        <v>25</v>
+        <v>470</v>
       </c>
     </row>
     <row r="301" spans="1:3" ht="21">
       <c r="A301" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B301" s="7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C301" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="302" spans="1:3" ht="21">
       <c r="A302" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B302" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C302" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="303" spans="1:3" ht="21">
       <c r="A303" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B303" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C303" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="304" spans="1:3" ht="21">
       <c r="A304" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B304" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C304" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="305" spans="1:3" ht="21">
       <c r="A305" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B305" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C305" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="306" spans="1:3" ht="21">
       <c r="A306" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B306" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C306" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="307" spans="1:3" ht="21">
       <c r="A307" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B307" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C307" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="308" spans="1:3" ht="21">
       <c r="A308" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B308" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C308" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="309" spans="1:3" ht="21">
       <c r="A309" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B309" s="9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C309" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="310" spans="1:3" ht="21">
       <c r="A310" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B310" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C310" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="311" spans="1:3" ht="21">
       <c r="A311" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B311" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C311" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="312" spans="1:3" ht="21">
       <c r="A312" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B312" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C312" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="313" spans="1:3" ht="21">
       <c r="A313" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B313" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C313" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="314" spans="1:3" ht="21">
       <c r="A314" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B314" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C314" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="315" spans="1:3" ht="21">
       <c r="A315" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B315" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C315" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="316" spans="1:3" ht="21">
       <c r="A316" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B316" s="7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C316" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="317" spans="1:3" ht="21">
       <c r="A317" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B317" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C317" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="318" spans="1:3" ht="21">
       <c r="A318" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B318" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C318" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="319" spans="1:3" ht="21">
       <c r="A319" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B319" s="7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C319" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="320" spans="1:3" ht="21">
       <c r="A320" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B320" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C320" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="321" spans="1:3" ht="21">
       <c r="A321" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B321" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C321" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="322" spans="1:3" ht="21">
       <c r="A322" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B322" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C322" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="323" spans="1:3" ht="21">
       <c r="A323" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B323" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C323" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="324" spans="1:3" ht="21">
       <c r="A324" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B324" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C324" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="325" spans="1:3" ht="21">
       <c r="A325" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B325" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C325" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="326" spans="1:3" ht="21">
       <c r="A326" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B326" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C326" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="327" spans="1:3" ht="21">
       <c r="A327" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B327" s="7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C327" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="328" spans="1:3" ht="21">
       <c r="A328" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B328" s="7" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C328" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="329" spans="1:3" ht="21">
       <c r="A329" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B329" s="7" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C329" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="330" spans="1:3" ht="21">
       <c r="A330" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B330" s="7" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C330" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="331" spans="1:3" ht="21">
       <c r="A331" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B331" s="7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C331" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="332" spans="1:3" ht="21">
       <c r="A332" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B332" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C332" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="333" spans="1:3" ht="21">
       <c r="A333" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B333" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C333" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="334" spans="1:3" ht="21">
@@ -5410,200 +5413,200 @@
     </row>
     <row r="336" spans="1:3" ht="21">
       <c r="A336" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="B336" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="B336" s="7" t="s">
-        <v>330</v>
-      </c>
       <c r="C336" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="337" spans="1:3" ht="21">
       <c r="A337" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B337" s="7" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C337" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="338" spans="1:3" ht="21">
       <c r="A338" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B338" s="7" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C338" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="339" spans="1:3" ht="21">
       <c r="A339" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B339" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C339" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="340" spans="1:3" ht="21">
       <c r="A340" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B340" s="7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C340" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="341" spans="1:3" ht="21">
       <c r="A341" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B341" s="7" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C341" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="342" spans="1:3" ht="21">
       <c r="A342" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B342" s="7" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C342" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="343" spans="1:3" ht="21">
       <c r="A343" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B343" s="7" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C343" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="344" spans="1:3" ht="21">
       <c r="A344" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B344" s="9" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C344" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="345" spans="1:3" ht="21">
       <c r="A345" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B345" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C345" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="346" spans="1:3" ht="21">
       <c r="A346" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B346" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C346" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="347" spans="1:3" ht="21">
       <c r="A347" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B347" s="7" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C347" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="348" spans="1:3" ht="21">
       <c r="A348" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B348" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C348" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="349" spans="1:3" ht="21">
       <c r="A349" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B349" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C349" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="350" spans="1:3" ht="21">
       <c r="A350" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B350" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C350" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="351" spans="1:3" ht="21">
       <c r="A351" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B351" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C351" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="352" spans="1:3" ht="21">
       <c r="A352" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B352" s="7" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C352" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="353" spans="1:3" ht="21">
       <c r="A353" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B353" s="7" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C353" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="354" spans="1:3" ht="21">
@@ -5616,486 +5619,486 @@
     </row>
     <row r="356" spans="1:3" ht="21">
       <c r="A356" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="B356" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="B356" s="7" t="s">
-        <v>349</v>
-      </c>
       <c r="C356" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="357" spans="1:3" ht="21">
       <c r="A357" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B357" s="7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C357" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="358" spans="1:3" ht="21">
       <c r="A358" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B358" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C358" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="359" spans="1:3" ht="21">
       <c r="A359" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B359" s="7" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C359" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="360" spans="1:3" ht="21">
       <c r="A360" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B360" s="7" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C360" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="361" spans="1:3" ht="21">
       <c r="A361" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B361" s="7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C361" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="362" spans="1:3" ht="21">
       <c r="A362" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B362" s="7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C362" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="363" spans="1:3" ht="21">
       <c r="A363" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B363" s="7" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C363" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="364" spans="1:3" ht="21">
       <c r="A364" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B364" s="7" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C364" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="365" spans="1:3" ht="21">
       <c r="A365" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B365" s="7" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C365" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="366" spans="1:3" ht="21">
       <c r="A366" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B366" s="7" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C366" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="367" spans="1:3" ht="21">
       <c r="A367" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B367" s="7" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C367" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="368" spans="1:3" ht="21">
       <c r="A368" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B368" s="7" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C368" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="369" spans="1:3" ht="21">
       <c r="A369" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B369" s="7" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C369" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="370" spans="1:3" ht="21">
       <c r="A370" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B370" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C370" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="371" spans="1:3" ht="21">
       <c r="A371" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B371" s="7" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C371" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="372" spans="1:3" ht="21">
       <c r="A372" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B372" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C372" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="373" spans="1:3" ht="21">
       <c r="A373" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B373" s="7" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C373" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="374" spans="1:3" ht="21">
       <c r="A374" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B374" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C374" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="375" spans="1:3" ht="21">
       <c r="A375" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B375" s="7" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C375" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="376" spans="1:3" ht="21">
       <c r="A376" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B376" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C376" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="377" spans="1:3" ht="21">
       <c r="A377" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B377" s="7" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C377" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="378" spans="1:3" ht="21">
       <c r="A378" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B378" s="7" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C378" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="379" spans="1:3" ht="21">
       <c r="A379" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B379" s="7" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C379" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="380" spans="1:3" ht="21">
       <c r="A380" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B380" s="7" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C380" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="381" spans="1:3" ht="21">
       <c r="A381" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B381" s="7" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C381" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="382" spans="1:3" ht="21">
       <c r="A382" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B382" s="7" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C382" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="383" spans="1:3" ht="21">
       <c r="A383" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B383" s="7" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C383" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="384" spans="1:3" ht="21">
       <c r="A384" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B384" s="7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C384" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="385" spans="1:3" ht="21">
       <c r="A385" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B385" s="7" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C385" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="386" spans="1:3" ht="21">
       <c r="A386" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B386" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C386" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="387" spans="1:3" ht="21">
       <c r="A387" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B387" s="7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C387" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="388" spans="1:3" ht="21">
       <c r="A388" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B388" s="7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C388" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="389" spans="1:3" ht="21">
       <c r="A389" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B389" s="7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C389" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="390" spans="1:3" ht="21">
       <c r="A390" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B390" s="7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C390" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="391" spans="1:3" ht="21">
       <c r="A391" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B391" s="7" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C391" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="392" spans="1:3" ht="21">
       <c r="A392" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B392" s="7" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C392" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="393" spans="1:3" ht="21">
       <c r="A393" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B393" s="7" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C393" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="394" spans="1:3" ht="21">
       <c r="A394" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B394" s="7" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C394" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="395" spans="1:3" ht="21">
       <c r="A395" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B395" s="7" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C395" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="396" spans="1:3" ht="21">
       <c r="A396" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B396" s="7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C396" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="397" spans="1:3" ht="21">
       <c r="A397" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B397" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C397" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="398" spans="1:3" ht="21">
       <c r="A398" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B398" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C398" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="399" spans="1:3" ht="21">
       <c r="A399" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B399" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C399" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="400" spans="1:3" ht="21">
@@ -6108,68 +6111,68 @@
     </row>
     <row r="402" spans="1:3" ht="21">
       <c r="A402" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="B402" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="B402" s="7" t="s">
-        <v>393</v>
-      </c>
       <c r="C402" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="403" spans="1:3" ht="21">
       <c r="A403" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B403" s="7" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C403" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="404" spans="1:3" ht="21">
       <c r="A404" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B404" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C404" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="405" spans="1:3" ht="21">
       <c r="A405" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B405" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C405" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="406" spans="1:3" ht="21">
       <c r="A406" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B406" s="7" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C406" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="407" spans="1:3" ht="21">
       <c r="A407" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B407" s="7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C407" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="408" spans="1:3" ht="21">
@@ -6182,662 +6185,662 @@
     </row>
     <row r="410" spans="1:3" ht="21">
       <c r="A410" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="B410" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="B410" s="7" t="s">
-        <v>399</v>
-      </c>
       <c r="C410" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="411" spans="1:3" ht="21">
       <c r="A411" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B411" s="7" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C411" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="412" spans="1:3" ht="21">
       <c r="A412" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B412" s="7" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C412" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="413" spans="1:3" ht="21">
       <c r="A413" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B413" s="7" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C413" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="414" spans="1:3" ht="21">
       <c r="A414" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B414" s="7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C414" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="415" spans="1:3" ht="21">
       <c r="A415" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B415" s="7" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C415" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="416" spans="1:3" ht="21">
       <c r="A416" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B416" s="7" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C416" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="417" spans="1:3" ht="21">
       <c r="A417" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B417" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C417" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="418" spans="1:3" ht="21">
       <c r="A418" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B418" s="7" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C418" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="419" spans="1:3" ht="21">
       <c r="A419" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B419" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C419" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="420" spans="1:3" ht="21">
       <c r="A420" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B420" s="7" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C420" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="421" spans="1:3" ht="21">
       <c r="A421" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B421" s="7" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C421" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="422" spans="1:3" ht="21">
       <c r="A422" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B422" s="7" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C422" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="423" spans="1:3" ht="21">
       <c r="A423" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B423" s="7" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C423" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="424" spans="1:3" ht="21">
       <c r="A424" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B424" s="7" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C424" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="425" spans="1:3" ht="21">
       <c r="A425" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B425" s="7" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C425" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="426" spans="1:3" ht="21">
       <c r="A426" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B426" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C426" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="427" spans="1:3" ht="21">
       <c r="A427" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B427" s="7" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C427" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="428" spans="1:3" ht="21">
       <c r="A428" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B428" s="7" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C428" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="429" spans="1:3" ht="21">
       <c r="A429" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B429" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C429" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="430" spans="1:3" ht="21">
       <c r="A430" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B430" s="7" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C430" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="431" spans="1:3" ht="21">
       <c r="A431" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B431" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C431" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="432" spans="1:3" ht="21">
       <c r="A432" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B432" s="7" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C432" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="433" spans="1:3" ht="21">
       <c r="A433" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B433" s="7" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C433" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="434" spans="1:3" ht="21">
       <c r="A434" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B434" s="7" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C434" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="435" spans="1:3" ht="21">
       <c r="A435" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B435" s="7" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C435" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="436" spans="1:3" ht="21">
       <c r="A436" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B436" s="7" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C436" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="437" spans="1:3" ht="21">
       <c r="A437" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B437" s="7" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C437" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="438" spans="1:3" ht="21">
       <c r="A438" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B438" s="7" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C438" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="439" spans="1:3" ht="21">
       <c r="A439" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B439" s="7" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C439" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="440" spans="1:3" ht="21">
       <c r="A440" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B440" s="7" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C440" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="441" spans="1:3" ht="21">
       <c r="A441" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B441" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C441" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="442" spans="1:3" ht="21">
       <c r="A442" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B442" s="7" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C442" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="443" spans="1:3" ht="21">
       <c r="A443" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B443" s="7" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C443" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="444" spans="1:3" ht="21">
       <c r="A444" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B444" s="7" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C444" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="445" spans="1:3" ht="21">
       <c r="A445" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B445" s="7" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C445" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="446" spans="1:3" ht="21">
       <c r="A446" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B446" s="7" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C446" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="447" spans="1:3" ht="21">
       <c r="A447" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B447" s="7" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C447" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="448" spans="1:3" ht="21">
       <c r="A448" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B448" s="7" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C448" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="449" spans="1:3" ht="21">
       <c r="A449" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B449" s="7" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C449" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="450" spans="1:3" ht="21">
       <c r="A450" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B450" s="7" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C450" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="451" spans="1:3" ht="21">
       <c r="A451" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B451" s="7" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C451" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="452" spans="1:3" ht="21">
       <c r="A452" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B452" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C452" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="453" spans="1:3" ht="21">
       <c r="A453" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B453" s="7" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C453" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="454" spans="1:3" ht="21">
       <c r="A454" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B454" s="7" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C454" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="455" spans="1:3" ht="21">
       <c r="A455" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B455" s="7" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C455" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="456" spans="1:3" ht="21">
       <c r="A456" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B456" s="7" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C456" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="457" spans="1:3" ht="21">
       <c r="A457" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B457" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C457" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="458" spans="1:3" ht="21">
       <c r="A458" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B458" s="7" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C458" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="459" spans="1:3" ht="21">
       <c r="A459" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B459" s="7" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C459" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="460" spans="1:3" ht="21">
       <c r="A460" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B460" s="7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C460" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="461" spans="1:3" ht="21">
       <c r="A461" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B461" s="7" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C461" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="462" spans="1:3" ht="21">
       <c r="A462" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B462" s="7" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C462" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="463" spans="1:3" ht="21">
       <c r="A463" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B463" s="7" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C463" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="464" spans="1:3" ht="21">
       <c r="A464" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B464" s="7" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C464" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="465" spans="1:3" ht="21">
       <c r="A465" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B465" s="7" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C465" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="466" spans="1:3" ht="21">
       <c r="A466" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B466" s="7" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C466" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="467" spans="1:3" ht="21">
       <c r="A467" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B467" s="7" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C467" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="468" spans="1:3" ht="21">
       <c r="A468" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B468" s="7" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C468" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="469" spans="1:3" ht="21">
       <c r="A469" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B469" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C469" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="470" spans="1:3" ht="21">
@@ -6851,112 +6854,112 @@
     </row>
     <row r="472" spans="1:3" ht="21">
       <c r="A472" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="B472" s="7" t="s">
         <v>458</v>
       </c>
-      <c r="B472" s="7" t="s">
-        <v>459</v>
-      </c>
       <c r="C472" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="473" spans="1:3" ht="21">
       <c r="A473" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B473" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C473" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="474" spans="1:3" ht="21">
       <c r="A474" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B474" s="7" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C474" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="475" spans="1:3" ht="21">
       <c r="A475" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B475" s="7" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C475" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="476" spans="1:3" ht="21">
       <c r="A476" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B476" s="7" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C476" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="477" spans="1:3" ht="21">
       <c r="A477" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B477" s="7" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C477" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="478" spans="1:3" ht="21">
       <c r="A478" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B478" s="7" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C478" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="479" spans="1:3" ht="21">
       <c r="A479" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B479" s="7" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C479" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="480" spans="1:3" ht="21">
       <c r="A480" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B480" s="7" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C480" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="481" spans="1:3" ht="21">
       <c r="A481" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B481" s="7" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C481" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
